--- a/Excel/Actor.xlsx
+++ b/Excel/Actor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8C34BC-0AD9-4EA8-AC04-EBBC40CEF92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59ED68B-3DC4-43D0-91CC-145304280645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerLevelTable" sheetId="1" r:id="rId1"/>
@@ -564,7 +564,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE34A48A-3598-4BA4-AB07-6FE34C4F63A5}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -609,7 +611,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -641,7 +643,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -673,7 +675,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -705,7 +707,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -737,7 +739,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -769,7 +771,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -801,7 +803,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -833,7 +835,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>126</v>
+        <v>216</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -865,7 +867,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>149</v>
+        <v>239</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -897,7 +899,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>172</v>
+        <v>262</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -929,7 +931,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>195</v>
+        <v>285</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -961,7 +963,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>227</v>
+        <v>317</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -993,7 +995,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>259</v>
+        <v>349</v>
       </c>
       <c r="C14">
         <v>9</v>
@@ -1025,7 +1027,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>291</v>
+        <v>381</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -1057,7 +1059,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>323</v>
+        <v>413</v>
       </c>
       <c r="C16">
         <v>9</v>

--- a/Excel/Actor.xlsx
+++ b/Excel/Actor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59ED68B-3DC4-43D0-91CC-145304280645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB23B01F-B79D-427A-8268-83E70118A34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerLevelTable" sheetId="1" r:id="rId1"/>
@@ -632,7 +632,7 @@
         <v>12</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -664,7 +664,7 @@
         <v>15</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J3">
         <v>1000</v>
@@ -675,7 +675,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>128</v>
+        <v>276</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -696,7 +696,7 @@
         <v>18</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J4">
         <v>1100</v>
@@ -707,7 +707,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>142</v>
+        <v>364</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -728,7 +728,7 @@
         <v>21</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J5">
         <v>1200</v>
@@ -739,7 +739,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>156</v>
+        <v>452</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -760,7 +760,7 @@
         <v>24</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J6">
         <v>1300</v>
@@ -771,7 +771,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>170</v>
+        <v>540</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -792,7 +792,7 @@
         <v>27</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J7">
         <v>3500</v>
@@ -803,7 +803,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>193</v>
+        <v>752</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -824,7 +824,7 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J8">
         <v>3600</v>
@@ -835,7 +835,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>216</v>
+        <v>964</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -856,7 +856,7 @@
         <v>33</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J9">
         <v>3700</v>
@@ -867,7 +867,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>239</v>
+        <v>1176</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -888,7 +888,7 @@
         <v>36</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J10">
         <v>3800</v>
@@ -899,7 +899,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>262</v>
+        <v>1388</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -920,7 +920,7 @@
         <v>39</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J11">
         <v>3900</v>
@@ -931,7 +931,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>285</v>
+        <v>1600</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -952,7 +952,7 @@
         <v>42</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="J12">
         <v>9000</v>
@@ -963,7 +963,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>317</v>
+        <v>2006</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -984,7 +984,7 @@
         <v>45</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="J13">
         <v>9200</v>
@@ -995,7 +995,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>349</v>
+        <v>2412</v>
       </c>
       <c r="C14">
         <v>9</v>
@@ -1016,7 +1016,7 @@
         <v>48</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="J14">
         <v>9400</v>
@@ -1027,7 +1027,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>381</v>
+        <v>2818</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -1048,7 +1048,7 @@
         <v>51</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="J15">
         <v>9600</v>
@@ -1059,7 +1059,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>413</v>
+        <v>3224</v>
       </c>
       <c r="C16">
         <v>9</v>
@@ -1080,7 +1080,7 @@
         <v>54</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="J16">
         <v>9800</v>

--- a/Excel/Actor.xlsx
+++ b/Excel/Actor.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0820D1A-DF21-4E27-8843-0025845008C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642D9AFC-61CC-4CC5-9235-C2AD715AEF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerLevelTable" sheetId="1" r:id="rId1"/>
+    <sheet name="ActorTable" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="2376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2744" uniqueCount="2705">
   <si>
     <t>playerLevel|Int</t>
   </si>
@@ -7162,6 +7163,996 @@
   </si>
   <si>
     <t>196000000, 293000000, 391000000, 225000000, 337000000, 450000000, 270000000, 405000000, 540000000</t>
+  </si>
+  <si>
+    <t>Portrait_AngelicWarrior</t>
+  </si>
+  <si>
+    <t>AngelicWarrior</t>
+  </si>
+  <si>
+    <t>CharUltimate_AngelicWarrior</t>
+  </si>
+  <si>
+    <t>CharDesc_AngelicWarrior</t>
+  </si>
+  <si>
+    <t>CharStory_AngelicWarrior</t>
+  </si>
+  <si>
+    <t>CharName_AngelicWarrior</t>
+  </si>
+  <si>
+    <t>CharLowName_AngelicWarrior</t>
+  </si>
+  <si>
+    <t>BGM_IceMagician</t>
+  </si>
+  <si>
+    <t>Portrait_IceMagician</t>
+  </si>
+  <si>
+    <t>IceMagician</t>
+  </si>
+  <si>
+    <t>CharUltimate_IceMagician</t>
+  </si>
+  <si>
+    <t>CharDesc_IceMagician</t>
+  </si>
+  <si>
+    <t>CharStory_IceMagician</t>
+  </si>
+  <si>
+    <t>CharName_IceMagician</t>
+  </si>
+  <si>
+    <t>CharLowName_IceMagician</t>
+  </si>
+  <si>
+    <t>Portrait_EnergyShieldRobot</t>
+  </si>
+  <si>
+    <t>EnergyShieldRobot</t>
+  </si>
+  <si>
+    <t>CharUltimate_EnergyShieldRobot</t>
+  </si>
+  <si>
+    <t>CharDesc_EnergyShieldRobot</t>
+  </si>
+  <si>
+    <t>CharStory_EnergyShieldRobot</t>
+  </si>
+  <si>
+    <t>CharName_EnergyShieldRobot</t>
+  </si>
+  <si>
+    <t>CharLowName_EnergyShieldRobot</t>
+  </si>
+  <si>
+    <t>BGM_GirlArcher</t>
+  </si>
+  <si>
+    <t>Portrait_GirlArcher</t>
+  </si>
+  <si>
+    <t>GirlArcher</t>
+  </si>
+  <si>
+    <t>CharUltimate_GirlArcher</t>
+  </si>
+  <si>
+    <t>CharDesc_GirlArcher</t>
+  </si>
+  <si>
+    <t>CharStory_GirlArcher</t>
+  </si>
+  <si>
+    <t>CharName_GirlArcher</t>
+  </si>
+  <si>
+    <t>CharLowName_GirlArcher</t>
+  </si>
+  <si>
+    <t>Portrait_GirlWarrior</t>
+  </si>
+  <si>
+    <t>GirlWarrior</t>
+  </si>
+  <si>
+    <t>CharUltimate_GirlWarrior</t>
+  </si>
+  <si>
+    <t>CharDesc_GirlWarrior</t>
+  </si>
+  <si>
+    <t>CharStory_GirlWarrior</t>
+  </si>
+  <si>
+    <t>CharName_GirlWarrior</t>
+  </si>
+  <si>
+    <t>CharLowName_GirlWarrior</t>
+  </si>
+  <si>
+    <t>BGM_NecromancerFour</t>
+  </si>
+  <si>
+    <t>Portrait_NecromancerFour</t>
+  </si>
+  <si>
+    <t>NecromancerFour</t>
+  </si>
+  <si>
+    <t>CharUltimate_NecromancerFour</t>
+  </si>
+  <si>
+    <t>CharDesc_NecromancerFour</t>
+  </si>
+  <si>
+    <t>CharStory_NecromancerFour</t>
+  </si>
+  <si>
+    <t>CharName_NecromancerFour</t>
+  </si>
+  <si>
+    <t>CharLowName_NecromancerFour</t>
+  </si>
+  <si>
+    <t>BGM_Linhi</t>
+  </si>
+  <si>
+    <t>Portrait_Linhi</t>
+  </si>
+  <si>
+    <t>Linhi</t>
+  </si>
+  <si>
+    <t>CharUltimate_Linhi</t>
+  </si>
+  <si>
+    <t>CharDesc_Linhi</t>
+  </si>
+  <si>
+    <t>CharStory_Linhi</t>
+  </si>
+  <si>
+    <t>CharName_Linhi</t>
+  </si>
+  <si>
+    <t>CharLowName_Linhi</t>
+  </si>
+  <si>
+    <t>BGM_Syria</t>
+  </si>
+  <si>
+    <t>Portrait_Syria</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>CharUltimate_Syria</t>
+  </si>
+  <si>
+    <t>CharDesc_Syria</t>
+  </si>
+  <si>
+    <t>CharStory_Syria</t>
+  </si>
+  <si>
+    <t>CharName_Syria</t>
+  </si>
+  <si>
+    <t>CharLowName_Syria</t>
+  </si>
+  <si>
+    <t>BGM_BladeFanDancer</t>
+  </si>
+  <si>
+    <t>Portrait_BladeFanDancer</t>
+  </si>
+  <si>
+    <t>BladeFanDancer</t>
+  </si>
+  <si>
+    <t>CharUltimate_BladeFanDancer</t>
+  </si>
+  <si>
+    <t>CharDesc_BladeFanDancer</t>
+  </si>
+  <si>
+    <t>CharStory_BladeFanDancer</t>
+  </si>
+  <si>
+    <t>CharName_BladeFanDancer</t>
+  </si>
+  <si>
+    <t>CharLowName_BladeFanDancer</t>
+  </si>
+  <si>
+    <t>Portrait_SandWarrior</t>
+  </si>
+  <si>
+    <t>SandWarrior</t>
+  </si>
+  <si>
+    <t>CharUltimate_SandWarrior</t>
+  </si>
+  <si>
+    <t>CharDesc_SandWarrior</t>
+  </si>
+  <si>
+    <t>CharStory_SandWarrior</t>
+  </si>
+  <si>
+    <t>CharName_SandWarrior</t>
+  </si>
+  <si>
+    <t>CharLowName_SandWarrior</t>
+  </si>
+  <si>
+    <t>Portrait_CyborgCharacter</t>
+  </si>
+  <si>
+    <t>CyborgCharacter</t>
+  </si>
+  <si>
+    <t>CharUltimate_CyborgCharacter</t>
+  </si>
+  <si>
+    <t>CharDesc_CyborgCharacter</t>
+  </si>
+  <si>
+    <t>CharStory_CyborgCharacter</t>
+  </si>
+  <si>
+    <t>CharName_CyborgCharacter</t>
+  </si>
+  <si>
+    <t>CharLowName_CyborgCharacter</t>
+  </si>
+  <si>
+    <t>Portrait_MobileFemale</t>
+  </si>
+  <si>
+    <t>MobileFemale</t>
+  </si>
+  <si>
+    <t>CharUltimate_MobileFemale</t>
+  </si>
+  <si>
+    <t>CharDesc_MobileFemale</t>
+  </si>
+  <si>
+    <t>CharStory_MobileFemale</t>
+  </si>
+  <si>
+    <t>CharName_MobileFemale</t>
+  </si>
+  <si>
+    <t>CharLowName_MobileFemale</t>
+  </si>
+  <si>
+    <t>Portrait_RpgKnight</t>
+  </si>
+  <si>
+    <t>RpgKnight</t>
+  </si>
+  <si>
+    <t>CharUltimate_RpgKnight</t>
+  </si>
+  <si>
+    <t>CharDesc_RpgKnight</t>
+  </si>
+  <si>
+    <t>CharStory_RpgKnight</t>
+  </si>
+  <si>
+    <t>CharName_RpgKnight</t>
+  </si>
+  <si>
+    <t>CharLowName_RpgKnight</t>
+  </si>
+  <si>
+    <t>Portrait_GloryArmor</t>
+  </si>
+  <si>
+    <t>GloryArmor</t>
+  </si>
+  <si>
+    <t>CharUltimate_GloryArmor</t>
+  </si>
+  <si>
+    <t>CharDesc_GloryArmor</t>
+  </si>
+  <si>
+    <t>CharStory_GloryArmor</t>
+  </si>
+  <si>
+    <t>CharName_GloryArmor</t>
+  </si>
+  <si>
+    <t>CharLowName_GloryArmor</t>
+  </si>
+  <si>
+    <t>Portrait_DualWarrior</t>
+  </si>
+  <si>
+    <t>DualWarrior</t>
+  </si>
+  <si>
+    <t>CharUltimate_DualWarrior</t>
+  </si>
+  <si>
+    <t>CharDesc_DualWarrior</t>
+  </si>
+  <si>
+    <t>CharStory_DualWarrior</t>
+  </si>
+  <si>
+    <t>CharName_DualWarrior</t>
+  </si>
+  <si>
+    <t>CharLowName_DualWarrior</t>
+  </si>
+  <si>
+    <t>Portrait_Soldier</t>
+  </si>
+  <si>
+    <t>Soldier</t>
+  </si>
+  <si>
+    <t>CharUltimate_Soldier</t>
+  </si>
+  <si>
+    <t>CharDesc_Soldier</t>
+  </si>
+  <si>
+    <t>CharStory_Soldier</t>
+  </si>
+  <si>
+    <t>CharName_Soldier</t>
+  </si>
+  <si>
+    <t>CharLowName_Soldier</t>
+  </si>
+  <si>
+    <t>Portrait_RockElemental</t>
+  </si>
+  <si>
+    <t>RockElemental</t>
+  </si>
+  <si>
+    <t>CharUltimate_RockElemental</t>
+  </si>
+  <si>
+    <t>CharDesc_RockElemental</t>
+  </si>
+  <si>
+    <t>CharStory_RockElemental</t>
+  </si>
+  <si>
+    <t>CharName_RockElemental</t>
+  </si>
+  <si>
+    <t>CharLowName_RockElemental</t>
+  </si>
+  <si>
+    <t>Portrait_Lola</t>
+  </si>
+  <si>
+    <t>Lola</t>
+  </si>
+  <si>
+    <t>CharUltimate_Lola</t>
+  </si>
+  <si>
+    <t>CharDesc_Lola</t>
+  </si>
+  <si>
+    <t>CharStory_Lola</t>
+  </si>
+  <si>
+    <t>CharName_Lola</t>
+  </si>
+  <si>
+    <t>CharLowName_Lola</t>
+  </si>
+  <si>
+    <t>BGM_Medea</t>
+  </si>
+  <si>
+    <t>Portrait_Medea</t>
+  </si>
+  <si>
+    <t>Medea</t>
+  </si>
+  <si>
+    <t>CharUltimate_Medea</t>
+  </si>
+  <si>
+    <t>CharDesc_Medea</t>
+  </si>
+  <si>
+    <t>CharStory_Medea</t>
+  </si>
+  <si>
+    <t>CharName_Medea</t>
+  </si>
+  <si>
+    <t>CharLowName_Medea</t>
+  </si>
+  <si>
+    <t>Portrait_Kachujin</t>
+  </si>
+  <si>
+    <t>Kachujin</t>
+  </si>
+  <si>
+    <t>CharUltimate_Kachujin</t>
+  </si>
+  <si>
+    <t>CharDesc_Kachujin</t>
+  </si>
+  <si>
+    <t>CharStory_Kachujin</t>
+  </si>
+  <si>
+    <t>CharName_Kachujin</t>
+  </si>
+  <si>
+    <t>CharLowName_Kachujin</t>
+  </si>
+  <si>
+    <t>BGM_SteampunkRobot</t>
+  </si>
+  <si>
+    <t>Portrait_SteampunkRobot</t>
+  </si>
+  <si>
+    <t>SteampunkRobot</t>
+  </si>
+  <si>
+    <t>CharUltimate_SteampunkRobot</t>
+  </si>
+  <si>
+    <t>CharDesc_SteampunkRobot</t>
+  </si>
+  <si>
+    <t>CharStory_SteampunkRobot</t>
+  </si>
+  <si>
+    <t>CharName_SteampunkRobot</t>
+  </si>
+  <si>
+    <t>CharLowName_SteampunkRobot</t>
+  </si>
+  <si>
+    <t>Portrait_Yuka</t>
+  </si>
+  <si>
+    <t>Yuka</t>
+  </si>
+  <si>
+    <t>CharUltimate_Yuka</t>
+  </si>
+  <si>
+    <t>CharDesc_Yuka</t>
+  </si>
+  <si>
+    <t>CharStory_Yuka</t>
+  </si>
+  <si>
+    <t>CharName_Yuka</t>
+  </si>
+  <si>
+    <t>CharLowName_Yuka</t>
+  </si>
+  <si>
+    <t>Portrait_Akai</t>
+  </si>
+  <si>
+    <t>Akai</t>
+  </si>
+  <si>
+    <t>CharUltimate_Akai</t>
+  </si>
+  <si>
+    <t>CharDesc_Akai</t>
+  </si>
+  <si>
+    <t>CharStory_Akai</t>
+  </si>
+  <si>
+    <t>CharName_Akai</t>
+  </si>
+  <si>
+    <t>CharLowName_Akai</t>
+  </si>
+  <si>
+    <t>Portrait_GreekWarrior</t>
+  </si>
+  <si>
+    <t>GreekWarrior</t>
+  </si>
+  <si>
+    <t>CharUltimate_GreekWarrior</t>
+  </si>
+  <si>
+    <t>CharDesc_GreekWarrior</t>
+  </si>
+  <si>
+    <t>CharStory_GreekWarrior</t>
+  </si>
+  <si>
+    <t>CharName_GreekWarrior</t>
+  </si>
+  <si>
+    <t>CharLowName_GreekWarrior</t>
+  </si>
+  <si>
+    <t>BGM_Meryl</t>
+  </si>
+  <si>
+    <t>Portrait_Meryl</t>
+  </si>
+  <si>
+    <t>Meryl</t>
+  </si>
+  <si>
+    <t>CharUltimate_Meryl</t>
+  </si>
+  <si>
+    <t>CharDesc_Meryl</t>
+  </si>
+  <si>
+    <t>CharStory_Meryl</t>
+  </si>
+  <si>
+    <t>CharName_Meryl</t>
+  </si>
+  <si>
+    <t>CharLowName_Meryl</t>
+  </si>
+  <si>
+    <t>Portrait_SuperHero</t>
+  </si>
+  <si>
+    <t>SuperHero</t>
+  </si>
+  <si>
+    <t>CharUltimate_SuperHero</t>
+  </si>
+  <si>
+    <t>CharDesc_SuperHero</t>
+  </si>
+  <si>
+    <t>CharStory_SuperHero</t>
+  </si>
+  <si>
+    <t>CharName_SuperHero</t>
+  </si>
+  <si>
+    <t>CharLowName_SuperHero</t>
+  </si>
+  <si>
+    <t>Portrait_ChaosElemental</t>
+  </si>
+  <si>
+    <t>ChaosElemental</t>
+  </si>
+  <si>
+    <t>CharUltimate_ChaosElemental</t>
+  </si>
+  <si>
+    <t>CharDesc_ChaosElemental</t>
+  </si>
+  <si>
+    <t>CharStory_ChaosElemental</t>
+  </si>
+  <si>
+    <t>CharName_ChaosElemental</t>
+  </si>
+  <si>
+    <t>CharLowName_ChaosElemental</t>
+  </si>
+  <si>
+    <t>Portrait_SciFiWarrior</t>
+  </si>
+  <si>
+    <t>SciFiWarrior</t>
+  </si>
+  <si>
+    <t>CharUltimate_SciFiWarrior</t>
+  </si>
+  <si>
+    <t>CharDesc_SciFiWarrior</t>
+  </si>
+  <si>
+    <t>CharStory_SciFiWarrior</t>
+  </si>
+  <si>
+    <t>CharName_SciFiWarrior</t>
+  </si>
+  <si>
+    <t>CharLowName_SciFiWarrior</t>
+  </si>
+  <si>
+    <t>Portrait_DynaMob</t>
+  </si>
+  <si>
+    <t>DynaMob</t>
+  </si>
+  <si>
+    <t>CharUltimate_DynaMob</t>
+  </si>
+  <si>
+    <t>CharDesc_DynaMob</t>
+  </si>
+  <si>
+    <t>CharStory_DynaMob</t>
+  </si>
+  <si>
+    <t>CharName_DynaMob</t>
+  </si>
+  <si>
+    <t>CharLowName_DynaMob</t>
+  </si>
+  <si>
+    <t>Portrait_EarthMage</t>
+  </si>
+  <si>
+    <t>EarthMage</t>
+  </si>
+  <si>
+    <t>CharUltimate_EarthMage</t>
+  </si>
+  <si>
+    <t>CharDesc_EarthMage</t>
+  </si>
+  <si>
+    <t>CharStory_EarthMage</t>
+  </si>
+  <si>
+    <t>CharName_EarthMage</t>
+  </si>
+  <si>
+    <t>CharLowName_EarthMage</t>
+  </si>
+  <si>
+    <t>Portrait_JellyFishGirl</t>
+  </si>
+  <si>
+    <t>JellyFishGirl</t>
+  </si>
+  <si>
+    <t>CharUltimate_JellyFishGirl</t>
+  </si>
+  <si>
+    <t>CharDesc_JellyFishGirl</t>
+  </si>
+  <si>
+    <t>CharStory_JellyFishGirl</t>
+  </si>
+  <si>
+    <t>CharName_JellyFishGirl</t>
+  </si>
+  <si>
+    <t>CharLowName_JellyFishGirl</t>
+  </si>
+  <si>
+    <t>Portrait_Bei</t>
+  </si>
+  <si>
+    <t>Bei</t>
+  </si>
+  <si>
+    <t>CharUltimate_Bei</t>
+  </si>
+  <si>
+    <t>CharDesc_Bei</t>
+  </si>
+  <si>
+    <t>CharStory_Bei</t>
+  </si>
+  <si>
+    <t>CharName_Bei</t>
+  </si>
+  <si>
+    <t>CharLowName_Bei</t>
+  </si>
+  <si>
+    <t>Portrait_BigBatSuccubus</t>
+  </si>
+  <si>
+    <t>BigBatSuccubus</t>
+  </si>
+  <si>
+    <t>CharUltimate_BigBatSuccubus</t>
+  </si>
+  <si>
+    <t>CharDesc_BigBatSuccubus</t>
+  </si>
+  <si>
+    <t>CharStory_BigBatSuccubus</t>
+  </si>
+  <si>
+    <t>CharName_BigBatSuccubus</t>
+  </si>
+  <si>
+    <t>CharLowName_BigBatSuccubus</t>
+  </si>
+  <si>
+    <t>Portrait_Yuki</t>
+  </si>
+  <si>
+    <t>Yuki</t>
+  </si>
+  <si>
+    <t>CharUltimate_Yuki</t>
+  </si>
+  <si>
+    <t>CharDesc_Yuki</t>
+  </si>
+  <si>
+    <t>CharStory_Yuki</t>
+  </si>
+  <si>
+    <t>CharName_Yuki</t>
+  </si>
+  <si>
+    <t>CharLowName_Yuki</t>
+  </si>
+  <si>
+    <t>Portrait_Ganfaul</t>
+  </si>
+  <si>
+    <t>Ganfaul</t>
+  </si>
+  <si>
+    <t>CharUltimate_Ganfaul</t>
+  </si>
+  <si>
+    <t>CharDesc_Ganfaul</t>
+  </si>
+  <si>
+    <t>CharStory_Ganfaul</t>
+  </si>
+  <si>
+    <t>CharName_Ganfaul</t>
+  </si>
+  <si>
+    <t>CharLowName_Ganfaul</t>
+  </si>
+  <si>
+    <t>Actor1141</t>
+  </si>
+  <si>
+    <t>Actor0240</t>
+  </si>
+  <si>
+    <t>Actor1039</t>
+  </si>
+  <si>
+    <t>Actor2238</t>
+  </si>
+  <si>
+    <t>Actor0037</t>
+  </si>
+  <si>
+    <t>Actor0236</t>
+  </si>
+  <si>
+    <t>Actor2235</t>
+  </si>
+  <si>
+    <t>Actor0233</t>
+  </si>
+  <si>
+    <t>Actor3231</t>
+  </si>
+  <si>
+    <t>Actor0030</t>
+  </si>
+  <si>
+    <t>Actor1029</t>
+  </si>
+  <si>
+    <t>Actor2128</t>
+  </si>
+  <si>
+    <t>Actor0125</t>
+  </si>
+  <si>
+    <t>Actor0024</t>
+  </si>
+  <si>
+    <t>Actor3022</t>
+  </si>
+  <si>
+    <t>Actor3021</t>
+  </si>
+  <si>
+    <t>Actor2120</t>
+  </si>
+  <si>
+    <t>Actor3019</t>
+  </si>
+  <si>
+    <t>Actor1218</t>
+  </si>
+  <si>
+    <t>Actor3117</t>
+  </si>
+  <si>
+    <t>Actor1216</t>
+  </si>
+  <si>
+    <t>Actor2015</t>
+  </si>
+  <si>
+    <t>Actor3114</t>
+  </si>
+  <si>
+    <t>Actor0113</t>
+  </si>
+  <si>
+    <t>Actor3212</t>
+  </si>
+  <si>
+    <t>Actor2011</t>
+  </si>
+  <si>
+    <t>Actor2010</t>
+  </si>
+  <si>
+    <t>Actor1109</t>
+  </si>
+  <si>
+    <t>Actor1108</t>
+  </si>
+  <si>
+    <t>Actor0007</t>
+  </si>
+  <si>
+    <t>Actor1005</t>
+  </si>
+  <si>
+    <t>Actor0104</t>
+  </si>
+  <si>
+    <t>Actor2103</t>
+  </si>
+  <si>
+    <t>Actor1002</t>
+  </si>
+  <si>
+    <t>Actor0201</t>
+  </si>
+  <si>
+    <t>aniAdjust|Float</t>
+  </si>
+  <si>
+    <t>nodeWarLastCount|Int</t>
+  </si>
+  <si>
+    <t>battltMusicOverriding|String</t>
+  </si>
+  <si>
+    <t>trainingMax|Int</t>
+  </si>
+  <si>
+    <t>trainingMin|Int</t>
+  </si>
+  <si>
+    <t>trainingAtk|Float</t>
+  </si>
+  <si>
+    <t>trainingHp|Float</t>
+  </si>
+  <si>
+    <t>baseVit|Int</t>
+  </si>
+  <si>
+    <t>baseInt|Int</t>
+  </si>
+  <si>
+    <t>baseDex|Int</t>
+  </si>
+  <si>
+    <t>baseStr|Int</t>
+  </si>
+  <si>
+    <t>noHaveTimes|Float</t>
+  </si>
+  <si>
+    <t>charGachaWeight|Float</t>
+  </si>
+  <si>
+    <t>orderIndex|Int</t>
+  </si>
+  <si>
+    <t>flying|Bool</t>
+  </si>
+  <si>
+    <t>checkGhost|Bool</t>
+  </si>
+  <si>
+    <t>checkBurrow|Bool</t>
+  </si>
+  <si>
+    <t>checkNavMeshReachable|Bool</t>
+  </si>
+  <si>
+    <t>targetingSphereRadius|Float</t>
+  </si>
+  <si>
+    <t>portraitAddress|String</t>
+  </si>
+  <si>
+    <t>prefabAddress|String</t>
+  </si>
+  <si>
+    <t>attackHitObjectRange|Float</t>
+  </si>
+  <si>
+    <t>multiTargetAngle|Float</t>
+  </si>
+  <si>
+    <t>attackRange|Float</t>
+  </si>
+  <si>
+    <t>sp|Float</t>
+  </si>
+  <si>
+    <t>powerSource|Int</t>
+  </si>
+  <si>
+    <t>moveSpeed|Float</t>
+  </si>
+  <si>
+    <t>attackDelay|Float</t>
+  </si>
+  <si>
+    <t>multiAtk|Float</t>
+  </si>
+  <si>
+    <t>multiHp|Float</t>
+  </si>
+  <si>
+    <t>grade|Int</t>
+  </si>
+  <si>
+    <t>ultimateId|String</t>
+  </si>
+  <si>
+    <t>descId|String</t>
+  </si>
+  <si>
+    <t>storyId|String</t>
+  </si>
+  <si>
+    <t>nameId|String</t>
+  </si>
+  <si>
+    <t>lowNameId|String</t>
+  </si>
+  <si>
+    <t>actorId|String</t>
+  </si>
+  <si>
+    <t>Actor0242</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tenebro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portrait_Ganfaul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7527,7 +8518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE34A48A-3598-4BA4-AB07-6FE34C4F63A5}">
   <dimension ref="A1:J801"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A790" workbookViewId="0">
+    <sheetView topLeftCell="A790" workbookViewId="0">
       <selection activeCell="A801" sqref="A801"/>
     </sheetView>
   </sheetViews>
@@ -33173,4 +34164,4075 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2C0BC1-FCA1-449A-8610-F80C265CA071}">
+  <dimension ref="A1:AK37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="16.375" customWidth="1"/>
+    <col min="17" max="17" width="17.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2698</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2697</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2696</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2695</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2694</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2693</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2692</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2691</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2690</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2689</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2688</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2687</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2686</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2685</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2684</v>
+      </c>
+      <c r="S1" t="s">
+        <v>2683</v>
+      </c>
+      <c r="T1" t="s">
+        <v>2682</v>
+      </c>
+      <c r="U1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="V1" t="s">
+        <v>2680</v>
+      </c>
+      <c r="W1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="X1" t="s">
+        <v>2678</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>2677</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>2676</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>2675</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>2674</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>2673</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>2672</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>2671</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>2670</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>2669</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>2668</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>2667</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>2666</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2664</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2628</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2627</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2626</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2625</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="I2">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="J2">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="K2">
+        <v>3.5</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>150</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>2624</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2623</v>
+      </c>
+      <c r="S2">
+        <v>0.05</v>
+      </c>
+      <c r="T2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0.31359999999999999</v>
+      </c>
+      <c r="AF2">
+        <v>0.18379999999999999</v>
+      </c>
+      <c r="AG2">
+        <v>289</v>
+      </c>
+      <c r="AH2">
+        <v>521</v>
+      </c>
+      <c r="AJ2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2622</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2621</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2620</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2619</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2618</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="J3">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="K3">
+        <v>3.3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>125</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>2617</v>
+      </c>
+      <c r="R3" t="s">
+        <v>2616</v>
+      </c>
+      <c r="S3">
+        <v>0.25</v>
+      </c>
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>45</v>
+      </c>
+      <c r="Y3">
+        <v>30</v>
+      </c>
+      <c r="Z3">
+        <v>7.2</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0.23669999999999999</v>
+      </c>
+      <c r="AF3">
+        <v>0.13120000000000001</v>
+      </c>
+      <c r="AG3">
+        <v>411</v>
+      </c>
+      <c r="AH3">
+        <v>685</v>
+      </c>
+      <c r="AJ3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2614</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2613</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2612</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="I4">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="J4">
+        <v>0.624</v>
+      </c>
+      <c r="K4">
+        <v>3.5</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>135</v>
+      </c>
+      <c r="N4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>2610</v>
+      </c>
+      <c r="R4" t="s">
+        <v>2609</v>
+      </c>
+      <c r="S4">
+        <v>0.15</v>
+      </c>
+      <c r="T4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>27</v>
+      </c>
+      <c r="Y4">
+        <v>14</v>
+      </c>
+      <c r="Z4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0.28689999999999999</v>
+      </c>
+      <c r="AF4">
+        <v>0.17280000000000001</v>
+      </c>
+      <c r="AG4">
+        <v>325</v>
+      </c>
+      <c r="AH4">
+        <v>604</v>
+      </c>
+      <c r="AJ4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2608</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2607</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2606</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2605</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2604</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="I5">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="J5">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="K5">
+        <v>3.5</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>140</v>
+      </c>
+      <c r="N5">
+        <v>6.7</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>2603</v>
+      </c>
+      <c r="R5" t="s">
+        <v>2602</v>
+      </c>
+      <c r="S5">
+        <v>0.2</v>
+      </c>
+      <c r="T5" t="b">
+        <v>1</v>
+      </c>
+      <c r="U5" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>22</v>
+      </c>
+      <c r="Y5">
+        <v>14</v>
+      </c>
+      <c r="Z5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0.25459999999999999</v>
+      </c>
+      <c r="AF5">
+        <v>0.1605</v>
+      </c>
+      <c r="AG5">
+        <v>325</v>
+      </c>
+      <c r="AH5">
+        <v>604</v>
+      </c>
+      <c r="AJ5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2600</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2599</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2598</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="I6">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="J6">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="K6">
+        <v>2.8</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>120</v>
+      </c>
+      <c r="N6">
+        <v>7.5</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>2596</v>
+      </c>
+      <c r="R6" t="s">
+        <v>2595</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" t="b">
+        <v>1</v>
+      </c>
+      <c r="V6" t="b">
+        <v>1</v>
+      </c>
+      <c r="W6" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>47</v>
+      </c>
+      <c r="Y6">
+        <v>30</v>
+      </c>
+      <c r="Z6">
+        <v>7.2</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0.22120000000000001</v>
+      </c>
+      <c r="AF6">
+        <v>0.13819999999999999</v>
+      </c>
+      <c r="AG6">
+        <v>411</v>
+      </c>
+      <c r="AH6">
+        <v>685</v>
+      </c>
+      <c r="AJ6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2594</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2593</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2591</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2590</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="I7">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="J7">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="K7">
+        <v>3.2</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>110</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>2589</v>
+      </c>
+      <c r="R7" t="s">
+        <v>2588</v>
+      </c>
+      <c r="S7">
+        <v>0.15</v>
+      </c>
+      <c r="T7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V7" t="b">
+        <v>1</v>
+      </c>
+      <c r="W7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>43</v>
+      </c>
+      <c r="Y7">
+        <v>30</v>
+      </c>
+      <c r="Z7">
+        <v>7.2</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0.24229999999999999</v>
+      </c>
+      <c r="AF7">
+        <v>0.1386</v>
+      </c>
+      <c r="AG7">
+        <v>411</v>
+      </c>
+      <c r="AH7">
+        <v>685</v>
+      </c>
+      <c r="AJ7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2658</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2586</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2584</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2583</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="I8">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="J8">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="K8">
+        <v>2.5</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>130</v>
+      </c>
+      <c r="N8">
+        <v>4.5</v>
+      </c>
+      <c r="O8">
+        <v>180</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>2582</v>
+      </c>
+      <c r="R8" t="s">
+        <v>2581</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" t="b">
+        <v>1</v>
+      </c>
+      <c r="V8" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>24</v>
+      </c>
+      <c r="Y8">
+        <v>14</v>
+      </c>
+      <c r="Z8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0.29570000000000002</v>
+      </c>
+      <c r="AF8">
+        <v>0.15359999999999999</v>
+      </c>
+      <c r="AG8">
+        <v>325</v>
+      </c>
+      <c r="AH8">
+        <v>604</v>
+      </c>
+      <c r="AJ8">
+        <v>85</v>
+      </c>
+      <c r="AK8">
+        <v>0.66659999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2657</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2579</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2578</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2577</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2576</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="I9">
+        <v>1.012</v>
+      </c>
+      <c r="J9">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="K9">
+        <v>3.5</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>130</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>2575</v>
+      </c>
+      <c r="R9" t="s">
+        <v>2574</v>
+      </c>
+      <c r="S9">
+        <v>0.05</v>
+      </c>
+      <c r="T9" t="b">
+        <v>1</v>
+      </c>
+      <c r="U9" t="b">
+        <v>1</v>
+      </c>
+      <c r="V9" t="b">
+        <v>1</v>
+      </c>
+      <c r="W9" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>26</v>
+      </c>
+      <c r="Y9">
+        <v>14</v>
+      </c>
+      <c r="Z9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="AF9">
+        <v>0.1691</v>
+      </c>
+      <c r="AG9">
+        <v>325</v>
+      </c>
+      <c r="AH9">
+        <v>604</v>
+      </c>
+      <c r="AJ9">
+        <v>85</v>
+      </c>
+      <c r="AK9">
+        <v>0.66659999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2656</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2573</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2572</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2571</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2570</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2569</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0.878</v>
+      </c>
+      <c r="I10">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="J10">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>150</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>2568</v>
+      </c>
+      <c r="R10" t="s">
+        <v>2567</v>
+      </c>
+      <c r="S10">
+        <v>0.1</v>
+      </c>
+      <c r="T10" t="b">
+        <v>1</v>
+      </c>
+      <c r="U10" t="b">
+        <v>1</v>
+      </c>
+      <c r="V10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W10" t="b">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>49</v>
+      </c>
+      <c r="Y10">
+        <v>30</v>
+      </c>
+      <c r="Z10">
+        <v>7.2</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0.23350000000000001</v>
+      </c>
+      <c r="AF10">
+        <v>0.13869999999999999</v>
+      </c>
+      <c r="AG10">
+        <v>411</v>
+      </c>
+      <c r="AH10">
+        <v>685</v>
+      </c>
+      <c r="AJ10">
+        <v>85</v>
+      </c>
+      <c r="AK10">
+        <v>0.66659999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2565</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2564</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2563</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2562</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="I11">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="J11">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="K11">
+        <v>3.5</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>140</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>2561</v>
+      </c>
+      <c r="R11" t="s">
+        <v>2560</v>
+      </c>
+      <c r="S11">
+        <v>0.05</v>
+      </c>
+      <c r="T11" t="b">
+        <v>1</v>
+      </c>
+      <c r="U11" t="b">
+        <v>1</v>
+      </c>
+      <c r="V11" t="b">
+        <v>1</v>
+      </c>
+      <c r="W11" t="b">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>51</v>
+      </c>
+      <c r="Y11">
+        <v>30</v>
+      </c>
+      <c r="Z11">
+        <v>7.2</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0.2235</v>
+      </c>
+      <c r="AF11">
+        <v>0.14829999999999999</v>
+      </c>
+      <c r="AG11">
+        <v>411</v>
+      </c>
+      <c r="AH11">
+        <v>685</v>
+      </c>
+      <c r="AJ11">
+        <v>85</v>
+      </c>
+      <c r="AK11">
+        <v>0.66659999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2654</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2559</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2558</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2557</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2556</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2555</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>1.0920000000000001</v>
+      </c>
+      <c r="I12">
+        <v>1.163</v>
+      </c>
+      <c r="J12">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="K12">
+        <v>3.8</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>140</v>
+      </c>
+      <c r="N12">
+        <v>4.2</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>2554</v>
+      </c>
+      <c r="R12" t="s">
+        <v>2553</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12" t="b">
+        <v>0</v>
+      </c>
+      <c r="U12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V12" t="b">
+        <v>1</v>
+      </c>
+      <c r="W12" t="b">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>10</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0.31530000000000002</v>
+      </c>
+      <c r="AF12">
+        <v>0.17630000000000001</v>
+      </c>
+      <c r="AG12">
+        <v>289</v>
+      </c>
+      <c r="AH12">
+        <v>521</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>2552</v>
+      </c>
+      <c r="AJ12">
+        <v>85</v>
+      </c>
+      <c r="AK12">
+        <v>0.66659999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2550</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2548</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2547</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="J13">
+        <v>1.204</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>95</v>
+      </c>
+      <c r="N13">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>2546</v>
+      </c>
+      <c r="R13" t="s">
+        <v>2545</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13" t="b">
+        <v>0</v>
+      </c>
+      <c r="U13" t="b">
+        <v>0</v>
+      </c>
+      <c r="V13" t="b">
+        <v>1</v>
+      </c>
+      <c r="W13" t="b">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>21</v>
+      </c>
+      <c r="Y13">
+        <v>14</v>
+      </c>
+      <c r="Z13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0.2853</v>
+      </c>
+      <c r="AF13">
+        <v>0.16370000000000001</v>
+      </c>
+      <c r="AG13">
+        <v>325</v>
+      </c>
+      <c r="AH13">
+        <v>604</v>
+      </c>
+      <c r="AJ13">
+        <v>85</v>
+      </c>
+      <c r="AK13">
+        <v>0.66659999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2544</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2543</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2542</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2541</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2540</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="J14">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="K14">
+        <v>3.3</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>130</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>2539</v>
+      </c>
+      <c r="R14" t="s">
+        <v>2538</v>
+      </c>
+      <c r="S14">
+        <v>0.05</v>
+      </c>
+      <c r="T14" t="b">
+        <v>1</v>
+      </c>
+      <c r="U14" t="b">
+        <v>1</v>
+      </c>
+      <c r="V14" t="b">
+        <v>1</v>
+      </c>
+      <c r="W14" t="b">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>30</v>
+      </c>
+      <c r="Y14">
+        <v>14</v>
+      </c>
+      <c r="Z14">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0.29580000000000001</v>
+      </c>
+      <c r="AF14">
+        <v>0.1714</v>
+      </c>
+      <c r="AG14">
+        <v>325</v>
+      </c>
+      <c r="AH14">
+        <v>604</v>
+      </c>
+      <c r="AJ14">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2536</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2535</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2534</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="I15">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="J15">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="K15">
+        <v>3.1</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>100</v>
+      </c>
+      <c r="N15">
+        <v>4.8</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>2532</v>
+      </c>
+      <c r="R15" t="s">
+        <v>2531</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15" t="b">
+        <v>0</v>
+      </c>
+      <c r="U15" t="b">
+        <v>0</v>
+      </c>
+      <c r="V15" t="b">
+        <v>1</v>
+      </c>
+      <c r="W15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>50</v>
+      </c>
+      <c r="Y15">
+        <v>30</v>
+      </c>
+      <c r="Z15">
+        <v>7.2</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="AF15">
+        <v>0.12859999999999999</v>
+      </c>
+      <c r="AG15">
+        <v>411</v>
+      </c>
+      <c r="AH15">
+        <v>685</v>
+      </c>
+      <c r="AJ15">
+        <v>85</v>
+      </c>
+      <c r="AK15">
+        <v>0.66659999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>2650</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2529</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2528</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2527</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2526</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="I16">
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="J16">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="K16">
+        <v>3.7</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>45</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>2525</v>
+      </c>
+      <c r="R16" t="s">
+        <v>2524</v>
+      </c>
+      <c r="S16">
+        <v>0.05</v>
+      </c>
+      <c r="T16" t="b">
+        <v>1</v>
+      </c>
+      <c r="U16" t="b">
+        <v>1</v>
+      </c>
+      <c r="V16" t="b">
+        <v>1</v>
+      </c>
+      <c r="W16" t="b">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>5</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0.33579999999999999</v>
+      </c>
+      <c r="AF16">
+        <v>0.1915</v>
+      </c>
+      <c r="AG16">
+        <v>289</v>
+      </c>
+      <c r="AH16">
+        <v>521</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>2523</v>
+      </c>
+      <c r="AJ16">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2522</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2521</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2520</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2519</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2518</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="I17">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="J17">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="K17">
+        <v>3.7</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>115</v>
+      </c>
+      <c r="N17">
+        <v>5.3</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>2517</v>
+      </c>
+      <c r="R17" t="s">
+        <v>2516</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17" t="b">
+        <v>0</v>
+      </c>
+      <c r="U17" t="b">
+        <v>1</v>
+      </c>
+      <c r="V17" t="b">
+        <v>1</v>
+      </c>
+      <c r="W17" t="b">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>31</v>
+      </c>
+      <c r="Y17">
+        <v>14</v>
+      </c>
+      <c r="Z17">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0.25480000000000003</v>
+      </c>
+      <c r="AF17">
+        <v>0.15820000000000001</v>
+      </c>
+      <c r="AG17">
+        <v>325</v>
+      </c>
+      <c r="AH17">
+        <v>604</v>
+      </c>
+      <c r="AJ17">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>2648</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2515</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2514</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2513</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2512</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2511</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>1.147</v>
+      </c>
+      <c r="I18">
+        <v>1.0720000000000001</v>
+      </c>
+      <c r="J18">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="K18">
+        <v>3.6</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>160</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>2510</v>
+      </c>
+      <c r="R18" t="s">
+        <v>2509</v>
+      </c>
+      <c r="S18">
+        <v>0.1</v>
+      </c>
+      <c r="T18" t="b">
+        <v>1</v>
+      </c>
+      <c r="U18" t="b">
+        <v>1</v>
+      </c>
+      <c r="V18" t="b">
+        <v>1</v>
+      </c>
+      <c r="W18" t="b">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>6</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0.3145</v>
+      </c>
+      <c r="AF18">
+        <v>0.19259999999999999</v>
+      </c>
+      <c r="AG18">
+        <v>289</v>
+      </c>
+      <c r="AH18">
+        <v>521</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>2508</v>
+      </c>
+      <c r="AJ18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2507</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2506</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2505</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2504</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2503</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="I19">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="J19">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="K19">
+        <v>3.4</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>130</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>2502</v>
+      </c>
+      <c r="R19" t="s">
+        <v>2501</v>
+      </c>
+      <c r="S19">
+        <v>0.2</v>
+      </c>
+      <c r="T19" t="b">
+        <v>1</v>
+      </c>
+      <c r="U19" t="b">
+        <v>1</v>
+      </c>
+      <c r="V19" t="b">
+        <v>1</v>
+      </c>
+      <c r="W19" t="b">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>53</v>
+      </c>
+      <c r="Y19">
+        <v>30</v>
+      </c>
+      <c r="Z19">
+        <v>7.2</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0.2041</v>
+      </c>
+      <c r="AF19">
+        <v>0.12939999999999999</v>
+      </c>
+      <c r="AG19">
+        <v>411</v>
+      </c>
+      <c r="AH19">
+        <v>685</v>
+      </c>
+      <c r="AJ19">
+        <v>85</v>
+      </c>
+      <c r="AK19">
+        <v>0.66659999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2500</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2499</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2498</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2497</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2496</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="I20">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="J20">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="K20">
+        <v>2.7</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>120</v>
+      </c>
+      <c r="N20">
+        <v>6.4</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>2495</v>
+      </c>
+      <c r="R20" t="s">
+        <v>2494</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20" t="b">
+        <v>0</v>
+      </c>
+      <c r="U20" t="b">
+        <v>0</v>
+      </c>
+      <c r="V20" t="b">
+        <v>1</v>
+      </c>
+      <c r="W20" t="b">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>28</v>
+      </c>
+      <c r="Y20">
+        <v>14</v>
+      </c>
+      <c r="Z20">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0.28289999999999998</v>
+      </c>
+      <c r="AF20">
+        <v>0.15670000000000001</v>
+      </c>
+      <c r="AG20">
+        <v>325</v>
+      </c>
+      <c r="AH20">
+        <v>604</v>
+      </c>
+      <c r="AJ20">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2492</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2491</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2490</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2489</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="I21">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="J21">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="K21">
+        <v>3.9</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>135</v>
+      </c>
+      <c r="N21">
+        <v>2.9</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>2488</v>
+      </c>
+      <c r="R21" t="s">
+        <v>2487</v>
+      </c>
+      <c r="S21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="T21" t="b">
+        <v>1</v>
+      </c>
+      <c r="U21" t="b">
+        <v>1</v>
+      </c>
+      <c r="V21" t="b">
+        <v>1</v>
+      </c>
+      <c r="W21" t="b">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>52</v>
+      </c>
+      <c r="Y21">
+        <v>30</v>
+      </c>
+      <c r="Z21">
+        <v>7.2</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0.22420000000000001</v>
+      </c>
+      <c r="AF21">
+        <v>0.1492</v>
+      </c>
+      <c r="AG21">
+        <v>411</v>
+      </c>
+      <c r="AH21">
+        <v>685</v>
+      </c>
+      <c r="AJ21">
+        <v>85</v>
+      </c>
+      <c r="AK21">
+        <v>0.66659999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2486</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2485</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2484</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2483</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2482</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="I22">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="J22">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <v>115</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>2481</v>
+      </c>
+      <c r="R22" t="s">
+        <v>2480</v>
+      </c>
+      <c r="S22">
+        <v>0.12</v>
+      </c>
+      <c r="T22" t="b">
+        <v>1</v>
+      </c>
+      <c r="U22" t="b">
+        <v>1</v>
+      </c>
+      <c r="V22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W22" t="b">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>54</v>
+      </c>
+      <c r="Y22">
+        <v>30</v>
+      </c>
+      <c r="Z22">
+        <v>7.2</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0.23250000000000001</v>
+      </c>
+      <c r="AF22">
+        <v>0.14149999999999999</v>
+      </c>
+      <c r="AG22">
+        <v>411</v>
+      </c>
+      <c r="AH22">
+        <v>685</v>
+      </c>
+      <c r="AJ22">
+        <v>85</v>
+      </c>
+      <c r="AK22">
+        <v>0.66659999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2479</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2478</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2477</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2476</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2475</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="I23">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="J23">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="K23">
+        <v>3.4</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>90</v>
+      </c>
+      <c r="N23">
+        <v>6.8</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>2474</v>
+      </c>
+      <c r="R23" t="s">
+        <v>2473</v>
+      </c>
+      <c r="S23">
+        <v>0.25</v>
+      </c>
+      <c r="T23" t="b">
+        <v>1</v>
+      </c>
+      <c r="U23" t="b">
+        <v>1</v>
+      </c>
+      <c r="V23" t="b">
+        <v>1</v>
+      </c>
+      <c r="W23" t="b">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>44</v>
+      </c>
+      <c r="Y23">
+        <v>30</v>
+      </c>
+      <c r="Z23">
+        <v>7.2</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0.23449999999999999</v>
+      </c>
+      <c r="AF23">
+        <v>0.13450000000000001</v>
+      </c>
+      <c r="AG23">
+        <v>411</v>
+      </c>
+      <c r="AH23">
+        <v>685</v>
+      </c>
+      <c r="AJ23">
+        <v>85</v>
+      </c>
+      <c r="AK23">
+        <v>0.66659999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2472</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2470</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2469</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2468</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1.016</v>
+      </c>
+      <c r="I24">
+        <v>1.054</v>
+      </c>
+      <c r="J24">
+        <v>0.752</v>
+      </c>
+      <c r="K24">
+        <v>3.7</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>125</v>
+      </c>
+      <c r="N24">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>2467</v>
+      </c>
+      <c r="R24" t="s">
+        <v>2466</v>
+      </c>
+      <c r="S24">
+        <v>0.05</v>
+      </c>
+      <c r="T24" t="b">
+        <v>1</v>
+      </c>
+      <c r="U24" t="b">
+        <v>1</v>
+      </c>
+      <c r="V24" t="b">
+        <v>0</v>
+      </c>
+      <c r="W24" t="b">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>23</v>
+      </c>
+      <c r="Y24">
+        <v>14</v>
+      </c>
+      <c r="Z24">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0.27010000000000001</v>
+      </c>
+      <c r="AF24">
+        <v>0.15110000000000001</v>
+      </c>
+      <c r="AG24">
+        <v>325</v>
+      </c>
+      <c r="AH24">
+        <v>604</v>
+      </c>
+      <c r="AJ24">
+        <v>85</v>
+      </c>
+      <c r="AK24">
+        <v>0.66659999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>2641</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2465</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2463</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2461</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="I25">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="J25">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>90</v>
+      </c>
+      <c r="N25">
+        <v>5.5</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>2460</v>
+      </c>
+      <c r="R25" t="s">
+        <v>2459</v>
+      </c>
+      <c r="S25">
+        <v>0.05</v>
+      </c>
+      <c r="T25" t="b">
+        <v>1</v>
+      </c>
+      <c r="U25" t="b">
+        <v>1</v>
+      </c>
+      <c r="V25" t="b">
+        <v>1</v>
+      </c>
+      <c r="W25" t="b">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>29</v>
+      </c>
+      <c r="Y25">
+        <v>14</v>
+      </c>
+      <c r="Z25">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0.28160000000000002</v>
+      </c>
+      <c r="AF25">
+        <v>0.16539999999999999</v>
+      </c>
+      <c r="AG25">
+        <v>325</v>
+      </c>
+      <c r="AH25">
+        <v>604</v>
+      </c>
+      <c r="AJ25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2458</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2456</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2455</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2454</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="J26">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="K26">
+        <v>3.5</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>135</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>2453</v>
+      </c>
+      <c r="R26" t="s">
+        <v>2452</v>
+      </c>
+      <c r="S26">
+        <v>0.15</v>
+      </c>
+      <c r="T26" t="b">
+        <v>1</v>
+      </c>
+      <c r="U26" t="b">
+        <v>1</v>
+      </c>
+      <c r="V26" t="b">
+        <v>1</v>
+      </c>
+      <c r="W26" t="b">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>46</v>
+      </c>
+      <c r="Y26">
+        <v>30</v>
+      </c>
+      <c r="Z26">
+        <v>7.2</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0.2049</v>
+      </c>
+      <c r="AF26">
+        <v>0.1424</v>
+      </c>
+      <c r="AG26">
+        <v>411</v>
+      </c>
+      <c r="AH26">
+        <v>685</v>
+      </c>
+      <c r="AJ26">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>2639</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2450</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2449</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2448</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2447</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="I27">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="J27">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="K27">
+        <v>3.5</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>105</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>2446</v>
+      </c>
+      <c r="R27" t="s">
+        <v>2445</v>
+      </c>
+      <c r="S27">
+        <v>0.15</v>
+      </c>
+      <c r="T27" t="b">
+        <v>1</v>
+      </c>
+      <c r="U27" t="b">
+        <v>1</v>
+      </c>
+      <c r="V27" t="b">
+        <v>1</v>
+      </c>
+      <c r="W27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>42</v>
+      </c>
+      <c r="Y27">
+        <v>30</v>
+      </c>
+      <c r="Z27">
+        <v>7.2</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0.2331</v>
+      </c>
+      <c r="AF27">
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="AG27">
+        <v>411</v>
+      </c>
+      <c r="AH27">
+        <v>685</v>
+      </c>
+      <c r="AJ27">
+        <v>85</v>
+      </c>
+      <c r="AK27">
+        <v>0.66659999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2444</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2443</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2441</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2440</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>1.151</v>
+      </c>
+      <c r="I28">
+        <v>1.159</v>
+      </c>
+      <c r="J28">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="K28">
+        <v>3.5</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>195</v>
+      </c>
+      <c r="N28">
+        <v>6.5</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>2439</v>
+      </c>
+      <c r="R28" t="s">
+        <v>2438</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28" t="b">
+        <v>0</v>
+      </c>
+      <c r="U28" t="b">
+        <v>0</v>
+      </c>
+      <c r="V28" t="b">
+        <v>1</v>
+      </c>
+      <c r="W28" t="b">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>11</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0.34989999999999999</v>
+      </c>
+      <c r="AF28">
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="AG28">
+        <v>289</v>
+      </c>
+      <c r="AH28">
+        <v>521</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>2437</v>
+      </c>
+      <c r="AJ28">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2436</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2434</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2433</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2432</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>1.165</v>
+      </c>
+      <c r="I29">
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="J29">
+        <v>0.747</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>155</v>
+      </c>
+      <c r="N29">
+        <v>2.1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>2.8</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>2431</v>
+      </c>
+      <c r="R29" t="s">
+        <v>2430</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29" t="b">
+        <v>0</v>
+      </c>
+      <c r="U29" t="b">
+        <v>1</v>
+      </c>
+      <c r="V29" t="b">
+        <v>1</v>
+      </c>
+      <c r="W29" t="b">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>4</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0.3049</v>
+      </c>
+      <c r="AF29">
+        <v>0.1883</v>
+      </c>
+      <c r="AG29">
+        <v>289</v>
+      </c>
+      <c r="AH29">
+        <v>521</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>2429</v>
+      </c>
+      <c r="AJ29">
+        <v>85</v>
+      </c>
+      <c r="AK29">
+        <v>0.66659999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2428</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2427</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2426</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2425</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2424</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>1.0820000000000001</v>
+      </c>
+      <c r="I30">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="J30">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="K30">
+        <v>3.2</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>170</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>2423</v>
+      </c>
+      <c r="R30" t="s">
+        <v>2422</v>
+      </c>
+      <c r="S30">
+        <v>0.2</v>
+      </c>
+      <c r="T30" t="b">
+        <v>1</v>
+      </c>
+      <c r="U30" t="b">
+        <v>1</v>
+      </c>
+      <c r="V30" t="b">
+        <v>1</v>
+      </c>
+      <c r="W30" t="b">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>9</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>1</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0.34939999999999999</v>
+      </c>
+      <c r="AF30">
+        <v>0.1822</v>
+      </c>
+      <c r="AG30">
+        <v>289</v>
+      </c>
+      <c r="AH30">
+        <v>521</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>2421</v>
+      </c>
+      <c r="AJ30">
+        <v>85</v>
+      </c>
+      <c r="AK30">
+        <v>0.66659999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2420</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2419</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2418</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2417</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2416</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>1.1539999999999999</v>
+      </c>
+      <c r="I31">
+        <v>1.119</v>
+      </c>
+      <c r="J31">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="K31">
+        <v>3.3</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>180</v>
+      </c>
+      <c r="N31">
+        <v>6.2</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>2415</v>
+      </c>
+      <c r="R31" t="s">
+        <v>2414</v>
+      </c>
+      <c r="S31">
+        <v>0.2</v>
+      </c>
+      <c r="T31" t="b">
+        <v>1</v>
+      </c>
+      <c r="U31" t="b">
+        <v>1</v>
+      </c>
+      <c r="V31" t="b">
+        <v>1</v>
+      </c>
+      <c r="W31" t="b">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>3</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0.32329999999999998</v>
+      </c>
+      <c r="AF31">
+        <v>0.18609999999999999</v>
+      </c>
+      <c r="AG31">
+        <v>289</v>
+      </c>
+      <c r="AH31">
+        <v>521</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>2413</v>
+      </c>
+      <c r="AJ31">
+        <v>85</v>
+      </c>
+      <c r="AK31">
+        <v>0.66659999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>2634</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2412</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2411</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2410</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2409</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2408</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="I32">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="J32">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="K32">
+        <v>3.3</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>95</v>
+      </c>
+      <c r="N32">
+        <v>4</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>2407</v>
+      </c>
+      <c r="R32" t="s">
+        <v>2406</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32" t="b">
+        <v>0</v>
+      </c>
+      <c r="U32" t="b">
+        <v>1</v>
+      </c>
+      <c r="V32" t="b">
+        <v>1</v>
+      </c>
+      <c r="W32" t="b">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>41</v>
+      </c>
+      <c r="Y32">
+        <v>30</v>
+      </c>
+      <c r="Z32">
+        <v>7.2</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0.23949999999999999</v>
+      </c>
+      <c r="AF32">
+        <v>0.14680000000000001</v>
+      </c>
+      <c r="AG32">
+        <v>411</v>
+      </c>
+      <c r="AH32">
+        <v>685</v>
+      </c>
+      <c r="AJ32">
+        <v>85</v>
+      </c>
+      <c r="AK32">
+        <v>0.66659999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2404</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2403</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2402</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2401</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>1.046</v>
+      </c>
+      <c r="I33">
+        <v>1.171</v>
+      </c>
+      <c r="J33">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="K33">
+        <v>3.5</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>130</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>2400</v>
+      </c>
+      <c r="R33" t="s">
+        <v>2399</v>
+      </c>
+      <c r="S33">
+        <v>0.1</v>
+      </c>
+      <c r="T33" t="b">
+        <v>1</v>
+      </c>
+      <c r="U33" t="b">
+        <v>1</v>
+      </c>
+      <c r="V33" t="b">
+        <v>1</v>
+      </c>
+      <c r="W33" t="b">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>8</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0.32550000000000001</v>
+      </c>
+      <c r="AF33">
+        <v>0.18709999999999999</v>
+      </c>
+      <c r="AG33">
+        <v>289</v>
+      </c>
+      <c r="AH33">
+        <v>521</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>2398</v>
+      </c>
+      <c r="AJ33">
+        <v>85</v>
+      </c>
+      <c r="AK33">
+        <v>0.66659999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2396</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2395</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2394</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2393</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I34">
+        <v>0.874</v>
+      </c>
+      <c r="J34">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="K34">
+        <v>3.2</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>145</v>
+      </c>
+      <c r="N34">
+        <v>7</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>2392</v>
+      </c>
+      <c r="R34" t="s">
+        <v>2391</v>
+      </c>
+      <c r="S34">
+        <v>0.08</v>
+      </c>
+      <c r="T34" t="b">
+        <v>0</v>
+      </c>
+      <c r="U34" t="b">
+        <v>1</v>
+      </c>
+      <c r="V34" t="b">
+        <v>1</v>
+      </c>
+      <c r="W34" t="b">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>48</v>
+      </c>
+      <c r="Y34">
+        <v>30</v>
+      </c>
+      <c r="Z34">
+        <v>7.2</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0.21820000000000001</v>
+      </c>
+      <c r="AF34">
+        <v>0.1401</v>
+      </c>
+      <c r="AG34">
+        <v>411</v>
+      </c>
+      <c r="AH34">
+        <v>685</v>
+      </c>
+      <c r="AJ34">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2390</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2389</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2388</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2387</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2386</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="I35">
+        <v>1.089</v>
+      </c>
+      <c r="J35">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="K35">
+        <v>3.9</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>85</v>
+      </c>
+      <c r="N35">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>2385</v>
+      </c>
+      <c r="R35" t="s">
+        <v>2384</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35" t="b">
+        <v>0</v>
+      </c>
+      <c r="U35" t="b">
+        <v>1</v>
+      </c>
+      <c r="V35" t="b">
+        <v>1</v>
+      </c>
+      <c r="W35" t="b">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>2</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+      <c r="Z35">
+        <v>1</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0.3402</v>
+      </c>
+      <c r="AF35">
+        <v>0.1817</v>
+      </c>
+      <c r="AG35">
+        <v>289</v>
+      </c>
+      <c r="AH35">
+        <v>521</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>2383</v>
+      </c>
+      <c r="AJ35">
+        <v>85</v>
+      </c>
+      <c r="AK35">
+        <v>0.66659999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>2630</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2381</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2380</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2378</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="I36">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="J36">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="K36">
+        <v>3.5</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>110</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>2377</v>
+      </c>
+      <c r="R36" t="s">
+        <v>2376</v>
+      </c>
+      <c r="S36">
+        <v>0.1</v>
+      </c>
+      <c r="T36" t="b">
+        <v>1</v>
+      </c>
+      <c r="U36" t="b">
+        <v>1</v>
+      </c>
+      <c r="V36" t="b">
+        <v>1</v>
+      </c>
+      <c r="W36" t="b">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>25</v>
+      </c>
+      <c r="Y36">
+        <v>14</v>
+      </c>
+      <c r="Z36">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0.25940000000000002</v>
+      </c>
+      <c r="AF36">
+        <v>0.1517</v>
+      </c>
+      <c r="AG36">
+        <v>325</v>
+      </c>
+      <c r="AH36">
+        <v>604</v>
+      </c>
+      <c r="AJ36">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2628</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2627</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2626</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2625</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="I37">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="J37">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="K37">
+        <v>3.5</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>150</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>2703</v>
+      </c>
+      <c r="R37" t="s">
+        <v>2704</v>
+      </c>
+      <c r="S37">
+        <v>0.05</v>
+      </c>
+      <c r="T37" t="b">
+        <v>1</v>
+      </c>
+      <c r="U37" t="b">
+        <v>1</v>
+      </c>
+      <c r="V37" t="b">
+        <v>1</v>
+      </c>
+      <c r="W37" t="b">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>55</v>
+      </c>
+      <c r="Y37">
+        <v>1</v>
+      </c>
+      <c r="Z37">
+        <v>1</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0.31359999999999999</v>
+      </c>
+      <c r="AF37">
+        <v>0.18379999999999999</v>
+      </c>
+      <c r="AG37">
+        <v>289</v>
+      </c>
+      <c r="AH37">
+        <v>521</v>
+      </c>
+      <c r="AJ37">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel/Actor.xlsx
+++ b/Excel/Actor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642D9AFC-61CC-4CC5-9235-C2AD715AEF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC4FC59-B7EF-4DD8-BE59-6288792700C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
   </bookViews>
@@ -34170,8 +34170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2C0BC1-FCA1-449A-8610-F80C265CA071}">
   <dimension ref="A1:AK37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -34323,7 +34323,7 @@
         <v>1.0329999999999999</v>
       </c>
       <c r="J2">
-        <v>0.70599999999999996</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="K2">
         <v>3.5</v>

--- a/Excel/Actor.xlsx
+++ b/Excel/Actor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC90AD5-5C34-4D18-80CE-937441C29C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6838CE79-35C8-4164-ABE6-8AC783A3B284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
   </bookViews>
@@ -50402,8 +50402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2C0BC1-FCA1-449A-8610-F80C265CA071}">
   <dimension ref="A1:AK37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -54384,7 +54384,7 @@
         <v>1.0329999999999999</v>
       </c>
       <c r="J37">
-        <v>0.70599999999999996</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="K37">
         <v>3.5</v>

--- a/Excel/Actor.xlsx
+++ b/Excel/Actor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B18255-7F7A-444B-B94E-3D6993DF92EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE8CDD5-6FA9-4E00-AF07-C12F003B03D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerLevelTable" sheetId="1" r:id="rId1"/>

--- a/Excel/Actor.xlsx
+++ b/Excel/Actor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9B4697-503F-4C5F-B9A7-F21F8845EF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696E53EC-C412-4655-85B1-237C61DE0651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="220">
   <si>
     <t>Portrait_AngelicWarrior</t>
   </si>
@@ -508,6 +508,9 @@
     <t>Actor1039</t>
   </si>
   <si>
+    <t>Actor2238</t>
+  </si>
+  <si>
     <t>Actor0236</t>
   </si>
   <si>
@@ -523,12 +526,21 @@
     <t>Actor0030</t>
   </si>
   <si>
+    <t>Actor1029</t>
+  </si>
+  <si>
+    <t>Actor2128</t>
+  </si>
+  <si>
     <t>Actor0125</t>
   </si>
   <si>
     <t>Actor0024</t>
   </si>
   <si>
+    <t>Actor3022</t>
+  </si>
+  <si>
     <t>Actor3021</t>
   </si>
   <si>
@@ -544,6 +556,15 @@
     <t>Actor3117</t>
   </si>
   <si>
+    <t>Actor1216</t>
+  </si>
+  <si>
+    <t>Actor2015</t>
+  </si>
+  <si>
+    <t>Actor3114</t>
+  </si>
+  <si>
     <t>Actor0113</t>
   </si>
   <si>
@@ -556,13 +577,22 @@
     <t>Actor2010</t>
   </si>
   <si>
+    <t>Actor1109</t>
+  </si>
+  <si>
     <t>Actor1108</t>
   </si>
   <si>
+    <t>Actor0007</t>
+  </si>
+  <si>
     <t>Actor1005</t>
   </si>
   <si>
     <t>Actor0104</t>
+  </si>
+  <si>
+    <t>Actor2103</t>
   </si>
   <si>
     <t>Actor1002</t>
@@ -663,93 +693,6 @@
   </si>
   <si>
     <t>portraitAddress|String</t>
-  </si>
-  <si>
-    <t>Actor_0201</t>
-  </si>
-  <si>
-    <t>Actor_1002</t>
-  </si>
-  <si>
-    <t>Actor_2103</t>
-  </si>
-  <si>
-    <t>Actor_0104</t>
-  </si>
-  <si>
-    <t>Actor_1005</t>
-  </si>
-  <si>
-    <t>Actor_0007</t>
-  </si>
-  <si>
-    <t>Actor_1108</t>
-  </si>
-  <si>
-    <t>Actor_1109</t>
-  </si>
-  <si>
-    <t>Actor_2010</t>
-  </si>
-  <si>
-    <t>Actor_2011</t>
-  </si>
-  <si>
-    <t>Actor_0113</t>
-  </si>
-  <si>
-    <t>Actor_3114</t>
-  </si>
-  <si>
-    <t>Actor_2015</t>
-  </si>
-  <si>
-    <t>Actor_1216</t>
-  </si>
-  <si>
-    <t>Actor_3117</t>
-  </si>
-  <si>
-    <t>Actor_3019</t>
-  </si>
-  <si>
-    <t>Actor_2120</t>
-  </si>
-  <si>
-    <t>Actor_3021</t>
-  </si>
-  <si>
-    <t>Actor_3022</t>
-  </si>
-  <si>
-    <t>Actor_0024</t>
-  </si>
-  <si>
-    <t>Actor_0125</t>
-  </si>
-  <si>
-    <t>Actor_2128</t>
-  </si>
-  <si>
-    <t>Actor_1029</t>
-  </si>
-  <si>
-    <t>Actor_0030</t>
-  </si>
-  <si>
-    <t>Actor_3231</t>
-  </si>
-  <si>
-    <t>Actor_2238</t>
-  </si>
-  <si>
-    <t>Actor_1039</t>
-  </si>
-  <si>
-    <t>Actor_0240</t>
-  </si>
-  <si>
-    <t>Actor_1141</t>
   </si>
   <si>
     <t>Tenebro</t>
@@ -1118,7 +1061,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2C0BC1-FCA1-449A-8610-F80C265CA071}">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1129,81 +1074,81 @@
   <sheetData>
     <row r="1" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K1" t="s">
         <v>200</v>
       </c>
-      <c r="B1" t="s">
+      <c r="L1" t="s">
         <v>199</v>
       </c>
-      <c r="C1" t="s">
+      <c r="M1" t="s">
         <v>198</v>
       </c>
-      <c r="D1" t="s">
+      <c r="N1" t="s">
         <v>197</v>
       </c>
-      <c r="E1" t="s">
+      <c r="O1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P1" t="s">
         <v>196</v>
       </c>
-      <c r="F1" t="s">
+      <c r="Q1" t="s">
         <v>195</v>
       </c>
-      <c r="G1" t="s">
+      <c r="R1" t="s">
         <v>194</v>
       </c>
-      <c r="H1" t="s">
+      <c r="S1" t="s">
         <v>193</v>
       </c>
-      <c r="I1" t="s">
+      <c r="T1" t="s">
         <v>192</v>
       </c>
-      <c r="J1" t="s">
+      <c r="U1" t="s">
         <v>191</v>
       </c>
-      <c r="K1" t="s">
+      <c r="V1" t="s">
         <v>190</v>
       </c>
-      <c r="L1" t="s">
+      <c r="W1" t="s">
         <v>189</v>
       </c>
-      <c r="M1" t="s">
+      <c r="X1" t="s">
         <v>188</v>
-      </c>
-      <c r="N1" t="s">
-        <v>187</v>
-      </c>
-      <c r="O1" t="s">
-        <v>208</v>
-      </c>
-      <c r="P1" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>185</v>
-      </c>
-      <c r="R1" t="s">
-        <v>184</v>
-      </c>
-      <c r="S1" t="s">
-        <v>183</v>
-      </c>
-      <c r="T1" t="s">
-        <v>182</v>
-      </c>
-      <c r="U1" t="s">
-        <v>181</v>
-      </c>
-      <c r="V1" t="s">
-        <v>180</v>
-      </c>
-      <c r="W1" t="s">
-        <v>179</v>
-      </c>
-      <c r="X1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
         <v>153</v>
@@ -1271,7 +1216,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
         <v>148</v>
@@ -1339,7 +1284,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="B4" t="s">
         <v>143</v>
@@ -1407,7 +1352,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
         <v>138</v>
@@ -1475,7 +1420,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="B6" t="s">
         <v>133</v>
@@ -1543,7 +1488,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s">
         <v>128</v>
@@ -1611,7 +1556,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="B8" t="s">
         <v>123</v>
@@ -1682,7 +1627,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="B9" t="s">
         <v>118</v>
@@ -1753,7 +1698,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B10" t="s">
         <v>113</v>
@@ -1824,7 +1769,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
         <v>108</v>
@@ -1895,7 +1840,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="B12" t="s">
         <v>103</v>
@@ -1966,7 +1911,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="B13" t="s">
         <v>98</v>
@@ -2034,7 +1979,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s">
         <v>93</v>
@@ -2105,7 +2050,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s">
         <v>88</v>
@@ -2176,7 +2121,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -2244,7 +2189,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="B17" t="s">
         <v>77</v>
@@ -2315,7 +2260,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
@@ -2383,7 +2328,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -2454,7 +2399,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>227</v>
+        <v>167</v>
       </c>
       <c r="B20" t="s">
         <v>62</v>
@@ -2525,7 +2470,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>228</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
         <v>57</v>
@@ -2596,7 +2541,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s">
         <v>52</v>
@@ -2667,7 +2612,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>230</v>
+        <v>164</v>
       </c>
       <c r="B23" t="s">
         <v>47</v>
@@ -2735,7 +2680,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>231</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s">
         <v>42</v>
@@ -2803,7 +2748,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>232</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
@@ -2874,7 +2819,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
@@ -2945,7 +2890,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>230</v>
+        <v>164</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -3016,7 +2961,7 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>234</v>
+        <v>157</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -3090,7 +3035,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>235</v>
+        <v>156</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
@@ -3158,7 +3103,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>236</v>
+        <v>155</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
@@ -3232,7 +3177,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>237</v>
+        <v>154</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
@@ -3300,7 +3245,7 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="B32" t="s">
         <v>153</v>
@@ -3339,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="O32" t="s">
         <v>149</v>
@@ -3391,24 +3336,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C1" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="D1" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="E1" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -3425,7 +3370,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3436,7 +3381,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3450,7 +3395,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -3464,7 +3409,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -3478,7 +3423,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3492,7 +3437,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B8" t="b">
         <v>0</v>
@@ -3506,7 +3451,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3520,7 +3465,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3531,7 +3476,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3542,7 +3487,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3553,7 +3498,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -3567,7 +3512,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -3581,7 +3526,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -3592,7 +3537,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -3606,7 +3551,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -3620,7 +3565,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -3634,7 +3579,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -3648,7 +3593,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -3659,7 +3604,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -3670,7 +3615,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -3723,7 +3668,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3737,7 +3682,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B27" t="b">
         <v>1</v>

--- a/Excel/Actor.xlsx
+++ b/Excel/Actor.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696E53EC-C412-4655-85B1-237C61DE0651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB930D4D-A710-4A6B-ACEF-B793DD5B85FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
   </bookViews>
   <sheets>
     <sheet name="ActorTable" sheetId="2" r:id="rId1"/>
     <sheet name="ActorInfoTable" sheetId="4" r:id="rId2"/>
+    <sheet name="ActorLevelTable" sheetId="5" r:id="rId3"/>
+    <sheet name="ActorTranscendTable" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="226">
   <si>
     <t>Portrait_AngelicWarrior</t>
   </si>
@@ -696,6 +698,24 @@
   </si>
   <si>
     <t>Tenebro</t>
+  </si>
+  <si>
+    <t>level|Int</t>
+  </si>
+  <si>
+    <t>accumulatedAtk|Int</t>
+  </si>
+  <si>
+    <t>requiredCount|Int</t>
+  </si>
+  <si>
+    <t>requiredAccumulatedCount|Int</t>
+  </si>
+  <si>
+    <t>requiredGold|Int</t>
+  </si>
+  <si>
+    <t>transcend|Int</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2C0BC1-FCA1-449A-8610-F80C265CA071}">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3695,4 +3715,2832 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A219A9F8-1530-48C4-A2DD-8656FA2CD589}">
+  <dimension ref="A1:F121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>35</v>
+      </c>
+      <c r="F7">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>48</v>
+      </c>
+      <c r="F8">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>63</v>
+      </c>
+      <c r="F9">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>80</v>
+      </c>
+      <c r="F10">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>99</v>
+      </c>
+      <c r="F11">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>120</v>
+      </c>
+      <c r="F12">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>143</v>
+      </c>
+      <c r="F13">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>168</v>
+      </c>
+      <c r="F14">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>195</v>
+      </c>
+      <c r="F15">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>29</v>
+      </c>
+      <c r="E16">
+        <v>224</v>
+      </c>
+      <c r="F16">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>31</v>
+      </c>
+      <c r="E17">
+        <v>255</v>
+      </c>
+      <c r="F17">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <v>33</v>
+      </c>
+      <c r="E18">
+        <v>288</v>
+      </c>
+      <c r="F18">
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>35</v>
+      </c>
+      <c r="E19">
+        <v>323</v>
+      </c>
+      <c r="F19">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <v>37</v>
+      </c>
+      <c r="E20">
+        <v>360</v>
+      </c>
+      <c r="F20">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>29</v>
+      </c>
+      <c r="D21">
+        <v>39</v>
+      </c>
+      <c r="E21">
+        <v>399</v>
+      </c>
+      <c r="F21">
+        <v>12700</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>41</v>
+      </c>
+      <c r="E22">
+        <v>440</v>
+      </c>
+      <c r="F22">
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>31</v>
+      </c>
+      <c r="D23">
+        <v>43</v>
+      </c>
+      <c r="E23">
+        <v>483</v>
+      </c>
+      <c r="F23">
+        <v>14100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>32</v>
+      </c>
+      <c r="D24">
+        <v>45</v>
+      </c>
+      <c r="E24">
+        <v>528</v>
+      </c>
+      <c r="F24">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>33</v>
+      </c>
+      <c r="D25">
+        <v>47</v>
+      </c>
+      <c r="E25">
+        <v>575</v>
+      </c>
+      <c r="F25">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>34</v>
+      </c>
+      <c r="D26">
+        <v>49</v>
+      </c>
+      <c r="E26">
+        <v>624</v>
+      </c>
+      <c r="F26">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>35</v>
+      </c>
+      <c r="D27">
+        <v>51</v>
+      </c>
+      <c r="E27">
+        <v>675</v>
+      </c>
+      <c r="F27">
+        <v>16900</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>36</v>
+      </c>
+      <c r="D28">
+        <v>53</v>
+      </c>
+      <c r="E28">
+        <v>728</v>
+      </c>
+      <c r="F28">
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>37</v>
+      </c>
+      <c r="D29">
+        <v>55</v>
+      </c>
+      <c r="E29">
+        <v>783</v>
+      </c>
+      <c r="F29">
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>38</v>
+      </c>
+      <c r="D30">
+        <v>57</v>
+      </c>
+      <c r="E30">
+        <v>840</v>
+      </c>
+      <c r="F30">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>39</v>
+      </c>
+      <c r="D31">
+        <v>59</v>
+      </c>
+      <c r="E31">
+        <v>899</v>
+      </c>
+      <c r="F31">
+        <v>19700</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>40</v>
+      </c>
+      <c r="D32">
+        <v>61</v>
+      </c>
+      <c r="E32">
+        <v>960</v>
+      </c>
+      <c r="F32">
+        <v>20400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>41</v>
+      </c>
+      <c r="D33">
+        <v>63</v>
+      </c>
+      <c r="E33">
+        <v>1023</v>
+      </c>
+      <c r="F33">
+        <v>21100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>42</v>
+      </c>
+      <c r="D34">
+        <v>65</v>
+      </c>
+      <c r="E34">
+        <v>1088</v>
+      </c>
+      <c r="F34">
+        <v>21800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>43</v>
+      </c>
+      <c r="D35">
+        <v>67</v>
+      </c>
+      <c r="E35">
+        <v>1155</v>
+      </c>
+      <c r="F35">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>44</v>
+      </c>
+      <c r="D36">
+        <v>69</v>
+      </c>
+      <c r="E36">
+        <v>1224</v>
+      </c>
+      <c r="F36">
+        <v>23200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>45</v>
+      </c>
+      <c r="D37">
+        <v>71</v>
+      </c>
+      <c r="E37">
+        <v>1295</v>
+      </c>
+      <c r="F37">
+        <v>23900</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>46</v>
+      </c>
+      <c r="D38">
+        <v>73</v>
+      </c>
+      <c r="E38">
+        <v>1368</v>
+      </c>
+      <c r="F38">
+        <v>24600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>47</v>
+      </c>
+      <c r="D39">
+        <v>75</v>
+      </c>
+      <c r="E39">
+        <v>1443</v>
+      </c>
+      <c r="F39">
+        <v>25300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>48</v>
+      </c>
+      <c r="D40">
+        <v>77</v>
+      </c>
+      <c r="E40">
+        <v>1520</v>
+      </c>
+      <c r="F40">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>49</v>
+      </c>
+      <c r="D41">
+        <v>79</v>
+      </c>
+      <c r="E41">
+        <v>1599</v>
+      </c>
+      <c r="F41">
+        <v>26700</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>30</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>31</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>32</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>33</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>15</v>
+      </c>
+      <c r="F45">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>34</v>
+      </c>
+      <c r="D46">
+        <v>9</v>
+      </c>
+      <c r="E46">
+        <v>24</v>
+      </c>
+      <c r="F46">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>35</v>
+      </c>
+      <c r="D47">
+        <v>11</v>
+      </c>
+      <c r="E47">
+        <v>35</v>
+      </c>
+      <c r="F47">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>36</v>
+      </c>
+      <c r="D48">
+        <v>13</v>
+      </c>
+      <c r="E48">
+        <v>48</v>
+      </c>
+      <c r="F48">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>37</v>
+      </c>
+      <c r="D49">
+        <v>15</v>
+      </c>
+      <c r="E49">
+        <v>63</v>
+      </c>
+      <c r="F49">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>38</v>
+      </c>
+      <c r="D50">
+        <v>17</v>
+      </c>
+      <c r="E50">
+        <v>80</v>
+      </c>
+      <c r="F50">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>39</v>
+      </c>
+      <c r="D51">
+        <v>19</v>
+      </c>
+      <c r="E51">
+        <v>99</v>
+      </c>
+      <c r="F51">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>40</v>
+      </c>
+      <c r="D52">
+        <v>21</v>
+      </c>
+      <c r="E52">
+        <v>120</v>
+      </c>
+      <c r="F52">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>12</v>
+      </c>
+      <c r="C53">
+        <v>41</v>
+      </c>
+      <c r="D53">
+        <v>23</v>
+      </c>
+      <c r="E53">
+        <v>143</v>
+      </c>
+      <c r="F53">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>13</v>
+      </c>
+      <c r="C54">
+        <v>42</v>
+      </c>
+      <c r="D54">
+        <v>25</v>
+      </c>
+      <c r="E54">
+        <v>168</v>
+      </c>
+      <c r="F54">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>14</v>
+      </c>
+      <c r="C55">
+        <v>43</v>
+      </c>
+      <c r="D55">
+        <v>27</v>
+      </c>
+      <c r="E55">
+        <v>195</v>
+      </c>
+      <c r="F55">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>15</v>
+      </c>
+      <c r="C56">
+        <v>44</v>
+      </c>
+      <c r="D56">
+        <v>29</v>
+      </c>
+      <c r="E56">
+        <v>224</v>
+      </c>
+      <c r="F56">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <v>45</v>
+      </c>
+      <c r="D57">
+        <v>31</v>
+      </c>
+      <c r="E57">
+        <v>255</v>
+      </c>
+      <c r="F57">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>17</v>
+      </c>
+      <c r="C58">
+        <v>46</v>
+      </c>
+      <c r="D58">
+        <v>33</v>
+      </c>
+      <c r="E58">
+        <v>288</v>
+      </c>
+      <c r="F58">
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>18</v>
+      </c>
+      <c r="C59">
+        <v>47</v>
+      </c>
+      <c r="D59">
+        <v>35</v>
+      </c>
+      <c r="E59">
+        <v>323</v>
+      </c>
+      <c r="F59">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>19</v>
+      </c>
+      <c r="C60">
+        <v>48</v>
+      </c>
+      <c r="D60">
+        <v>37</v>
+      </c>
+      <c r="E60">
+        <v>360</v>
+      </c>
+      <c r="F60">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>20</v>
+      </c>
+      <c r="C61">
+        <v>49</v>
+      </c>
+      <c r="D61">
+        <v>39</v>
+      </c>
+      <c r="E61">
+        <v>399</v>
+      </c>
+      <c r="F61">
+        <v>12700</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>21</v>
+      </c>
+      <c r="C62">
+        <v>50</v>
+      </c>
+      <c r="D62">
+        <v>41</v>
+      </c>
+      <c r="E62">
+        <v>440</v>
+      </c>
+      <c r="F62">
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>22</v>
+      </c>
+      <c r="C63">
+        <v>51</v>
+      </c>
+      <c r="D63">
+        <v>43</v>
+      </c>
+      <c r="E63">
+        <v>483</v>
+      </c>
+      <c r="F63">
+        <v>14100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>23</v>
+      </c>
+      <c r="C64">
+        <v>52</v>
+      </c>
+      <c r="D64">
+        <v>45</v>
+      </c>
+      <c r="E64">
+        <v>528</v>
+      </c>
+      <c r="F64">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>24</v>
+      </c>
+      <c r="C65">
+        <v>53</v>
+      </c>
+      <c r="D65">
+        <v>47</v>
+      </c>
+      <c r="E65">
+        <v>575</v>
+      </c>
+      <c r="F65">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>25</v>
+      </c>
+      <c r="C66">
+        <v>54</v>
+      </c>
+      <c r="D66">
+        <v>49</v>
+      </c>
+      <c r="E66">
+        <v>624</v>
+      </c>
+      <c r="F66">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>26</v>
+      </c>
+      <c r="C67">
+        <v>55</v>
+      </c>
+      <c r="D67">
+        <v>51</v>
+      </c>
+      <c r="E67">
+        <v>675</v>
+      </c>
+      <c r="F67">
+        <v>16900</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>27</v>
+      </c>
+      <c r="C68">
+        <v>56</v>
+      </c>
+      <c r="D68">
+        <v>53</v>
+      </c>
+      <c r="E68">
+        <v>728</v>
+      </c>
+      <c r="F68">
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>28</v>
+      </c>
+      <c r="C69">
+        <v>57</v>
+      </c>
+      <c r="D69">
+        <v>55</v>
+      </c>
+      <c r="E69">
+        <v>783</v>
+      </c>
+      <c r="F69">
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>29</v>
+      </c>
+      <c r="C70">
+        <v>58</v>
+      </c>
+      <c r="D70">
+        <v>57</v>
+      </c>
+      <c r="E70">
+        <v>840</v>
+      </c>
+      <c r="F70">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>30</v>
+      </c>
+      <c r="C71">
+        <v>59</v>
+      </c>
+      <c r="D71">
+        <v>59</v>
+      </c>
+      <c r="E71">
+        <v>899</v>
+      </c>
+      <c r="F71">
+        <v>19700</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>31</v>
+      </c>
+      <c r="C72">
+        <v>60</v>
+      </c>
+      <c r="D72">
+        <v>61</v>
+      </c>
+      <c r="E72">
+        <v>960</v>
+      </c>
+      <c r="F72">
+        <v>20400</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>32</v>
+      </c>
+      <c r="C73">
+        <v>61</v>
+      </c>
+      <c r="D73">
+        <v>63</v>
+      </c>
+      <c r="E73">
+        <v>1023</v>
+      </c>
+      <c r="F73">
+        <v>21100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>33</v>
+      </c>
+      <c r="C74">
+        <v>62</v>
+      </c>
+      <c r="D74">
+        <v>65</v>
+      </c>
+      <c r="E74">
+        <v>1088</v>
+      </c>
+      <c r="F74">
+        <v>21800</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>34</v>
+      </c>
+      <c r="C75">
+        <v>63</v>
+      </c>
+      <c r="D75">
+        <v>67</v>
+      </c>
+      <c r="E75">
+        <v>1155</v>
+      </c>
+      <c r="F75">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>35</v>
+      </c>
+      <c r="C76">
+        <v>64</v>
+      </c>
+      <c r="D76">
+        <v>69</v>
+      </c>
+      <c r="E76">
+        <v>1224</v>
+      </c>
+      <c r="F76">
+        <v>23200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>36</v>
+      </c>
+      <c r="C77">
+        <v>65</v>
+      </c>
+      <c r="D77">
+        <v>71</v>
+      </c>
+      <c r="E77">
+        <v>1295</v>
+      </c>
+      <c r="F77">
+        <v>23900</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>37</v>
+      </c>
+      <c r="C78">
+        <v>66</v>
+      </c>
+      <c r="D78">
+        <v>73</v>
+      </c>
+      <c r="E78">
+        <v>1368</v>
+      </c>
+      <c r="F78">
+        <v>24600</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>38</v>
+      </c>
+      <c r="C79">
+        <v>67</v>
+      </c>
+      <c r="D79">
+        <v>75</v>
+      </c>
+      <c r="E79">
+        <v>1443</v>
+      </c>
+      <c r="F79">
+        <v>25300</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>39</v>
+      </c>
+      <c r="C80">
+        <v>68</v>
+      </c>
+      <c r="D80">
+        <v>77</v>
+      </c>
+      <c r="E80">
+        <v>1520</v>
+      </c>
+      <c r="F80">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>40</v>
+      </c>
+      <c r="C81">
+        <v>69</v>
+      </c>
+      <c r="D81">
+        <v>79</v>
+      </c>
+      <c r="E81">
+        <v>1599</v>
+      </c>
+      <c r="F81">
+        <v>26700</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>100</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>101</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+      <c r="F83">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>102</v>
+      </c>
+      <c r="D84">
+        <v>5</v>
+      </c>
+      <c r="E84">
+        <v>8</v>
+      </c>
+      <c r="F84">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>2</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>103</v>
+      </c>
+      <c r="D85">
+        <v>7</v>
+      </c>
+      <c r="E85">
+        <v>15</v>
+      </c>
+      <c r="F85">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>104</v>
+      </c>
+      <c r="D86">
+        <v>9</v>
+      </c>
+      <c r="E86">
+        <v>24</v>
+      </c>
+      <c r="F86">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87">
+        <v>6</v>
+      </c>
+      <c r="C87">
+        <v>105</v>
+      </c>
+      <c r="D87">
+        <v>11</v>
+      </c>
+      <c r="E87">
+        <v>35</v>
+      </c>
+      <c r="F87">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88">
+        <v>7</v>
+      </c>
+      <c r="C88">
+        <v>106</v>
+      </c>
+      <c r="D88">
+        <v>13</v>
+      </c>
+      <c r="E88">
+        <v>48</v>
+      </c>
+      <c r="F88">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>2</v>
+      </c>
+      <c r="B89">
+        <v>8</v>
+      </c>
+      <c r="C89">
+        <v>107</v>
+      </c>
+      <c r="D89">
+        <v>15</v>
+      </c>
+      <c r="E89">
+        <v>63</v>
+      </c>
+      <c r="F89">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90">
+        <v>9</v>
+      </c>
+      <c r="C90">
+        <v>108</v>
+      </c>
+      <c r="D90">
+        <v>17</v>
+      </c>
+      <c r="E90">
+        <v>80</v>
+      </c>
+      <c r="F90">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>109</v>
+      </c>
+      <c r="D91">
+        <v>19</v>
+      </c>
+      <c r="E91">
+        <v>99</v>
+      </c>
+      <c r="F91">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="B92">
+        <v>11</v>
+      </c>
+      <c r="C92">
+        <v>110</v>
+      </c>
+      <c r="D92">
+        <v>21</v>
+      </c>
+      <c r="E92">
+        <v>120</v>
+      </c>
+      <c r="F92">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>2</v>
+      </c>
+      <c r="B93">
+        <v>12</v>
+      </c>
+      <c r="C93">
+        <v>111</v>
+      </c>
+      <c r="D93">
+        <v>23</v>
+      </c>
+      <c r="E93">
+        <v>143</v>
+      </c>
+      <c r="F93">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>2</v>
+      </c>
+      <c r="B94">
+        <v>13</v>
+      </c>
+      <c r="C94">
+        <v>112</v>
+      </c>
+      <c r="D94">
+        <v>25</v>
+      </c>
+      <c r="E94">
+        <v>168</v>
+      </c>
+      <c r="F94">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95">
+        <v>14</v>
+      </c>
+      <c r="C95">
+        <v>113</v>
+      </c>
+      <c r="D95">
+        <v>27</v>
+      </c>
+      <c r="E95">
+        <v>195</v>
+      </c>
+      <c r="F95">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>2</v>
+      </c>
+      <c r="B96">
+        <v>15</v>
+      </c>
+      <c r="C96">
+        <v>114</v>
+      </c>
+      <c r="D96">
+        <v>29</v>
+      </c>
+      <c r="E96">
+        <v>224</v>
+      </c>
+      <c r="F96">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>2</v>
+      </c>
+      <c r="B97">
+        <v>16</v>
+      </c>
+      <c r="C97">
+        <v>115</v>
+      </c>
+      <c r="D97">
+        <v>31</v>
+      </c>
+      <c r="E97">
+        <v>255</v>
+      </c>
+      <c r="F97">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98">
+        <v>17</v>
+      </c>
+      <c r="C98">
+        <v>116</v>
+      </c>
+      <c r="D98">
+        <v>33</v>
+      </c>
+      <c r="E98">
+        <v>288</v>
+      </c>
+      <c r="F98">
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99">
+        <v>18</v>
+      </c>
+      <c r="C99">
+        <v>117</v>
+      </c>
+      <c r="D99">
+        <v>35</v>
+      </c>
+      <c r="E99">
+        <v>323</v>
+      </c>
+      <c r="F99">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100">
+        <v>19</v>
+      </c>
+      <c r="C100">
+        <v>118</v>
+      </c>
+      <c r="D100">
+        <v>37</v>
+      </c>
+      <c r="E100">
+        <v>360</v>
+      </c>
+      <c r="F100">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="B101">
+        <v>20</v>
+      </c>
+      <c r="C101">
+        <v>119</v>
+      </c>
+      <c r="D101">
+        <v>39</v>
+      </c>
+      <c r="E101">
+        <v>399</v>
+      </c>
+      <c r="F101">
+        <v>12700</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102">
+        <v>21</v>
+      </c>
+      <c r="C102">
+        <v>120</v>
+      </c>
+      <c r="D102">
+        <v>41</v>
+      </c>
+      <c r="E102">
+        <v>440</v>
+      </c>
+      <c r="F102">
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="B103">
+        <v>22</v>
+      </c>
+      <c r="C103">
+        <v>121</v>
+      </c>
+      <c r="D103">
+        <v>43</v>
+      </c>
+      <c r="E103">
+        <v>483</v>
+      </c>
+      <c r="F103">
+        <v>14100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>2</v>
+      </c>
+      <c r="B104">
+        <v>23</v>
+      </c>
+      <c r="C104">
+        <v>122</v>
+      </c>
+      <c r="D104">
+        <v>45</v>
+      </c>
+      <c r="E104">
+        <v>528</v>
+      </c>
+      <c r="F104">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>2</v>
+      </c>
+      <c r="B105">
+        <v>24</v>
+      </c>
+      <c r="C105">
+        <v>123</v>
+      </c>
+      <c r="D105">
+        <v>47</v>
+      </c>
+      <c r="E105">
+        <v>575</v>
+      </c>
+      <c r="F105">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>2</v>
+      </c>
+      <c r="B106">
+        <v>25</v>
+      </c>
+      <c r="C106">
+        <v>124</v>
+      </c>
+      <c r="D106">
+        <v>49</v>
+      </c>
+      <c r="E106">
+        <v>624</v>
+      </c>
+      <c r="F106">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>2</v>
+      </c>
+      <c r="B107">
+        <v>26</v>
+      </c>
+      <c r="C107">
+        <v>125</v>
+      </c>
+      <c r="D107">
+        <v>51</v>
+      </c>
+      <c r="E107">
+        <v>675</v>
+      </c>
+      <c r="F107">
+        <v>16900</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>2</v>
+      </c>
+      <c r="B108">
+        <v>27</v>
+      </c>
+      <c r="C108">
+        <v>126</v>
+      </c>
+      <c r="D108">
+        <v>53</v>
+      </c>
+      <c r="E108">
+        <v>728</v>
+      </c>
+      <c r="F108">
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>2</v>
+      </c>
+      <c r="B109">
+        <v>28</v>
+      </c>
+      <c r="C109">
+        <v>127</v>
+      </c>
+      <c r="D109">
+        <v>55</v>
+      </c>
+      <c r="E109">
+        <v>783</v>
+      </c>
+      <c r="F109">
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>2</v>
+      </c>
+      <c r="B110">
+        <v>29</v>
+      </c>
+      <c r="C110">
+        <v>128</v>
+      </c>
+      <c r="D110">
+        <v>57</v>
+      </c>
+      <c r="E110">
+        <v>840</v>
+      </c>
+      <c r="F110">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>2</v>
+      </c>
+      <c r="B111">
+        <v>30</v>
+      </c>
+      <c r="C111">
+        <v>129</v>
+      </c>
+      <c r="D111">
+        <v>59</v>
+      </c>
+      <c r="E111">
+        <v>899</v>
+      </c>
+      <c r="F111">
+        <v>19700</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>2</v>
+      </c>
+      <c r="B112">
+        <v>31</v>
+      </c>
+      <c r="C112">
+        <v>130</v>
+      </c>
+      <c r="D112">
+        <v>61</v>
+      </c>
+      <c r="E112">
+        <v>960</v>
+      </c>
+      <c r="F112">
+        <v>20400</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>2</v>
+      </c>
+      <c r="B113">
+        <v>32</v>
+      </c>
+      <c r="C113">
+        <v>131</v>
+      </c>
+      <c r="D113">
+        <v>63</v>
+      </c>
+      <c r="E113">
+        <v>1023</v>
+      </c>
+      <c r="F113">
+        <v>21100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>2</v>
+      </c>
+      <c r="B114">
+        <v>33</v>
+      </c>
+      <c r="C114">
+        <v>132</v>
+      </c>
+      <c r="D114">
+        <v>65</v>
+      </c>
+      <c r="E114">
+        <v>1088</v>
+      </c>
+      <c r="F114">
+        <v>21800</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>2</v>
+      </c>
+      <c r="B115">
+        <v>34</v>
+      </c>
+      <c r="C115">
+        <v>133</v>
+      </c>
+      <c r="D115">
+        <v>67</v>
+      </c>
+      <c r="E115">
+        <v>1155</v>
+      </c>
+      <c r="F115">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>2</v>
+      </c>
+      <c r="B116">
+        <v>35</v>
+      </c>
+      <c r="C116">
+        <v>134</v>
+      </c>
+      <c r="D116">
+        <v>69</v>
+      </c>
+      <c r="E116">
+        <v>1224</v>
+      </c>
+      <c r="F116">
+        <v>23200</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>2</v>
+      </c>
+      <c r="B117">
+        <v>36</v>
+      </c>
+      <c r="C117">
+        <v>135</v>
+      </c>
+      <c r="D117">
+        <v>71</v>
+      </c>
+      <c r="E117">
+        <v>1295</v>
+      </c>
+      <c r="F117">
+        <v>23900</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>2</v>
+      </c>
+      <c r="B118">
+        <v>37</v>
+      </c>
+      <c r="C118">
+        <v>136</v>
+      </c>
+      <c r="D118">
+        <v>73</v>
+      </c>
+      <c r="E118">
+        <v>1368</v>
+      </c>
+      <c r="F118">
+        <v>24600</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>2</v>
+      </c>
+      <c r="B119">
+        <v>38</v>
+      </c>
+      <c r="C119">
+        <v>137</v>
+      </c>
+      <c r="D119">
+        <v>75</v>
+      </c>
+      <c r="E119">
+        <v>1443</v>
+      </c>
+      <c r="F119">
+        <v>25300</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>2</v>
+      </c>
+      <c r="B120">
+        <v>39</v>
+      </c>
+      <c r="C120">
+        <v>138</v>
+      </c>
+      <c r="D120">
+        <v>77</v>
+      </c>
+      <c r="E120">
+        <v>1520</v>
+      </c>
+      <c r="F120">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>2</v>
+      </c>
+      <c r="B121">
+        <v>40</v>
+      </c>
+      <c r="C121">
+        <v>139</v>
+      </c>
+      <c r="D121">
+        <v>79</v>
+      </c>
+      <c r="E121">
+        <v>1599</v>
+      </c>
+      <c r="F121">
+        <v>26700</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B90BAD2-7FC3-4CAF-BDC4-78BBB07EEBB6}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>300</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>400</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>500</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>400</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>600</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>800</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>1000</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>500</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>1000</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>1500</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>2000</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>2500</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>2900</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Actor.xlsx
+++ b/Excel/Actor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB930D4D-A710-4A6B-ACEF-B793DD5B85FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E458658B-8233-4824-8488-F0018E4BEDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
   </bookViews>
   <sheets>
     <sheet name="ActorTable" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="227">
   <si>
     <t>Portrait_AngelicWarrior</t>
   </si>
@@ -716,6 +716,9 @@
   </si>
   <si>
     <t>transcend|Int</t>
+  </si>
+  <si>
+    <t>Actor0037</t>
   </si>
 </sst>
 </file>
@@ -1081,9 +1084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2C0BC1-FCA1-449A-8610-F80C265CA071}">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2910,7 +2911,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -6155,7 +6156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B90BAD2-7FC3-4CAF-BDC4-78BBB07EEBB6}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/Excel/Actor.xlsx
+++ b/Excel/Actor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E458658B-8233-4824-8488-F0018E4BEDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BA8B79-E390-4F3A-AFED-65DDF26250FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
   </bookViews>
   <sheets>
     <sheet name="ActorTable" sheetId="2" r:id="rId1"/>
@@ -1084,7 +1084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2C0BC1-FCA1-449A-8610-F80C265CA071}">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6156,7 +6156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B90BAD2-7FC3-4CAF-BDC4-78BBB07EEBB6}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -6231,10 +6231,10 @@
         <v>200</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>800</v>
@@ -6251,10 +6251,10 @@
         <v>300</v>
       </c>
       <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>3</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
       </c>
       <c r="F5">
         <v>1500</v>
@@ -6271,10 +6271,10 @@
         <v>400</v>
       </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>4</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
       </c>
       <c r="F6">
         <v>2200</v>
@@ -6291,10 +6291,10 @@
         <v>500</v>
       </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>5</v>
-      </c>
-      <c r="E7">
-        <v>15</v>
       </c>
       <c r="F7">
         <v>2900</v>
@@ -6351,10 +6351,10 @@
         <v>400</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>800</v>
@@ -6371,10 +6371,10 @@
         <v>600</v>
       </c>
       <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>3</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
       </c>
       <c r="F11">
         <v>1500</v>
@@ -6391,10 +6391,10 @@
         <v>800</v>
       </c>
       <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>4</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
       </c>
       <c r="F12">
         <v>2200</v>
@@ -6411,10 +6411,10 @@
         <v>1000</v>
       </c>
       <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>5</v>
-      </c>
-      <c r="E13">
-        <v>15</v>
       </c>
       <c r="F13">
         <v>2900</v>
@@ -6471,10 +6471,10 @@
         <v>1000</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>800</v>
@@ -6491,10 +6491,10 @@
         <v>1500</v>
       </c>
       <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>3</v>
-      </c>
-      <c r="E17">
-        <v>6</v>
       </c>
       <c r="F17">
         <v>1500</v>
@@ -6511,10 +6511,10 @@
         <v>2000</v>
       </c>
       <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>4</v>
-      </c>
-      <c r="E18">
-        <v>10</v>
       </c>
       <c r="F18">
         <v>2200</v>
@@ -6531,10 +6531,10 @@
         <v>2500</v>
       </c>
       <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>5</v>
-      </c>
-      <c r="E19">
-        <v>15</v>
       </c>
       <c r="F19">
         <v>2900</v>

--- a/Excel/Actor.xlsx
+++ b/Excel/Actor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BA8B79-E390-4F3A-AFED-65DDF26250FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B26F1A-3370-4641-87DC-2B6309C97CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
   </bookViews>
   <sheets>
     <sheet name="ActorTable" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="222">
   <si>
     <t>Portrait_AngelicWarrior</t>
   </si>
@@ -54,9 +54,6 @@
     <t>CharLowName_AngelicWarrior</t>
   </si>
   <si>
-    <t>BGM_IceMagician</t>
-  </si>
-  <si>
     <t>Portrait_IceMagician</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>CharLowName_EnergyShieldRobot</t>
   </si>
   <si>
-    <t>BGM_GirlArcher</t>
-  </si>
-  <si>
     <t>Portrait_GirlArcher</t>
   </si>
   <si>
@@ -120,9 +114,6 @@
     <t>CharLowName_GirlWarrior</t>
   </si>
   <si>
-    <t>BGM_BladeFanDancer</t>
-  </si>
-  <si>
     <t>Portrait_BladeFanDancer</t>
   </si>
   <si>
@@ -288,9 +279,6 @@
     <t>CharLowName_Kachujin</t>
   </si>
   <si>
-    <t>BGM_SteampunkRobot</t>
-  </si>
-  <si>
     <t>Portrait_SteampunkRobot</t>
   </si>
   <si>
@@ -487,9 +475,6 @@
   </si>
   <si>
     <t>Portrait_Ganfaul</t>
-  </si>
-  <si>
-    <t>Ganfaul</t>
   </si>
   <si>
     <t>CharDesc_Ganfaul</t>
@@ -1082,9 +1067,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2C0BC1-FCA1-449A-8610-F80C265CA071}">
-  <dimension ref="A1:X32"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F28" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1095,108 +1082,108 @@
   <sheetData>
     <row r="1" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="K1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="M1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="N1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="O1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="P1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="Q1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="R1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="S1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="T1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="U1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="V1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="W1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="X1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.94899999999999995</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="G2">
-        <v>1.0329999999999999</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="H2">
-        <v>0.40600000000000003</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="I2">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1208,16 +1195,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="O2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P2">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="Q2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="b">
         <v>1</v>
@@ -1229,45 +1216,45 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.86099999999999999</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="G3">
-        <v>0.80600000000000005</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="H3">
-        <v>0.81100000000000005</v>
+        <v>0.624</v>
       </c>
       <c r="I3">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1276,16 +1263,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="O3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="P3">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="Q3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="b">
         <v>1</v>
@@ -1297,45 +1284,45 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="V3">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.90700000000000003</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="G4">
-        <v>0.91200000000000003</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="H4">
-        <v>0.624</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="I4">
         <v>3.5</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>8.3000000000000007</v>
+        <v>6.7</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1344,13 +1331,13 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="O4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="P4">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="Q4" t="b">
         <v>1</v>
@@ -1365,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="V4">
         <v>14</v>
@@ -1373,37 +1360,37 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.92200000000000004</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="G5">
-        <v>0.93799999999999994</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="H5">
-        <v>0.88200000000000001</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="I5">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1412,16 +1399,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="O5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="P5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="b">
         <v>1</v>
@@ -1433,45 +1420,45 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="V5">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.83699999999999997</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="G6">
-        <v>0.81799999999999995</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="H6">
-        <v>0.73199999999999998</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="I6">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1480,16 +1467,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="O6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Q6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="b">
         <v>1</v>
@@ -1501,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="V6">
         <v>30</v>
@@ -1509,135 +1496,138 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.84899999999999998</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="G7">
-        <v>0.85099999999999998</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="H7">
-        <v>0.83199999999999996</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="I7">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="O7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="P7">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="b">
         <v>1</v>
       </c>
       <c r="S7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="b">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="V7">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="X7">
+        <v>0.66659999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.93100000000000005</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="G8">
-        <v>0.97599999999999998</v>
+        <v>1.012</v>
       </c>
       <c r="H8">
-        <v>0.71199999999999997</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="I8">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="O8" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" t="b">
         <v>1</v>
       </c>
       <c r="S8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="b">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="V8">
         <v>14</v>
@@ -1648,34 +1638,34 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.96299999999999997</v>
+        <v>0.878</v>
       </c>
       <c r="G9">
-        <v>1.012</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="H9">
-        <v>0.77700000000000002</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="I9">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1687,13 +1677,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="P9">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="Q9" t="b">
         <v>1</v>
@@ -1705,13 +1695,13 @@
         <v>1</v>
       </c>
       <c r="T9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="V9">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="X9">
         <v>0.66659999999999997</v>
@@ -1719,31 +1709,31 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.878</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="G10">
-        <v>0.85499999999999998</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="H10">
-        <v>0.75800000000000001</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -1758,13 +1748,13 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P10">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Q10" t="b">
         <v>1</v>
@@ -1776,10 +1766,10 @@
         <v>1</v>
       </c>
       <c r="T10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V10">
         <v>30</v>
@@ -1790,37 +1780,37 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.89400000000000002</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="G11">
-        <v>0.84199999999999997</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="H11">
-        <v>0.76100000000000001</v>
+        <v>1.204</v>
       </c>
       <c r="I11">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1829,19 +1819,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="O11" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="P11">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" t="b">
         <v>1</v>
@@ -1850,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="V11">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="X11">
         <v>0.66659999999999997</v>
@@ -1861,37 +1851,37 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1.0049999999999999</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="G12">
-        <v>0.94099999999999995</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="H12">
-        <v>1.204</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K12">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1900,19 +1890,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O12" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" t="b">
         <v>1</v>
@@ -1921,48 +1911,45 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="V12">
         <v>14</v>
       </c>
-      <c r="X12">
-        <v>0.66659999999999997</v>
-      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.88800000000000001</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="G13">
-        <v>0.93600000000000005</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="H13">
-        <v>0.72299999999999998</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="I13">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1971,19 +1958,19 @@
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="O13" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="P13">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" t="b">
         <v>1</v>
@@ -1992,45 +1979,48 @@
         <v>0</v>
       </c>
       <c r="U13">
+        <v>50</v>
+      </c>
+      <c r="V13">
         <v>30</v>
       </c>
-      <c r="V13">
-        <v>14</v>
+      <c r="X13">
+        <v>0.66659999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.83199999999999996</v>
+        <v>1.1719999999999999</v>
       </c>
       <c r="G14">
-        <v>0.83899999999999997</v>
+        <v>1.1080000000000001</v>
       </c>
       <c r="H14">
-        <v>0.95299999999999996</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="I14">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2039,19 +2029,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O14" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" t="b">
         <v>1</v>
@@ -2060,48 +2050,45 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="V14">
-        <v>30</v>
-      </c>
-      <c r="X14">
-        <v>0.66659999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.1719999999999999</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="G15">
-        <v>1.1080000000000001</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="H15">
-        <v>0.61299999999999999</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="I15">
         <v>3.7</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2110,16 +2097,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="O15" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="P15">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="b">
         <v>1</v>
@@ -2131,48 +2118,45 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="V15">
-        <v>1</v>
-      </c>
-      <c r="W15" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.93899999999999995</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="G16">
-        <v>0.98199999999999998</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="H16">
-        <v>0.73399999999999999</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="I16">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="J16">
         <v>3</v>
       </c>
       <c r="K16">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2181,16 +2165,16 @@
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="O16" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" t="b">
         <v>1</v>
@@ -2202,45 +2186,48 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="V16">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="X16">
+        <v>0.66659999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.84299999999999997</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="G17">
-        <v>0.82599999999999996</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="H17">
-        <v>0.78900000000000003</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="I17">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2249,19 +2236,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="O17" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="P17">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="b">
         <v>1</v>
@@ -2270,48 +2257,45 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="V17">
-        <v>30</v>
-      </c>
-      <c r="X17">
-        <v>0.66659999999999997</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.95799999999999996</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="G18">
-        <v>0.96599999999999997</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="H18">
-        <v>0.90400000000000003</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="I18">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K18">
-        <v>6.4</v>
+        <v>2.9</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2320,19 +2304,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="O18" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Q18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" t="b">
         <v>1</v>
@@ -2341,45 +2325,48 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="V18">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="X18">
+        <v>0.66659999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.93200000000000005</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="G19">
-        <v>0.86899999999999999</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="H19">
-        <v>0.69199999999999995</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="I19">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="J19">
         <v>3</v>
       </c>
       <c r="K19">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2388,13 +2375,13 @@
         <v>0</v>
       </c>
       <c r="N19" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="P19">
-        <v>0.28000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="Q19" t="b">
         <v>1</v>
@@ -2409,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V19">
         <v>30</v>
@@ -2420,37 +2407,37 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.95699999999999996</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="G20">
-        <v>0.86199999999999999</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="H20">
-        <v>0.72799999999999998</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2459,13 +2446,13 @@
         <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="O20" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="P20">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="Q20" t="b">
         <v>1</v>
@@ -2480,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="V20">
         <v>30</v>
@@ -2491,37 +2478,37 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.98099999999999998</v>
+        <v>1.016</v>
       </c>
       <c r="G21">
-        <v>0.83399999999999996</v>
+        <v>1.054</v>
       </c>
       <c r="H21">
-        <v>0.78600000000000003</v>
+        <v>0.752</v>
       </c>
       <c r="I21">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>6.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2530,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="P21">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="Q21" t="b">
         <v>1</v>
@@ -2545,16 +2532,16 @@
         <v>1</v>
       </c>
       <c r="S21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="b">
         <v>0</v>
       </c>
       <c r="U21">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="V21">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="X21">
         <v>0.66659999999999997</v>
@@ -2562,37 +2549,37 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1.016</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="G22">
-        <v>1.054</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="H22">
-        <v>0.752</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="I22">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K22">
-        <v>2.2000000000000002</v>
+        <v>5.5</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2601,10 +2588,10 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="O22" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="P22">
         <v>0.05</v>
@@ -2616,119 +2603,116 @@
         <v>1</v>
       </c>
       <c r="S22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="b">
         <v>0</v>
       </c>
       <c r="U22">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V22">
         <v>14</v>
       </c>
-      <c r="X22">
-        <v>0.66659999999999997</v>
-      </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="G23">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="H23">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="I23">
+        <v>3.5</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O23" t="s">
+        <v>35</v>
+      </c>
+      <c r="P23">
+        <v>0.15</v>
+      </c>
+      <c r="Q23" t="b">
+        <v>1</v>
+      </c>
+      <c r="R23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S23" t="b">
+        <v>1</v>
+      </c>
+      <c r="T23" t="b">
+        <v>0</v>
+      </c>
+      <c r="U23">
         <v>46</v>
       </c>
-      <c r="D23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="G23">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="H23">
-        <v>0.76700000000000002</v>
-      </c>
-      <c r="I23">
-        <v>3</v>
-      </c>
-      <c r="J23">
-        <v>2</v>
-      </c>
-      <c r="K23">
-        <v>5.5</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23" t="s">
-        <v>44</v>
-      </c>
-      <c r="O23" t="s">
-        <v>43</v>
-      </c>
-      <c r="P23">
-        <v>0.05</v>
-      </c>
-      <c r="Q23" t="b">
-        <v>1</v>
-      </c>
-      <c r="R23" t="b">
-        <v>1</v>
-      </c>
-      <c r="S23" t="b">
-        <v>1</v>
-      </c>
-      <c r="T23" t="b">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>29</v>
-      </c>
       <c r="V23">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.88300000000000001</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="G24">
-        <v>0.79400000000000004</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="H24">
-        <v>0.77100000000000002</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="I24">
         <v>3.5</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2740,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="O24" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="P24">
         <v>0.15</v>
@@ -2761,45 +2745,48 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="V24">
         <v>30</v>
       </c>
+      <c r="X24">
+        <v>0.66659999999999997</v>
+      </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.85499999999999998</v>
+        <v>1.151</v>
       </c>
       <c r="G25">
-        <v>0.90500000000000003</v>
+        <v>1.159</v>
       </c>
       <c r="H25">
-        <v>0.74199999999999999</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="I25">
         <v>3.5</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2808,19 +2795,19 @@
         <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="O25" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="P25">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" t="b">
         <v>1</v>
@@ -2829,119 +2816,116 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="V25">
-        <v>30</v>
-      </c>
-      <c r="X25">
-        <v>0.66659999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="G26">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="H26">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="I26">
+        <v>3.3</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R26" t="b">
+        <v>1</v>
+      </c>
+      <c r="S26" t="b">
+        <v>1</v>
+      </c>
+      <c r="T26" t="b">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>41</v>
+      </c>
+      <c r="V26">
         <v>30</v>
       </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>1.151</v>
-      </c>
-      <c r="G26">
-        <v>1.159</v>
-      </c>
-      <c r="H26">
-        <v>0.79300000000000004</v>
-      </c>
-      <c r="I26">
-        <v>3.5</v>
-      </c>
-      <c r="J26">
-        <v>3</v>
-      </c>
-      <c r="K26">
-        <v>6.5</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26" t="s">
-        <v>29</v>
-      </c>
-      <c r="O26" t="s">
-        <v>28</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="b">
-        <v>0</v>
-      </c>
-      <c r="R26" t="b">
-        <v>0</v>
-      </c>
-      <c r="S26" t="b">
-        <v>1</v>
-      </c>
-      <c r="T26" t="b">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>11</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26" t="s">
-        <v>27</v>
+      <c r="X26">
+        <v>0.66659999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.91200000000000003</v>
+        <v>1.046</v>
       </c>
       <c r="G27">
-        <v>0.75600000000000001</v>
+        <v>1.171</v>
       </c>
       <c r="H27">
-        <v>0.84899999999999998</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="I27">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2950,16 +2934,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="O27" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" t="b">
         <v>1</v>
@@ -2971,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="V27">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="X27">
         <v>0.66659999999999997</v>
@@ -2982,37 +2966,37 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1.046</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="G28">
-        <v>1.171</v>
+        <v>0.874</v>
       </c>
       <c r="H28">
-        <v>0.76400000000000001</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="I28">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -3021,16 +3005,16 @@
         <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="O28" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="P28">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="Q28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" t="b">
         <v>1</v>
@@ -3042,51 +3026,45 @@
         <v>0</v>
       </c>
       <c r="U28">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="V28">
-        <v>1</v>
-      </c>
-      <c r="W28" t="s">
-        <v>16</v>
-      </c>
-      <c r="X28">
-        <v>0.66659999999999997</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.86699999999999999</v>
+        <v>1.1240000000000001</v>
       </c>
       <c r="G29">
-        <v>0.874</v>
+        <v>1.089</v>
       </c>
       <c r="H29">
-        <v>0.93400000000000005</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="I29">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3095,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O29" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P29">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="b">
         <v>0</v>
@@ -3113,48 +3091,51 @@
         <v>1</v>
       </c>
       <c r="T29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="V29">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>0.66659999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1.1240000000000001</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="G30">
-        <v>1.089</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="H30">
-        <v>0.81699999999999995</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="I30">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3163,16 +3144,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" t="b">
         <v>1</v>
@@ -3184,48 +3165,42 @@
         <v>1</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="V30">
-        <v>1</v>
-      </c>
-      <c r="W30" t="s">
-        <v>5</v>
-      </c>
-      <c r="X30">
-        <v>0.66659999999999997</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>147</v>
       </c>
       <c r="D31" t="s">
-        <v>2</v>
+        <v>146</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.93700000000000006</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="G31">
-        <v>0.92500000000000004</v>
+        <v>1.0329999999999999</v>
       </c>
       <c r="H31">
-        <v>0.91500000000000004</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="I31">
         <v>3.5</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3237,13 +3212,13 @@
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="O31" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="P31">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Q31" t="b">
         <v>1</v>
@@ -3255,80 +3230,12 @@
         <v>1</v>
       </c>
       <c r="T31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="V31">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>217</v>
-      </c>
-      <c r="B32" t="s">
-        <v>153</v>
-      </c>
-      <c r="C32" t="s">
-        <v>152</v>
-      </c>
-      <c r="D32" t="s">
-        <v>151</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="G32">
-        <v>1.0329999999999999</v>
-      </c>
-      <c r="H32">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="I32">
-        <v>3.5</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32" t="s">
-        <v>219</v>
-      </c>
-      <c r="O32" t="s">
-        <v>149</v>
-      </c>
-      <c r="P32">
-        <v>0.05</v>
-      </c>
-      <c r="Q32" t="b">
-        <v>1</v>
-      </c>
-      <c r="R32" t="b">
-        <v>1</v>
-      </c>
-      <c r="S32" t="b">
-        <v>1</v>
-      </c>
-      <c r="T32" t="b">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>57</v>
-      </c>
-      <c r="V32">
         <v>1</v>
       </c>
     </row>
@@ -3357,24 +3264,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" t="s">
         <v>210</v>
       </c>
-      <c r="B1" t="s">
-        <v>215</v>
-      </c>
       <c r="C1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -3391,7 +3298,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3402,7 +3309,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3416,7 +3323,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -3430,7 +3337,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -3444,7 +3351,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3458,7 +3365,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B8" t="b">
         <v>0</v>
@@ -3472,7 +3379,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3486,7 +3393,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3497,7 +3404,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3508,7 +3415,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3519,7 +3426,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -3533,7 +3440,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -3547,7 +3454,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -3558,7 +3465,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -3572,7 +3479,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -3586,7 +3493,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -3600,7 +3507,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -3614,7 +3521,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -3625,7 +3532,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -3636,7 +3543,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -3650,7 +3557,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -3664,7 +3571,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
@@ -3675,7 +3582,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B25" t="b">
         <v>1</v>
@@ -3689,7 +3596,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3703,7 +3610,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B27" t="b">
         <v>1</v>
@@ -3728,22 +3635,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -6156,28 +6063,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B90BAD2-7FC3-4CAF-BDC4-78BBB07EEBB6}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">

--- a/Excel/Actor.xlsx
+++ b/Excel/Actor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B26F1A-3370-4641-87DC-2B6309C97CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F796CA5-7689-4E94-BA3B-61375B21C651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
   </bookViews>
   <sheets>
     <sheet name="ActorTable" sheetId="2" r:id="rId1"/>
@@ -1069,9 +1069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2C0BC1-FCA1-449A-8610-F80C265CA071}">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F28" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3629,7 +3627,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A219A9F8-1530-48C4-A2DD-8656FA2CD589}">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3661,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -3701,7 +3701,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -3721,7 +3721,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -3741,7 +3741,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="D6">
         <v>9</v>
@@ -3761,7 +3761,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>225</v>
       </c>
       <c r="D7">
         <v>11</v>
@@ -3781,7 +3781,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="D8">
         <v>13</v>
@@ -3801,7 +3801,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>255</v>
       </c>
       <c r="D9">
         <v>15</v>
@@ -3821,7 +3821,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="D10">
         <v>17</v>
@@ -3841,7 +3841,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>285</v>
       </c>
       <c r="D11">
         <v>19</v>
@@ -3861,7 +3861,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="D12">
         <v>21</v>
@@ -3881,7 +3881,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>315</v>
       </c>
       <c r="D13">
         <v>23</v>
@@ -3901,7 +3901,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>330</v>
       </c>
       <c r="D14">
         <v>25</v>
@@ -3921,7 +3921,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>345</v>
       </c>
       <c r="D15">
         <v>27</v>
@@ -3941,7 +3941,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="D16">
         <v>29</v>
@@ -3961,7 +3961,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>375</v>
       </c>
       <c r="D17">
         <v>31</v>
@@ -3981,7 +3981,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>390</v>
       </c>
       <c r="D18">
         <v>33</v>
@@ -4001,7 +4001,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>405</v>
       </c>
       <c r="D19">
         <v>35</v>
@@ -4021,7 +4021,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>28</v>
+        <v>420</v>
       </c>
       <c r="D20">
         <v>37</v>
@@ -4041,7 +4041,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>29</v>
+        <v>435</v>
       </c>
       <c r="D21">
         <v>39</v>
@@ -4061,7 +4061,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>30</v>
+        <v>450</v>
       </c>
       <c r="D22">
         <v>41</v>
@@ -4081,7 +4081,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>31</v>
+        <v>465</v>
       </c>
       <c r="D23">
         <v>43</v>
@@ -4101,7 +4101,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>32</v>
+        <v>480</v>
       </c>
       <c r="D24">
         <v>45</v>
@@ -4121,7 +4121,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>33</v>
+        <v>495</v>
       </c>
       <c r="D25">
         <v>47</v>
@@ -4141,7 +4141,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="D26">
         <v>49</v>
@@ -4161,7 +4161,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>35</v>
+        <v>525</v>
       </c>
       <c r="D27">
         <v>51</v>
@@ -4181,7 +4181,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>36</v>
+        <v>540</v>
       </c>
       <c r="D28">
         <v>53</v>
@@ -4201,7 +4201,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>37</v>
+        <v>555</v>
       </c>
       <c r="D29">
         <v>55</v>
@@ -4221,7 +4221,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>38</v>
+        <v>570</v>
       </c>
       <c r="D30">
         <v>57</v>
@@ -4241,7 +4241,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>39</v>
+        <v>585</v>
       </c>
       <c r="D31">
         <v>59</v>
@@ -4261,7 +4261,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>40</v>
+        <v>600</v>
       </c>
       <c r="D32">
         <v>61</v>
@@ -4281,7 +4281,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>41</v>
+        <v>615</v>
       </c>
       <c r="D33">
         <v>63</v>
@@ -4301,7 +4301,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>42</v>
+        <v>630</v>
       </c>
       <c r="D34">
         <v>65</v>
@@ -4321,7 +4321,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>43</v>
+        <v>645</v>
       </c>
       <c r="D35">
         <v>67</v>
@@ -4341,7 +4341,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>44</v>
+        <v>660</v>
       </c>
       <c r="D36">
         <v>69</v>
@@ -4361,7 +4361,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>45</v>
+        <v>675</v>
       </c>
       <c r="D37">
         <v>71</v>
@@ -4381,7 +4381,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>46</v>
+        <v>690</v>
       </c>
       <c r="D38">
         <v>73</v>
@@ -4401,7 +4401,7 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>47</v>
+        <v>705</v>
       </c>
       <c r="D39">
         <v>75</v>
@@ -4421,7 +4421,7 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>48</v>
+        <v>720</v>
       </c>
       <c r="D40">
         <v>77</v>
@@ -4441,7 +4441,7 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>49</v>
+        <v>735</v>
       </c>
       <c r="D41">
         <v>79</v>
@@ -4461,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>30</v>
+        <v>450</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -4481,7 +4481,7 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>31</v>
+        <v>465</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -4501,7 +4501,7 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>32</v>
+        <v>480</v>
       </c>
       <c r="D44">
         <v>5</v>
@@ -4521,7 +4521,7 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>33</v>
+        <v>495</v>
       </c>
       <c r="D45">
         <v>7</v>
@@ -4541,7 +4541,7 @@
         <v>5</v>
       </c>
       <c r="C46">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="D46">
         <v>9</v>
@@ -4561,7 +4561,7 @@
         <v>6</v>
       </c>
       <c r="C47">
-        <v>35</v>
+        <v>525</v>
       </c>
       <c r="D47">
         <v>11</v>
@@ -4581,7 +4581,7 @@
         <v>7</v>
       </c>
       <c r="C48">
-        <v>36</v>
+        <v>540</v>
       </c>
       <c r="D48">
         <v>13</v>
@@ -4601,7 +4601,7 @@
         <v>8</v>
       </c>
       <c r="C49">
-        <v>37</v>
+        <v>555</v>
       </c>
       <c r="D49">
         <v>15</v>
@@ -4621,7 +4621,7 @@
         <v>9</v>
       </c>
       <c r="C50">
-        <v>38</v>
+        <v>570</v>
       </c>
       <c r="D50">
         <v>17</v>
@@ -4641,7 +4641,7 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>39</v>
+        <v>585</v>
       </c>
       <c r="D51">
         <v>19</v>
@@ -4661,7 +4661,7 @@
         <v>11</v>
       </c>
       <c r="C52">
-        <v>40</v>
+        <v>600</v>
       </c>
       <c r="D52">
         <v>21</v>
@@ -4681,7 +4681,7 @@
         <v>12</v>
       </c>
       <c r="C53">
-        <v>41</v>
+        <v>615</v>
       </c>
       <c r="D53">
         <v>23</v>
@@ -4701,7 +4701,7 @@
         <v>13</v>
       </c>
       <c r="C54">
-        <v>42</v>
+        <v>630</v>
       </c>
       <c r="D54">
         <v>25</v>
@@ -4721,7 +4721,7 @@
         <v>14</v>
       </c>
       <c r="C55">
-        <v>43</v>
+        <v>645</v>
       </c>
       <c r="D55">
         <v>27</v>
@@ -4741,7 +4741,7 @@
         <v>15</v>
       </c>
       <c r="C56">
-        <v>44</v>
+        <v>660</v>
       </c>
       <c r="D56">
         <v>29</v>
@@ -4761,7 +4761,7 @@
         <v>16</v>
       </c>
       <c r="C57">
-        <v>45</v>
+        <v>675</v>
       </c>
       <c r="D57">
         <v>31</v>
@@ -4781,7 +4781,7 @@
         <v>17</v>
       </c>
       <c r="C58">
-        <v>46</v>
+        <v>690</v>
       </c>
       <c r="D58">
         <v>33</v>
@@ -4801,7 +4801,7 @@
         <v>18</v>
       </c>
       <c r="C59">
-        <v>47</v>
+        <v>705</v>
       </c>
       <c r="D59">
         <v>35</v>
@@ -4821,7 +4821,7 @@
         <v>19</v>
       </c>
       <c r="C60">
-        <v>48</v>
+        <v>720</v>
       </c>
       <c r="D60">
         <v>37</v>
@@ -4841,7 +4841,7 @@
         <v>20</v>
       </c>
       <c r="C61">
-        <v>49</v>
+        <v>735</v>
       </c>
       <c r="D61">
         <v>39</v>
@@ -4861,7 +4861,7 @@
         <v>21</v>
       </c>
       <c r="C62">
-        <v>50</v>
+        <v>750</v>
       </c>
       <c r="D62">
         <v>41</v>
@@ -4881,7 +4881,7 @@
         <v>22</v>
       </c>
       <c r="C63">
-        <v>51</v>
+        <v>765</v>
       </c>
       <c r="D63">
         <v>43</v>
@@ -4901,7 +4901,7 @@
         <v>23</v>
       </c>
       <c r="C64">
-        <v>52</v>
+        <v>780</v>
       </c>
       <c r="D64">
         <v>45</v>
@@ -4921,7 +4921,7 @@
         <v>24</v>
       </c>
       <c r="C65">
-        <v>53</v>
+        <v>795</v>
       </c>
       <c r="D65">
         <v>47</v>
@@ -4941,7 +4941,7 @@
         <v>25</v>
       </c>
       <c r="C66">
-        <v>54</v>
+        <v>810</v>
       </c>
       <c r="D66">
         <v>49</v>
@@ -4961,7 +4961,7 @@
         <v>26</v>
       </c>
       <c r="C67">
-        <v>55</v>
+        <v>825</v>
       </c>
       <c r="D67">
         <v>51</v>
@@ -4981,7 +4981,7 @@
         <v>27</v>
       </c>
       <c r="C68">
-        <v>56</v>
+        <v>840</v>
       </c>
       <c r="D68">
         <v>53</v>
@@ -5001,7 +5001,7 @@
         <v>28</v>
       </c>
       <c r="C69">
-        <v>57</v>
+        <v>855</v>
       </c>
       <c r="D69">
         <v>55</v>
@@ -5021,7 +5021,7 @@
         <v>29</v>
       </c>
       <c r="C70">
-        <v>58</v>
+        <v>870</v>
       </c>
       <c r="D70">
         <v>57</v>
@@ -5041,7 +5041,7 @@
         <v>30</v>
       </c>
       <c r="C71">
-        <v>59</v>
+        <v>885</v>
       </c>
       <c r="D71">
         <v>59</v>
@@ -5061,7 +5061,7 @@
         <v>31</v>
       </c>
       <c r="C72">
-        <v>60</v>
+        <v>900</v>
       </c>
       <c r="D72">
         <v>61</v>
@@ -5081,7 +5081,7 @@
         <v>32</v>
       </c>
       <c r="C73">
-        <v>61</v>
+        <v>915</v>
       </c>
       <c r="D73">
         <v>63</v>
@@ -5101,7 +5101,7 @@
         <v>33</v>
       </c>
       <c r="C74">
-        <v>62</v>
+        <v>930</v>
       </c>
       <c r="D74">
         <v>65</v>
@@ -5121,7 +5121,7 @@
         <v>34</v>
       </c>
       <c r="C75">
-        <v>63</v>
+        <v>945</v>
       </c>
       <c r="D75">
         <v>67</v>
@@ -5141,7 +5141,7 @@
         <v>35</v>
       </c>
       <c r="C76">
-        <v>64</v>
+        <v>960</v>
       </c>
       <c r="D76">
         <v>69</v>
@@ -5161,7 +5161,7 @@
         <v>36</v>
       </c>
       <c r="C77">
-        <v>65</v>
+        <v>975</v>
       </c>
       <c r="D77">
         <v>71</v>
@@ -5181,7 +5181,7 @@
         <v>37</v>
       </c>
       <c r="C78">
-        <v>66</v>
+        <v>990</v>
       </c>
       <c r="D78">
         <v>73</v>
@@ -5201,7 +5201,7 @@
         <v>38</v>
       </c>
       <c r="C79">
-        <v>67</v>
+        <v>1005</v>
       </c>
       <c r="D79">
         <v>75</v>
@@ -5221,7 +5221,7 @@
         <v>39</v>
       </c>
       <c r="C80">
-        <v>68</v>
+        <v>1020</v>
       </c>
       <c r="D80">
         <v>77</v>
@@ -5241,7 +5241,7 @@
         <v>40</v>
       </c>
       <c r="C81">
-        <v>69</v>
+        <v>1035</v>
       </c>
       <c r="D81">
         <v>79</v>
@@ -5261,7 +5261,7 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -5281,7 +5281,7 @@
         <v>2</v>
       </c>
       <c r="C83">
-        <v>101</v>
+        <v>1515</v>
       </c>
       <c r="D83">
         <v>3</v>
@@ -5301,7 +5301,7 @@
         <v>3</v>
       </c>
       <c r="C84">
-        <v>102</v>
+        <v>1530</v>
       </c>
       <c r="D84">
         <v>5</v>
@@ -5321,7 +5321,7 @@
         <v>4</v>
       </c>
       <c r="C85">
-        <v>103</v>
+        <v>1545</v>
       </c>
       <c r="D85">
         <v>7</v>
@@ -5341,7 +5341,7 @@
         <v>5</v>
       </c>
       <c r="C86">
-        <v>104</v>
+        <v>1560</v>
       </c>
       <c r="D86">
         <v>9</v>
@@ -5361,7 +5361,7 @@
         <v>6</v>
       </c>
       <c r="C87">
-        <v>105</v>
+        <v>1575</v>
       </c>
       <c r="D87">
         <v>11</v>
@@ -5381,7 +5381,7 @@
         <v>7</v>
       </c>
       <c r="C88">
-        <v>106</v>
+        <v>1590</v>
       </c>
       <c r="D88">
         <v>13</v>
@@ -5401,7 +5401,7 @@
         <v>8</v>
       </c>
       <c r="C89">
-        <v>107</v>
+        <v>1605</v>
       </c>
       <c r="D89">
         <v>15</v>
@@ -5421,7 +5421,7 @@
         <v>9</v>
       </c>
       <c r="C90">
-        <v>108</v>
+        <v>1620</v>
       </c>
       <c r="D90">
         <v>17</v>
@@ -5441,7 +5441,7 @@
         <v>10</v>
       </c>
       <c r="C91">
-        <v>109</v>
+        <v>1635</v>
       </c>
       <c r="D91">
         <v>19</v>
@@ -5461,7 +5461,7 @@
         <v>11</v>
       </c>
       <c r="C92">
-        <v>110</v>
+        <v>1650</v>
       </c>
       <c r="D92">
         <v>21</v>
@@ -5481,7 +5481,7 @@
         <v>12</v>
       </c>
       <c r="C93">
-        <v>111</v>
+        <v>1665</v>
       </c>
       <c r="D93">
         <v>23</v>
@@ -5501,7 +5501,7 @@
         <v>13</v>
       </c>
       <c r="C94">
-        <v>112</v>
+        <v>1680</v>
       </c>
       <c r="D94">
         <v>25</v>
@@ -5521,7 +5521,7 @@
         <v>14</v>
       </c>
       <c r="C95">
-        <v>113</v>
+        <v>1695</v>
       </c>
       <c r="D95">
         <v>27</v>
@@ -5541,7 +5541,7 @@
         <v>15</v>
       </c>
       <c r="C96">
-        <v>114</v>
+        <v>1710</v>
       </c>
       <c r="D96">
         <v>29</v>
@@ -5561,7 +5561,7 @@
         <v>16</v>
       </c>
       <c r="C97">
-        <v>115</v>
+        <v>1725</v>
       </c>
       <c r="D97">
         <v>31</v>
@@ -5581,7 +5581,7 @@
         <v>17</v>
       </c>
       <c r="C98">
-        <v>116</v>
+        <v>1740</v>
       </c>
       <c r="D98">
         <v>33</v>
@@ -5601,7 +5601,7 @@
         <v>18</v>
       </c>
       <c r="C99">
-        <v>117</v>
+        <v>1755</v>
       </c>
       <c r="D99">
         <v>35</v>
@@ -5621,7 +5621,7 @@
         <v>19</v>
       </c>
       <c r="C100">
-        <v>118</v>
+        <v>1770</v>
       </c>
       <c r="D100">
         <v>37</v>
@@ -5641,7 +5641,7 @@
         <v>20</v>
       </c>
       <c r="C101">
-        <v>119</v>
+        <v>1785</v>
       </c>
       <c r="D101">
         <v>39</v>
@@ -5661,7 +5661,7 @@
         <v>21</v>
       </c>
       <c r="C102">
-        <v>120</v>
+        <v>1800</v>
       </c>
       <c r="D102">
         <v>41</v>
@@ -5681,7 +5681,7 @@
         <v>22</v>
       </c>
       <c r="C103">
-        <v>121</v>
+        <v>1815</v>
       </c>
       <c r="D103">
         <v>43</v>
@@ -5701,7 +5701,7 @@
         <v>23</v>
       </c>
       <c r="C104">
-        <v>122</v>
+        <v>1830</v>
       </c>
       <c r="D104">
         <v>45</v>
@@ -5721,7 +5721,7 @@
         <v>24</v>
       </c>
       <c r="C105">
-        <v>123</v>
+        <v>1845</v>
       </c>
       <c r="D105">
         <v>47</v>
@@ -5741,7 +5741,7 @@
         <v>25</v>
       </c>
       <c r="C106">
-        <v>124</v>
+        <v>1860</v>
       </c>
       <c r="D106">
         <v>49</v>
@@ -5761,7 +5761,7 @@
         <v>26</v>
       </c>
       <c r="C107">
-        <v>125</v>
+        <v>1875</v>
       </c>
       <c r="D107">
         <v>51</v>
@@ -5781,7 +5781,7 @@
         <v>27</v>
       </c>
       <c r="C108">
-        <v>126</v>
+        <v>1890</v>
       </c>
       <c r="D108">
         <v>53</v>
@@ -5801,7 +5801,7 @@
         <v>28</v>
       </c>
       <c r="C109">
-        <v>127</v>
+        <v>1905</v>
       </c>
       <c r="D109">
         <v>55</v>
@@ -5821,7 +5821,7 @@
         <v>29</v>
       </c>
       <c r="C110">
-        <v>128</v>
+        <v>1920</v>
       </c>
       <c r="D110">
         <v>57</v>
@@ -5841,7 +5841,7 @@
         <v>30</v>
       </c>
       <c r="C111">
-        <v>129</v>
+        <v>1935</v>
       </c>
       <c r="D111">
         <v>59</v>
@@ -5861,7 +5861,7 @@
         <v>31</v>
       </c>
       <c r="C112">
-        <v>130</v>
+        <v>1950</v>
       </c>
       <c r="D112">
         <v>61</v>
@@ -5881,7 +5881,7 @@
         <v>32</v>
       </c>
       <c r="C113">
-        <v>131</v>
+        <v>1965</v>
       </c>
       <c r="D113">
         <v>63</v>
@@ -5901,7 +5901,7 @@
         <v>33</v>
       </c>
       <c r="C114">
-        <v>132</v>
+        <v>1980</v>
       </c>
       <c r="D114">
         <v>65</v>
@@ -5921,7 +5921,7 @@
         <v>34</v>
       </c>
       <c r="C115">
-        <v>133</v>
+        <v>1995</v>
       </c>
       <c r="D115">
         <v>67</v>
@@ -5941,7 +5941,7 @@
         <v>35</v>
       </c>
       <c r="C116">
-        <v>134</v>
+        <v>2010</v>
       </c>
       <c r="D116">
         <v>69</v>
@@ -5961,7 +5961,7 @@
         <v>36</v>
       </c>
       <c r="C117">
-        <v>135</v>
+        <v>2025</v>
       </c>
       <c r="D117">
         <v>71</v>
@@ -5981,7 +5981,7 @@
         <v>37</v>
       </c>
       <c r="C118">
-        <v>136</v>
+        <v>2040</v>
       </c>
       <c r="D118">
         <v>73</v>
@@ -6001,7 +6001,7 @@
         <v>38</v>
       </c>
       <c r="C119">
-        <v>137</v>
+        <v>2055</v>
       </c>
       <c r="D119">
         <v>75</v>
@@ -6021,7 +6021,7 @@
         <v>39</v>
       </c>
       <c r="C120">
-        <v>138</v>
+        <v>2070</v>
       </c>
       <c r="D120">
         <v>77</v>
@@ -6041,7 +6041,7 @@
         <v>40</v>
       </c>
       <c r="C121">
-        <v>139</v>
+        <v>2085</v>
       </c>
       <c r="D121">
         <v>79</v>

--- a/Excel/Actor.xlsx
+++ b/Excel/Actor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F796CA5-7689-4E94-BA3B-61375B21C651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAE5C42-D795-46D6-9226-90B6526349A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
   </bookViews>
   <sheets>
     <sheet name="ActorTable" sheetId="2" r:id="rId1"/>
@@ -3661,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -3701,7 +3701,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -3721,7 +3721,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>195</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -3741,7 +3741,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="D6">
         <v>9</v>
@@ -3761,7 +3761,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>11</v>
@@ -3781,7 +3781,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>240</v>
+        <v>105</v>
       </c>
       <c r="D8">
         <v>13</v>
@@ -3801,7 +3801,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>255</v>
+        <v>120</v>
       </c>
       <c r="D9">
         <v>15</v>
@@ -3821,7 +3821,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="D10">
         <v>17</v>
@@ -3841,7 +3841,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>285</v>
+        <v>150</v>
       </c>
       <c r="D11">
         <v>19</v>
@@ -3861,7 +3861,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>300</v>
+        <v>165</v>
       </c>
       <c r="D12">
         <v>21</v>
@@ -3881,7 +3881,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>315</v>
+        <v>180</v>
       </c>
       <c r="D13">
         <v>23</v>
@@ -3901,7 +3901,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>330</v>
+        <v>195</v>
       </c>
       <c r="D14">
         <v>25</v>
@@ -3921,7 +3921,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>345</v>
+        <v>210</v>
       </c>
       <c r="D15">
         <v>27</v>
@@ -3941,7 +3941,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>360</v>
+        <v>225</v>
       </c>
       <c r="D16">
         <v>29</v>
@@ -3961,7 +3961,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>375</v>
+        <v>240</v>
       </c>
       <c r="D17">
         <v>31</v>
@@ -3981,7 +3981,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>390</v>
+        <v>255</v>
       </c>
       <c r="D18">
         <v>33</v>
@@ -4001,7 +4001,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>405</v>
+        <v>270</v>
       </c>
       <c r="D19">
         <v>35</v>
@@ -4021,7 +4021,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>420</v>
+        <v>285</v>
       </c>
       <c r="D20">
         <v>37</v>
@@ -4041,7 +4041,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>435</v>
+        <v>300</v>
       </c>
       <c r="D21">
         <v>39</v>
@@ -4061,7 +4061,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>450</v>
+        <v>315</v>
       </c>
       <c r="D22">
         <v>41</v>
@@ -4081,7 +4081,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>465</v>
+        <v>330</v>
       </c>
       <c r="D23">
         <v>43</v>
@@ -4101,7 +4101,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>480</v>
+        <v>345</v>
       </c>
       <c r="D24">
         <v>45</v>
@@ -4121,7 +4121,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>495</v>
+        <v>360</v>
       </c>
       <c r="D25">
         <v>47</v>
@@ -4141,7 +4141,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>510</v>
+        <v>375</v>
       </c>
       <c r="D26">
         <v>49</v>
@@ -4161,7 +4161,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>525</v>
+        <v>390</v>
       </c>
       <c r="D27">
         <v>51</v>
@@ -4181,7 +4181,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>540</v>
+        <v>405</v>
       </c>
       <c r="D28">
         <v>53</v>
@@ -4201,7 +4201,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>555</v>
+        <v>420</v>
       </c>
       <c r="D29">
         <v>55</v>
@@ -4221,7 +4221,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>570</v>
+        <v>435</v>
       </c>
       <c r="D30">
         <v>57</v>
@@ -4241,7 +4241,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>585</v>
+        <v>450</v>
       </c>
       <c r="D31">
         <v>59</v>
@@ -4261,7 +4261,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>600</v>
+        <v>465</v>
       </c>
       <c r="D32">
         <v>61</v>
@@ -4281,7 +4281,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>615</v>
+        <v>480</v>
       </c>
       <c r="D33">
         <v>63</v>
@@ -4301,7 +4301,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>630</v>
+        <v>495</v>
       </c>
       <c r="D34">
         <v>65</v>
@@ -4321,7 +4321,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>645</v>
+        <v>510</v>
       </c>
       <c r="D35">
         <v>67</v>
@@ -4341,7 +4341,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>660</v>
+        <v>525</v>
       </c>
       <c r="D36">
         <v>69</v>
@@ -4361,7 +4361,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>675</v>
+        <v>540</v>
       </c>
       <c r="D37">
         <v>71</v>
@@ -4381,7 +4381,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>690</v>
+        <v>555</v>
       </c>
       <c r="D38">
         <v>73</v>
@@ -4401,7 +4401,7 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>705</v>
+        <v>570</v>
       </c>
       <c r="D39">
         <v>75</v>
@@ -4421,7 +4421,7 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>720</v>
+        <v>585</v>
       </c>
       <c r="D40">
         <v>77</v>
@@ -4441,7 +4441,7 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>735</v>
+        <v>600</v>
       </c>
       <c r="D41">
         <v>79</v>
@@ -4461,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>450</v>
+        <v>40</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -4481,7 +4481,7 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>465</v>
+        <v>80</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -4501,7 +4501,7 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D44">
         <v>5</v>
@@ -4521,7 +4521,7 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>495</v>
+        <v>160</v>
       </c>
       <c r="D45">
         <v>7</v>
@@ -4541,7 +4541,7 @@
         <v>5</v>
       </c>
       <c r="C46">
-        <v>510</v>
+        <v>200</v>
       </c>
       <c r="D46">
         <v>9</v>
@@ -4561,7 +4561,7 @@
         <v>6</v>
       </c>
       <c r="C47">
-        <v>525</v>
+        <v>240</v>
       </c>
       <c r="D47">
         <v>11</v>
@@ -4581,7 +4581,7 @@
         <v>7</v>
       </c>
       <c r="C48">
-        <v>540</v>
+        <v>280</v>
       </c>
       <c r="D48">
         <v>13</v>
@@ -4601,7 +4601,7 @@
         <v>8</v>
       </c>
       <c r="C49">
-        <v>555</v>
+        <v>320</v>
       </c>
       <c r="D49">
         <v>15</v>
@@ -4621,7 +4621,7 @@
         <v>9</v>
       </c>
       <c r="C50">
-        <v>570</v>
+        <v>360</v>
       </c>
       <c r="D50">
         <v>17</v>
@@ -4641,7 +4641,7 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>585</v>
+        <v>400</v>
       </c>
       <c r="D51">
         <v>19</v>
@@ -4661,7 +4661,7 @@
         <v>11</v>
       </c>
       <c r="C52">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="D52">
         <v>21</v>
@@ -4681,7 +4681,7 @@
         <v>12</v>
       </c>
       <c r="C53">
-        <v>615</v>
+        <v>480</v>
       </c>
       <c r="D53">
         <v>23</v>
@@ -4701,7 +4701,7 @@
         <v>13</v>
       </c>
       <c r="C54">
-        <v>630</v>
+        <v>520</v>
       </c>
       <c r="D54">
         <v>25</v>
@@ -4721,7 +4721,7 @@
         <v>14</v>
       </c>
       <c r="C55">
-        <v>645</v>
+        <v>560</v>
       </c>
       <c r="D55">
         <v>27</v>
@@ -4741,7 +4741,7 @@
         <v>15</v>
       </c>
       <c r="C56">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="D56">
         <v>29</v>
@@ -4761,7 +4761,7 @@
         <v>16</v>
       </c>
       <c r="C57">
-        <v>675</v>
+        <v>640</v>
       </c>
       <c r="D57">
         <v>31</v>
@@ -4781,7 +4781,7 @@
         <v>17</v>
       </c>
       <c r="C58">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="D58">
         <v>33</v>
@@ -4801,7 +4801,7 @@
         <v>18</v>
       </c>
       <c r="C59">
-        <v>705</v>
+        <v>720</v>
       </c>
       <c r="D59">
         <v>35</v>
@@ -4821,7 +4821,7 @@
         <v>19</v>
       </c>
       <c r="C60">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="D60">
         <v>37</v>
@@ -4841,7 +4841,7 @@
         <v>20</v>
       </c>
       <c r="C61">
-        <v>735</v>
+        <v>800</v>
       </c>
       <c r="D61">
         <v>39</v>
@@ -4861,7 +4861,7 @@
         <v>21</v>
       </c>
       <c r="C62">
-        <v>750</v>
+        <v>840</v>
       </c>
       <c r="D62">
         <v>41</v>
@@ -4881,7 +4881,7 @@
         <v>22</v>
       </c>
       <c r="C63">
-        <v>765</v>
+        <v>880</v>
       </c>
       <c r="D63">
         <v>43</v>
@@ -4901,7 +4901,7 @@
         <v>23</v>
       </c>
       <c r="C64">
-        <v>780</v>
+        <v>920</v>
       </c>
       <c r="D64">
         <v>45</v>
@@ -4921,7 +4921,7 @@
         <v>24</v>
       </c>
       <c r="C65">
-        <v>795</v>
+        <v>960</v>
       </c>
       <c r="D65">
         <v>47</v>
@@ -4941,7 +4941,7 @@
         <v>25</v>
       </c>
       <c r="C66">
-        <v>810</v>
+        <v>1000</v>
       </c>
       <c r="D66">
         <v>49</v>
@@ -4961,7 +4961,7 @@
         <v>26</v>
       </c>
       <c r="C67">
-        <v>825</v>
+        <v>1040</v>
       </c>
       <c r="D67">
         <v>51</v>
@@ -4981,7 +4981,7 @@
         <v>27</v>
       </c>
       <c r="C68">
-        <v>840</v>
+        <v>1080</v>
       </c>
       <c r="D68">
         <v>53</v>
@@ -5001,7 +5001,7 @@
         <v>28</v>
       </c>
       <c r="C69">
-        <v>855</v>
+        <v>1120</v>
       </c>
       <c r="D69">
         <v>55</v>
@@ -5021,7 +5021,7 @@
         <v>29</v>
       </c>
       <c r="C70">
-        <v>870</v>
+        <v>1160</v>
       </c>
       <c r="D70">
         <v>57</v>
@@ -5041,7 +5041,7 @@
         <v>30</v>
       </c>
       <c r="C71">
-        <v>885</v>
+        <v>1200</v>
       </c>
       <c r="D71">
         <v>59</v>
@@ -5061,7 +5061,7 @@
         <v>31</v>
       </c>
       <c r="C72">
-        <v>900</v>
+        <v>1240</v>
       </c>
       <c r="D72">
         <v>61</v>
@@ -5081,7 +5081,7 @@
         <v>32</v>
       </c>
       <c r="C73">
-        <v>915</v>
+        <v>1280</v>
       </c>
       <c r="D73">
         <v>63</v>
@@ -5101,7 +5101,7 @@
         <v>33</v>
       </c>
       <c r="C74">
-        <v>930</v>
+        <v>1320</v>
       </c>
       <c r="D74">
         <v>65</v>
@@ -5121,7 +5121,7 @@
         <v>34</v>
       </c>
       <c r="C75">
-        <v>945</v>
+        <v>1360</v>
       </c>
       <c r="D75">
         <v>67</v>
@@ -5141,7 +5141,7 @@
         <v>35</v>
       </c>
       <c r="C76">
-        <v>960</v>
+        <v>1400</v>
       </c>
       <c r="D76">
         <v>69</v>
@@ -5161,7 +5161,7 @@
         <v>36</v>
       </c>
       <c r="C77">
-        <v>975</v>
+        <v>1440</v>
       </c>
       <c r="D77">
         <v>71</v>
@@ -5181,7 +5181,7 @@
         <v>37</v>
       </c>
       <c r="C78">
-        <v>990</v>
+        <v>1480</v>
       </c>
       <c r="D78">
         <v>73</v>
@@ -5201,7 +5201,7 @@
         <v>38</v>
       </c>
       <c r="C79">
-        <v>1005</v>
+        <v>1520</v>
       </c>
       <c r="D79">
         <v>75</v>
@@ -5221,7 +5221,7 @@
         <v>39</v>
       </c>
       <c r="C80">
-        <v>1020</v>
+        <v>1560</v>
       </c>
       <c r="D80">
         <v>77</v>
@@ -5241,7 +5241,7 @@
         <v>40</v>
       </c>
       <c r="C81">
-        <v>1035</v>
+        <v>1600</v>
       </c>
       <c r="D81">
         <v>79</v>
@@ -5261,7 +5261,7 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>1500</v>
+        <v>95</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -5281,7 +5281,7 @@
         <v>2</v>
       </c>
       <c r="C83">
-        <v>1515</v>
+        <v>190</v>
       </c>
       <c r="D83">
         <v>3</v>
@@ -5301,7 +5301,7 @@
         <v>3</v>
       </c>
       <c r="C84">
-        <v>1530</v>
+        <v>285</v>
       </c>
       <c r="D84">
         <v>5</v>
@@ -5321,7 +5321,7 @@
         <v>4</v>
       </c>
       <c r="C85">
-        <v>1545</v>
+        <v>380</v>
       </c>
       <c r="D85">
         <v>7</v>
@@ -5341,7 +5341,7 @@
         <v>5</v>
       </c>
       <c r="C86">
-        <v>1560</v>
+        <v>475</v>
       </c>
       <c r="D86">
         <v>9</v>
@@ -5361,7 +5361,7 @@
         <v>6</v>
       </c>
       <c r="C87">
-        <v>1575</v>
+        <v>570</v>
       </c>
       <c r="D87">
         <v>11</v>
@@ -5381,7 +5381,7 @@
         <v>7</v>
       </c>
       <c r="C88">
-        <v>1590</v>
+        <v>665</v>
       </c>
       <c r="D88">
         <v>13</v>
@@ -5401,7 +5401,7 @@
         <v>8</v>
       </c>
       <c r="C89">
-        <v>1605</v>
+        <v>760</v>
       </c>
       <c r="D89">
         <v>15</v>
@@ -5421,7 +5421,7 @@
         <v>9</v>
       </c>
       <c r="C90">
-        <v>1620</v>
+        <v>855</v>
       </c>
       <c r="D90">
         <v>17</v>
@@ -5441,7 +5441,7 @@
         <v>10</v>
       </c>
       <c r="C91">
-        <v>1635</v>
+        <v>950</v>
       </c>
       <c r="D91">
         <v>19</v>
@@ -5461,7 +5461,7 @@
         <v>11</v>
       </c>
       <c r="C92">
-        <v>1650</v>
+        <v>1045</v>
       </c>
       <c r="D92">
         <v>21</v>
@@ -5481,7 +5481,7 @@
         <v>12</v>
       </c>
       <c r="C93">
-        <v>1665</v>
+        <v>1140</v>
       </c>
       <c r="D93">
         <v>23</v>
@@ -5501,7 +5501,7 @@
         <v>13</v>
       </c>
       <c r="C94">
-        <v>1680</v>
+        <v>1235</v>
       </c>
       <c r="D94">
         <v>25</v>
@@ -5521,7 +5521,7 @@
         <v>14</v>
       </c>
       <c r="C95">
-        <v>1695</v>
+        <v>1330</v>
       </c>
       <c r="D95">
         <v>27</v>
@@ -5541,7 +5541,7 @@
         <v>15</v>
       </c>
       <c r="C96">
-        <v>1710</v>
+        <v>1425</v>
       </c>
       <c r="D96">
         <v>29</v>
@@ -5561,7 +5561,7 @@
         <v>16</v>
       </c>
       <c r="C97">
-        <v>1725</v>
+        <v>1520</v>
       </c>
       <c r="D97">
         <v>31</v>
@@ -5581,7 +5581,7 @@
         <v>17</v>
       </c>
       <c r="C98">
-        <v>1740</v>
+        <v>1615</v>
       </c>
       <c r="D98">
         <v>33</v>
@@ -5601,7 +5601,7 @@
         <v>18</v>
       </c>
       <c r="C99">
-        <v>1755</v>
+        <v>1710</v>
       </c>
       <c r="D99">
         <v>35</v>
@@ -5621,7 +5621,7 @@
         <v>19</v>
       </c>
       <c r="C100">
-        <v>1770</v>
+        <v>1805</v>
       </c>
       <c r="D100">
         <v>37</v>
@@ -5641,7 +5641,7 @@
         <v>20</v>
       </c>
       <c r="C101">
-        <v>1785</v>
+        <v>1900</v>
       </c>
       <c r="D101">
         <v>39</v>
@@ -5661,7 +5661,7 @@
         <v>21</v>
       </c>
       <c r="C102">
-        <v>1800</v>
+        <v>1995</v>
       </c>
       <c r="D102">
         <v>41</v>
@@ -5681,7 +5681,7 @@
         <v>22</v>
       </c>
       <c r="C103">
-        <v>1815</v>
+        <v>2090</v>
       </c>
       <c r="D103">
         <v>43</v>
@@ -5701,7 +5701,7 @@
         <v>23</v>
       </c>
       <c r="C104">
-        <v>1830</v>
+        <v>2185</v>
       </c>
       <c r="D104">
         <v>45</v>
@@ -5721,7 +5721,7 @@
         <v>24</v>
       </c>
       <c r="C105">
-        <v>1845</v>
+        <v>2280</v>
       </c>
       <c r="D105">
         <v>47</v>
@@ -5741,7 +5741,7 @@
         <v>25</v>
       </c>
       <c r="C106">
-        <v>1860</v>
+        <v>2375</v>
       </c>
       <c r="D106">
         <v>49</v>
@@ -5761,7 +5761,7 @@
         <v>26</v>
       </c>
       <c r="C107">
-        <v>1875</v>
+        <v>2470</v>
       </c>
       <c r="D107">
         <v>51</v>
@@ -5781,7 +5781,7 @@
         <v>27</v>
       </c>
       <c r="C108">
-        <v>1890</v>
+        <v>2565</v>
       </c>
       <c r="D108">
         <v>53</v>
@@ -5801,7 +5801,7 @@
         <v>28</v>
       </c>
       <c r="C109">
-        <v>1905</v>
+        <v>2660</v>
       </c>
       <c r="D109">
         <v>55</v>
@@ -5821,7 +5821,7 @@
         <v>29</v>
       </c>
       <c r="C110">
-        <v>1920</v>
+        <v>2755</v>
       </c>
       <c r="D110">
         <v>57</v>
@@ -5841,7 +5841,7 @@
         <v>30</v>
       </c>
       <c r="C111">
-        <v>1935</v>
+        <v>2850</v>
       </c>
       <c r="D111">
         <v>59</v>
@@ -5861,7 +5861,7 @@
         <v>31</v>
       </c>
       <c r="C112">
-        <v>1950</v>
+        <v>2945</v>
       </c>
       <c r="D112">
         <v>61</v>
@@ -5881,7 +5881,7 @@
         <v>32</v>
       </c>
       <c r="C113">
-        <v>1965</v>
+        <v>3040</v>
       </c>
       <c r="D113">
         <v>63</v>
@@ -5901,7 +5901,7 @@
         <v>33</v>
       </c>
       <c r="C114">
-        <v>1980</v>
+        <v>3135</v>
       </c>
       <c r="D114">
         <v>65</v>
@@ -5921,7 +5921,7 @@
         <v>34</v>
       </c>
       <c r="C115">
-        <v>1995</v>
+        <v>3230</v>
       </c>
       <c r="D115">
         <v>67</v>
@@ -5941,7 +5941,7 @@
         <v>35</v>
       </c>
       <c r="C116">
-        <v>2010</v>
+        <v>3325</v>
       </c>
       <c r="D116">
         <v>69</v>
@@ -5961,7 +5961,7 @@
         <v>36</v>
       </c>
       <c r="C117">
-        <v>2025</v>
+        <v>3420</v>
       </c>
       <c r="D117">
         <v>71</v>
@@ -5981,7 +5981,7 @@
         <v>37</v>
       </c>
       <c r="C118">
-        <v>2040</v>
+        <v>3515</v>
       </c>
       <c r="D118">
         <v>73</v>
@@ -6001,7 +6001,7 @@
         <v>38</v>
       </c>
       <c r="C119">
-        <v>2055</v>
+        <v>3610</v>
       </c>
       <c r="D119">
         <v>75</v>
@@ -6021,7 +6021,7 @@
         <v>39</v>
       </c>
       <c r="C120">
-        <v>2070</v>
+        <v>3705</v>
       </c>
       <c r="D120">
         <v>77</v>
@@ -6041,7 +6041,7 @@
         <v>40</v>
       </c>
       <c r="C121">
-        <v>2085</v>
+        <v>3800</v>
       </c>
       <c r="D121">
         <v>79</v>

--- a/Excel/Actor.xlsx
+++ b/Excel/Actor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAE5C42-D795-46D6-9226-90B6526349A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CB6A5C-BB9D-4B70-8776-5938282110CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
   </bookViews>
   <sheets>
     <sheet name="ActorTable" sheetId="2" r:id="rId1"/>
@@ -474,18 +474,6 @@
     <t>CharLowName_Yuki</t>
   </si>
   <si>
-    <t>Portrait_Ganfaul</t>
-  </si>
-  <si>
-    <t>CharDesc_Ganfaul</t>
-  </si>
-  <si>
-    <t>CharName_Ganfaul</t>
-  </si>
-  <si>
-    <t>CharLowName_Ganfaul</t>
-  </si>
-  <si>
     <t>Actor1141</t>
   </si>
   <si>
@@ -704,6 +692,18 @@
   </si>
   <si>
     <t>Actor0037</t>
+  </si>
+  <si>
+    <t>CharLowName_Tenebro</t>
+  </si>
+  <si>
+    <t>CharName_Tenebro</t>
+  </si>
+  <si>
+    <t>CharDesc_Tenebro</t>
+  </si>
+  <si>
+    <t>Portrait_Tenebro</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1069,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2C0BC1-FCA1-449A-8610-F80C265CA071}">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1080,81 +1082,81 @@
   <sheetData>
     <row r="1" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="R1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="S1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="T1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="U1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="V1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="W1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="X1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
         <v>144</v>
@@ -1222,7 +1224,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
         <v>139</v>
@@ -1290,7 +1292,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B4" t="s">
         <v>134</v>
@@ -1358,7 +1360,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
         <v>129</v>
@@ -1426,7 +1428,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
         <v>124</v>
@@ -1494,7 +1496,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
         <v>119</v>
@@ -1565,7 +1567,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s">
         <v>114</v>
@@ -1636,7 +1638,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s">
         <v>109</v>
@@ -1707,7 +1709,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
         <v>104</v>
@@ -1778,7 +1780,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B11" t="s">
         <v>99</v>
@@ -1849,7 +1851,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B12" t="s">
         <v>94</v>
@@ -1917,7 +1919,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s">
         <v>89</v>
@@ -1988,7 +1990,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -2056,7 +2058,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s">
         <v>79</v>
@@ -2124,7 +2126,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B16" t="s">
         <v>74</v>
@@ -2195,7 +2197,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s">
         <v>69</v>
@@ -2263,7 +2265,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -2334,7 +2336,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B19" t="s">
         <v>59</v>
@@ -2405,7 +2407,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s">
         <v>54</v>
@@ -2476,7 +2478,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s">
         <v>49</v>
@@ -2547,7 +2549,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s">
         <v>44</v>
@@ -2615,7 +2617,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s">
         <v>39</v>
@@ -2683,7 +2685,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
@@ -2754,7 +2756,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -2822,7 +2824,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -2893,7 +2895,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
@@ -2964,7 +2966,7 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -3032,7 +3034,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
@@ -3103,7 +3105,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
@@ -3171,16 +3173,16 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>218</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>219</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>220</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -3210,10 +3212,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O31" t="s">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="P31">
         <v>0.05</v>
@@ -3262,24 +3264,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" t="s">
         <v>205</v>
       </c>
-      <c r="B1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C1" t="s">
-        <v>209</v>
-      </c>
       <c r="D1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -3296,7 +3298,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3307,7 +3309,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3321,7 +3323,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -3335,7 +3337,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -3349,7 +3351,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3363,7 +3365,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B8" t="b">
         <v>0</v>
@@ -3377,7 +3379,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3391,7 +3393,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3402,7 +3404,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3413,7 +3415,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3424,7 +3426,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -3438,7 +3440,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -3452,7 +3454,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -3463,7 +3465,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -3477,7 +3479,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -3491,7 +3493,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -3505,7 +3507,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -3519,7 +3521,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -3530,7 +3532,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -3541,7 +3543,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -3555,7 +3557,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -3569,7 +3571,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
@@ -3580,7 +3582,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B25" t="b">
         <v>1</v>
@@ -3594,7 +3596,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3608,7 +3610,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B27" t="b">
         <v>1</v>
@@ -3627,7 +3629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A219A9F8-1530-48C4-A2DD-8656FA2CD589}">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3635,22 +3637,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" t="s">
         <v>215</v>
-      </c>
-      <c r="C1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -6069,22 +6071,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">

--- a/Excel/Actor.xlsx
+++ b/Excel/Actor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CB6A5C-BB9D-4B70-8776-5938282110CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A25703-D018-4560-BE5B-7AC73CA92490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
   </bookViews>
   <sheets>
     <sheet name="ActorTable" sheetId="2" r:id="rId1"/>
@@ -1069,7 +1069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2C0BC1-FCA1-449A-8610-F80C265CA071}">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6065,7 +6065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B90BAD2-7FC3-4CAF-BDC4-78BBB07EEBB6}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -6126,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>300</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6146,7 +6146,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>800</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6166,7 +6166,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>1500</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6186,7 +6186,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>2200</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6206,7 +6206,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>2900</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6246,7 +6246,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>300</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6266,7 +6266,7 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <v>800</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -6286,7 +6286,7 @@
         <v>3</v>
       </c>
       <c r="F11">
-        <v>1500</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6306,7 +6306,7 @@
         <v>4</v>
       </c>
       <c r="F12">
-        <v>2200</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6326,7 +6326,7 @@
         <v>5</v>
       </c>
       <c r="F13">
-        <v>2900</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6366,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>300</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -6386,7 +6386,7 @@
         <v>2</v>
       </c>
       <c r="F16">
-        <v>800</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -6406,7 +6406,7 @@
         <v>3</v>
       </c>
       <c r="F17">
-        <v>1500</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -6426,7 +6426,7 @@
         <v>4</v>
       </c>
       <c r="F18">
-        <v>2200</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -6446,7 +6446,7 @@
         <v>5</v>
       </c>
       <c r="F19">
-        <v>2900</v>
+        <v>290000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Actor.xlsx
+++ b/Excel/Actor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A25703-D018-4560-BE5B-7AC73CA92490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F50DC04-16C4-4E44-9EEE-555B29A46F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
   </bookViews>
   <sheets>
     <sheet name="ActorTable" sheetId="2" r:id="rId1"/>
@@ -1069,9 +1069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2C0BC1-FCA1-449A-8610-F80C265CA071}">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3629,7 +3627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A219A9F8-1530-48C4-A2DD-8656FA2CD589}">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3663,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3683,7 +3681,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -3692,7 +3690,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>300</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -3703,7 +3701,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -3712,7 +3710,7 @@
         <v>8</v>
       </c>
       <c r="F4">
-        <v>800</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -3723,7 +3721,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -3732,7 +3730,7 @@
         <v>15</v>
       </c>
       <c r="F5">
-        <v>1500</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -3743,7 +3741,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D6">
         <v>9</v>
@@ -3752,7 +3750,7 @@
         <v>24</v>
       </c>
       <c r="F6">
-        <v>2200</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -3763,7 +3761,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D7">
         <v>11</v>
@@ -3772,7 +3770,7 @@
         <v>35</v>
       </c>
       <c r="F7">
-        <v>2900</v>
+        <v>125000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -3783,7 +3781,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="D8">
         <v>13</v>
@@ -3792,7 +3790,7 @@
         <v>48</v>
       </c>
       <c r="F8">
-        <v>3600</v>
+        <v>125000</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -3803,7 +3801,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D9">
         <v>15</v>
@@ -3812,7 +3810,7 @@
         <v>63</v>
       </c>
       <c r="F9">
-        <v>4300</v>
+        <v>175000</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -3823,7 +3821,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="D10">
         <v>17</v>
@@ -3832,7 +3830,7 @@
         <v>80</v>
       </c>
       <c r="F10">
-        <v>5000</v>
+        <v>175000</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -3843,7 +3841,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D11">
         <v>19</v>
@@ -3852,7 +3850,7 @@
         <v>99</v>
       </c>
       <c r="F11">
-        <v>5700</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -3863,7 +3861,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="D12">
         <v>21</v>
@@ -3872,7 +3870,7 @@
         <v>120</v>
       </c>
       <c r="F12">
-        <v>6400</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -3883,7 +3881,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="D13">
         <v>23</v>
@@ -3892,7 +3890,7 @@
         <v>143</v>
       </c>
       <c r="F13">
-        <v>7100</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -3903,7 +3901,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="D14">
         <v>25</v>
@@ -3912,7 +3910,7 @@
         <v>168</v>
       </c>
       <c r="F14">
-        <v>7800</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -3923,7 +3921,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D15">
         <v>27</v>
@@ -3932,7 +3930,7 @@
         <v>195</v>
       </c>
       <c r="F15">
-        <v>8500</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -3943,7 +3941,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="D16">
         <v>29</v>
@@ -3952,7 +3950,7 @@
         <v>224</v>
       </c>
       <c r="F16">
-        <v>9200</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -3963,7 +3961,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="D17">
         <v>31</v>
@@ -3972,7 +3970,7 @@
         <v>255</v>
       </c>
       <c r="F17">
-        <v>9900</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -3983,7 +3981,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="D18">
         <v>33</v>
@@ -3992,7 +3990,7 @@
         <v>288</v>
       </c>
       <c r="F18">
-        <v>10600</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -4003,7 +4001,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="D19">
         <v>35</v>
@@ -4012,7 +4010,7 @@
         <v>323</v>
       </c>
       <c r="F19">
-        <v>11300</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -4023,7 +4021,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="D20">
         <v>37</v>
@@ -4032,7 +4030,7 @@
         <v>360</v>
       </c>
       <c r="F20">
-        <v>12000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -4043,7 +4041,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D21">
         <v>39</v>
@@ -4052,7 +4050,7 @@
         <v>399</v>
       </c>
       <c r="F21">
-        <v>12700</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -4063,7 +4061,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>315</v>
+        <v>252</v>
       </c>
       <c r="D22">
         <v>41</v>
@@ -4072,7 +4070,7 @@
         <v>440</v>
       </c>
       <c r="F22">
-        <v>13400</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -4083,7 +4081,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>330</v>
+        <v>264</v>
       </c>
       <c r="D23">
         <v>43</v>
@@ -4092,7 +4090,7 @@
         <v>483</v>
       </c>
       <c r="F23">
-        <v>14100</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -4103,7 +4101,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>345</v>
+        <v>276</v>
       </c>
       <c r="D24">
         <v>45</v>
@@ -4112,7 +4110,7 @@
         <v>528</v>
       </c>
       <c r="F24">
-        <v>14800</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -4123,7 +4121,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>360</v>
+        <v>288</v>
       </c>
       <c r="D25">
         <v>47</v>
@@ -4132,7 +4130,7 @@
         <v>575</v>
       </c>
       <c r="F25">
-        <v>15500</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -4143,7 +4141,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="D26">
         <v>49</v>
@@ -4152,7 +4150,7 @@
         <v>624</v>
       </c>
       <c r="F26">
-        <v>16200</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -4163,7 +4161,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>390</v>
+        <v>312</v>
       </c>
       <c r="D27">
         <v>51</v>
@@ -4172,7 +4170,7 @@
         <v>675</v>
       </c>
       <c r="F27">
-        <v>16900</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -4183,7 +4181,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>405</v>
+        <v>324</v>
       </c>
       <c r="D28">
         <v>53</v>
@@ -4192,7 +4190,7 @@
         <v>728</v>
       </c>
       <c r="F28">
-        <v>17600</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -4203,7 +4201,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>420</v>
+        <v>336</v>
       </c>
       <c r="D29">
         <v>55</v>
@@ -4212,7 +4210,7 @@
         <v>783</v>
       </c>
       <c r="F29">
-        <v>18300</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -4223,7 +4221,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>435</v>
+        <v>348</v>
       </c>
       <c r="D30">
         <v>57</v>
@@ -4232,7 +4230,7 @@
         <v>840</v>
       </c>
       <c r="F30">
-        <v>19000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -4243,7 +4241,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>450</v>
+        <v>360</v>
       </c>
       <c r="D31">
         <v>59</v>
@@ -4252,7 +4250,7 @@
         <v>899</v>
       </c>
       <c r="F31">
-        <v>19700</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -4263,7 +4261,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>465</v>
+        <v>372</v>
       </c>
       <c r="D32">
         <v>61</v>
@@ -4272,7 +4270,7 @@
         <v>960</v>
       </c>
       <c r="F32">
-        <v>20400</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -4283,7 +4281,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>480</v>
+        <v>384</v>
       </c>
       <c r="D33">
         <v>63</v>
@@ -4292,7 +4290,7 @@
         <v>1023</v>
       </c>
       <c r="F33">
-        <v>21100</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -4303,7 +4301,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>495</v>
+        <v>396</v>
       </c>
       <c r="D34">
         <v>65</v>
@@ -4312,7 +4310,7 @@
         <v>1088</v>
       </c>
       <c r="F34">
-        <v>21800</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -4323,7 +4321,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>510</v>
+        <v>408</v>
       </c>
       <c r="D35">
         <v>67</v>
@@ -4332,7 +4330,7 @@
         <v>1155</v>
       </c>
       <c r="F35">
-        <v>22500</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -4343,7 +4341,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>525</v>
+        <v>420</v>
       </c>
       <c r="D36">
         <v>69</v>
@@ -4352,7 +4350,7 @@
         <v>1224</v>
       </c>
       <c r="F36">
-        <v>23200</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -4363,7 +4361,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>540</v>
+        <v>432</v>
       </c>
       <c r="D37">
         <v>71</v>
@@ -4372,7 +4370,7 @@
         <v>1295</v>
       </c>
       <c r="F37">
-        <v>23900</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -4383,7 +4381,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>555</v>
+        <v>444</v>
       </c>
       <c r="D38">
         <v>73</v>
@@ -4392,7 +4390,7 @@
         <v>1368</v>
       </c>
       <c r="F38">
-        <v>24600</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -4403,7 +4401,7 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>570</v>
+        <v>456</v>
       </c>
       <c r="D39">
         <v>75</v>
@@ -4412,7 +4410,7 @@
         <v>1443</v>
       </c>
       <c r="F39">
-        <v>25300</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -4423,7 +4421,7 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>585</v>
+        <v>468</v>
       </c>
       <c r="D40">
         <v>77</v>
@@ -4432,7 +4430,7 @@
         <v>1520</v>
       </c>
       <c r="F40">
-        <v>26000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -4443,7 +4441,7 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="D41">
         <v>79</v>
@@ -4452,7 +4450,7 @@
         <v>1599</v>
       </c>
       <c r="F41">
-        <v>26700</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -4463,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -4483,7 +4481,7 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -4492,7 +4490,7 @@
         <v>3</v>
       </c>
       <c r="F43">
-        <v>300</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -4503,7 +4501,7 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="D44">
         <v>5</v>
@@ -4512,7 +4510,7 @@
         <v>8</v>
       </c>
       <c r="F44">
-        <v>800</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -4523,7 +4521,7 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="D45">
         <v>7</v>
@@ -4532,7 +4530,7 @@
         <v>15</v>
       </c>
       <c r="F45">
-        <v>1500</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -4543,7 +4541,7 @@
         <v>5</v>
       </c>
       <c r="C46">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="D46">
         <v>9</v>
@@ -4552,7 +4550,7 @@
         <v>24</v>
       </c>
       <c r="F46">
-        <v>2200</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -4563,7 +4561,7 @@
         <v>6</v>
       </c>
       <c r="C47">
-        <v>240</v>
+        <v>162</v>
       </c>
       <c r="D47">
         <v>11</v>
@@ -4572,7 +4570,7 @@
         <v>35</v>
       </c>
       <c r="F47">
-        <v>2900</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -4583,7 +4581,7 @@
         <v>7</v>
       </c>
       <c r="C48">
-        <v>280</v>
+        <v>189</v>
       </c>
       <c r="D48">
         <v>13</v>
@@ -4592,7 +4590,7 @@
         <v>48</v>
       </c>
       <c r="F48">
-        <v>3600</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -4603,7 +4601,7 @@
         <v>8</v>
       </c>
       <c r="C49">
-        <v>320</v>
+        <v>216</v>
       </c>
       <c r="D49">
         <v>15</v>
@@ -4612,7 +4610,7 @@
         <v>63</v>
       </c>
       <c r="F49">
-        <v>4300</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -4623,7 +4621,7 @@
         <v>9</v>
       </c>
       <c r="C50">
-        <v>360</v>
+        <v>243</v>
       </c>
       <c r="D50">
         <v>17</v>
@@ -4632,7 +4630,7 @@
         <v>80</v>
       </c>
       <c r="F50">
-        <v>5000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -4643,7 +4641,7 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="D51">
         <v>19</v>
@@ -4652,7 +4650,7 @@
         <v>99</v>
       </c>
       <c r="F51">
-        <v>5700</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -4663,7 +4661,7 @@
         <v>11</v>
       </c>
       <c r="C52">
-        <v>440</v>
+        <v>297</v>
       </c>
       <c r="D52">
         <v>21</v>
@@ -4672,7 +4670,7 @@
         <v>120</v>
       </c>
       <c r="F52">
-        <v>6400</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -4683,7 +4681,7 @@
         <v>12</v>
       </c>
       <c r="C53">
-        <v>480</v>
+        <v>324</v>
       </c>
       <c r="D53">
         <v>23</v>
@@ -4692,7 +4690,7 @@
         <v>143</v>
       </c>
       <c r="F53">
-        <v>7100</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -4703,7 +4701,7 @@
         <v>13</v>
       </c>
       <c r="C54">
-        <v>520</v>
+        <v>351</v>
       </c>
       <c r="D54">
         <v>25</v>
@@ -4712,7 +4710,7 @@
         <v>168</v>
       </c>
       <c r="F54">
-        <v>7800</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -4723,7 +4721,7 @@
         <v>14</v>
       </c>
       <c r="C55">
-        <v>560</v>
+        <v>378</v>
       </c>
       <c r="D55">
         <v>27</v>
@@ -4732,7 +4730,7 @@
         <v>195</v>
       </c>
       <c r="F55">
-        <v>8500</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -4743,7 +4741,7 @@
         <v>15</v>
       </c>
       <c r="C56">
-        <v>600</v>
+        <v>405</v>
       </c>
       <c r="D56">
         <v>29</v>
@@ -4752,7 +4750,7 @@
         <v>224</v>
       </c>
       <c r="F56">
-        <v>9200</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -4763,7 +4761,7 @@
         <v>16</v>
       </c>
       <c r="C57">
-        <v>640</v>
+        <v>432</v>
       </c>
       <c r="D57">
         <v>31</v>
@@ -4772,7 +4770,7 @@
         <v>255</v>
       </c>
       <c r="F57">
-        <v>9900</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -4783,7 +4781,7 @@
         <v>17</v>
       </c>
       <c r="C58">
-        <v>680</v>
+        <v>459</v>
       </c>
       <c r="D58">
         <v>33</v>
@@ -4792,7 +4790,7 @@
         <v>288</v>
       </c>
       <c r="F58">
-        <v>10600</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -4803,7 +4801,7 @@
         <v>18</v>
       </c>
       <c r="C59">
-        <v>720</v>
+        <v>486</v>
       </c>
       <c r="D59">
         <v>35</v>
@@ -4812,7 +4810,7 @@
         <v>323</v>
       </c>
       <c r="F59">
-        <v>11300</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -4823,7 +4821,7 @@
         <v>19</v>
       </c>
       <c r="C60">
-        <v>760</v>
+        <v>513</v>
       </c>
       <c r="D60">
         <v>37</v>
@@ -4832,7 +4830,7 @@
         <v>360</v>
       </c>
       <c r="F60">
-        <v>12000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -4843,7 +4841,7 @@
         <v>20</v>
       </c>
       <c r="C61">
-        <v>800</v>
+        <v>540</v>
       </c>
       <c r="D61">
         <v>39</v>
@@ -4852,7 +4850,7 @@
         <v>399</v>
       </c>
       <c r="F61">
-        <v>12700</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -4863,7 +4861,7 @@
         <v>21</v>
       </c>
       <c r="C62">
-        <v>840</v>
+        <v>567</v>
       </c>
       <c r="D62">
         <v>41</v>
@@ -4872,7 +4870,7 @@
         <v>440</v>
       </c>
       <c r="F62">
-        <v>13400</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -4883,7 +4881,7 @@
         <v>22</v>
       </c>
       <c r="C63">
-        <v>880</v>
+        <v>594</v>
       </c>
       <c r="D63">
         <v>43</v>
@@ -4892,7 +4890,7 @@
         <v>483</v>
       </c>
       <c r="F63">
-        <v>14100</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -4903,7 +4901,7 @@
         <v>23</v>
       </c>
       <c r="C64">
-        <v>920</v>
+        <v>621</v>
       </c>
       <c r="D64">
         <v>45</v>
@@ -4912,7 +4910,7 @@
         <v>528</v>
       </c>
       <c r="F64">
-        <v>14800</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -4923,7 +4921,7 @@
         <v>24</v>
       </c>
       <c r="C65">
-        <v>960</v>
+        <v>648</v>
       </c>
       <c r="D65">
         <v>47</v>
@@ -4932,7 +4930,7 @@
         <v>575</v>
       </c>
       <c r="F65">
-        <v>15500</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -4943,7 +4941,7 @@
         <v>25</v>
       </c>
       <c r="C66">
-        <v>1000</v>
+        <v>675</v>
       </c>
       <c r="D66">
         <v>49</v>
@@ -4952,7 +4950,7 @@
         <v>624</v>
       </c>
       <c r="F66">
-        <v>16200</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -4963,7 +4961,7 @@
         <v>26</v>
       </c>
       <c r="C67">
-        <v>1040</v>
+        <v>702</v>
       </c>
       <c r="D67">
         <v>51</v>
@@ -4972,7 +4970,7 @@
         <v>675</v>
       </c>
       <c r="F67">
-        <v>16900</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -4983,7 +4981,7 @@
         <v>27</v>
       </c>
       <c r="C68">
-        <v>1080</v>
+        <v>729</v>
       </c>
       <c r="D68">
         <v>53</v>
@@ -4992,7 +4990,7 @@
         <v>728</v>
       </c>
       <c r="F68">
-        <v>17600</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -5003,7 +5001,7 @@
         <v>28</v>
       </c>
       <c r="C69">
-        <v>1120</v>
+        <v>756</v>
       </c>
       <c r="D69">
         <v>55</v>
@@ -5012,7 +5010,7 @@
         <v>783</v>
       </c>
       <c r="F69">
-        <v>18300</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -5023,7 +5021,7 @@
         <v>29</v>
       </c>
       <c r="C70">
-        <v>1160</v>
+        <v>783</v>
       </c>
       <c r="D70">
         <v>57</v>
@@ -5032,7 +5030,7 @@
         <v>840</v>
       </c>
       <c r="F70">
-        <v>19000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -5043,7 +5041,7 @@
         <v>30</v>
       </c>
       <c r="C71">
-        <v>1200</v>
+        <v>810</v>
       </c>
       <c r="D71">
         <v>59</v>
@@ -5052,7 +5050,7 @@
         <v>899</v>
       </c>
       <c r="F71">
-        <v>19700</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -5063,7 +5061,7 @@
         <v>31</v>
       </c>
       <c r="C72">
-        <v>1240</v>
+        <v>837</v>
       </c>
       <c r="D72">
         <v>61</v>
@@ -5072,7 +5070,7 @@
         <v>960</v>
       </c>
       <c r="F72">
-        <v>20400</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -5083,7 +5081,7 @@
         <v>32</v>
       </c>
       <c r="C73">
-        <v>1280</v>
+        <v>864</v>
       </c>
       <c r="D73">
         <v>63</v>
@@ -5092,7 +5090,7 @@
         <v>1023</v>
       </c>
       <c r="F73">
-        <v>21100</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -5103,7 +5101,7 @@
         <v>33</v>
       </c>
       <c r="C74">
-        <v>1320</v>
+        <v>891</v>
       </c>
       <c r="D74">
         <v>65</v>
@@ -5112,7 +5110,7 @@
         <v>1088</v>
       </c>
       <c r="F74">
-        <v>21800</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -5123,7 +5121,7 @@
         <v>34</v>
       </c>
       <c r="C75">
-        <v>1360</v>
+        <v>918</v>
       </c>
       <c r="D75">
         <v>67</v>
@@ -5132,7 +5130,7 @@
         <v>1155</v>
       </c>
       <c r="F75">
-        <v>22500</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -5143,7 +5141,7 @@
         <v>35</v>
       </c>
       <c r="C76">
-        <v>1400</v>
+        <v>945</v>
       </c>
       <c r="D76">
         <v>69</v>
@@ -5152,7 +5150,7 @@
         <v>1224</v>
       </c>
       <c r="F76">
-        <v>23200</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -5163,7 +5161,7 @@
         <v>36</v>
       </c>
       <c r="C77">
-        <v>1440</v>
+        <v>972</v>
       </c>
       <c r="D77">
         <v>71</v>
@@ -5172,7 +5170,7 @@
         <v>1295</v>
       </c>
       <c r="F77">
-        <v>23900</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -5183,7 +5181,7 @@
         <v>37</v>
       </c>
       <c r="C78">
-        <v>1480</v>
+        <v>999</v>
       </c>
       <c r="D78">
         <v>73</v>
@@ -5192,7 +5190,7 @@
         <v>1368</v>
       </c>
       <c r="F78">
-        <v>24600</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -5203,7 +5201,7 @@
         <v>38</v>
       </c>
       <c r="C79">
-        <v>1520</v>
+        <v>1026</v>
       </c>
       <c r="D79">
         <v>75</v>
@@ -5212,7 +5210,7 @@
         <v>1443</v>
       </c>
       <c r="F79">
-        <v>25300</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -5223,7 +5221,7 @@
         <v>39</v>
       </c>
       <c r="C80">
-        <v>1560</v>
+        <v>1053</v>
       </c>
       <c r="D80">
         <v>77</v>
@@ -5232,7 +5230,7 @@
         <v>1520</v>
       </c>
       <c r="F80">
-        <v>26000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -5243,7 +5241,7 @@
         <v>40</v>
       </c>
       <c r="C81">
-        <v>1600</v>
+        <v>1080</v>
       </c>
       <c r="D81">
         <v>79</v>
@@ -5252,7 +5250,7 @@
         <v>1599</v>
       </c>
       <c r="F81">
-        <v>26700</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -5263,7 +5261,7 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -5283,7 +5281,7 @@
         <v>2</v>
       </c>
       <c r="C83">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="D83">
         <v>3</v>
@@ -5292,7 +5290,7 @@
         <v>3</v>
       </c>
       <c r="F83">
-        <v>300</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -5303,7 +5301,7 @@
         <v>3</v>
       </c>
       <c r="C84">
-        <v>285</v>
+        <v>165</v>
       </c>
       <c r="D84">
         <v>5</v>
@@ -5312,7 +5310,7 @@
         <v>8</v>
       </c>
       <c r="F84">
-        <v>800</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -5323,7 +5321,7 @@
         <v>4</v>
       </c>
       <c r="C85">
-        <v>380</v>
+        <v>220</v>
       </c>
       <c r="D85">
         <v>7</v>
@@ -5332,7 +5330,7 @@
         <v>15</v>
       </c>
       <c r="F85">
-        <v>1500</v>
+        <v>225000</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -5343,7 +5341,7 @@
         <v>5</v>
       </c>
       <c r="C86">
-        <v>475</v>
+        <v>275</v>
       </c>
       <c r="D86">
         <v>9</v>
@@ -5352,7 +5350,7 @@
         <v>24</v>
       </c>
       <c r="F86">
-        <v>2200</v>
+        <v>225000</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -5363,7 +5361,7 @@
         <v>6</v>
       </c>
       <c r="C87">
-        <v>570</v>
+        <v>330</v>
       </c>
       <c r="D87">
         <v>11</v>
@@ -5372,7 +5370,7 @@
         <v>35</v>
       </c>
       <c r="F87">
-        <v>2900</v>
+        <v>375000</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -5383,7 +5381,7 @@
         <v>7</v>
       </c>
       <c r="C88">
-        <v>665</v>
+        <v>385</v>
       </c>
       <c r="D88">
         <v>13</v>
@@ -5392,7 +5390,7 @@
         <v>48</v>
       </c>
       <c r="F88">
-        <v>3600</v>
+        <v>375000</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -5403,7 +5401,7 @@
         <v>8</v>
       </c>
       <c r="C89">
-        <v>760</v>
+        <v>440</v>
       </c>
       <c r="D89">
         <v>15</v>
@@ -5412,7 +5410,7 @@
         <v>63</v>
       </c>
       <c r="F89">
-        <v>4300</v>
+        <v>525000</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -5423,7 +5421,7 @@
         <v>9</v>
       </c>
       <c r="C90">
-        <v>855</v>
+        <v>495</v>
       </c>
       <c r="D90">
         <v>17</v>
@@ -5432,7 +5430,7 @@
         <v>80</v>
       </c>
       <c r="F90">
-        <v>5000</v>
+        <v>525000</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -5443,7 +5441,7 @@
         <v>10</v>
       </c>
       <c r="C91">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="D91">
         <v>19</v>
@@ -5452,7 +5450,7 @@
         <v>99</v>
       </c>
       <c r="F91">
-        <v>5700</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -5463,7 +5461,7 @@
         <v>11</v>
       </c>
       <c r="C92">
-        <v>1045</v>
+        <v>605</v>
       </c>
       <c r="D92">
         <v>21</v>
@@ -5472,7 +5470,7 @@
         <v>120</v>
       </c>
       <c r="F92">
-        <v>6400</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -5483,7 +5481,7 @@
         <v>12</v>
       </c>
       <c r="C93">
-        <v>1140</v>
+        <v>660</v>
       </c>
       <c r="D93">
         <v>23</v>
@@ -5492,7 +5490,7 @@
         <v>143</v>
       </c>
       <c r="F93">
-        <v>7100</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -5503,7 +5501,7 @@
         <v>13</v>
       </c>
       <c r="C94">
-        <v>1235</v>
+        <v>715</v>
       </c>
       <c r="D94">
         <v>25</v>
@@ -5512,7 +5510,7 @@
         <v>168</v>
       </c>
       <c r="F94">
-        <v>7800</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -5523,7 +5521,7 @@
         <v>14</v>
       </c>
       <c r="C95">
-        <v>1330</v>
+        <v>770</v>
       </c>
       <c r="D95">
         <v>27</v>
@@ -5532,7 +5530,7 @@
         <v>195</v>
       </c>
       <c r="F95">
-        <v>8500</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -5543,7 +5541,7 @@
         <v>15</v>
       </c>
       <c r="C96">
-        <v>1425</v>
+        <v>825</v>
       </c>
       <c r="D96">
         <v>29</v>
@@ -5552,7 +5550,7 @@
         <v>224</v>
       </c>
       <c r="F96">
-        <v>9200</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -5563,7 +5561,7 @@
         <v>16</v>
       </c>
       <c r="C97">
-        <v>1520</v>
+        <v>880</v>
       </c>
       <c r="D97">
         <v>31</v>
@@ -5572,7 +5570,7 @@
         <v>255</v>
       </c>
       <c r="F97">
-        <v>9900</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -5583,7 +5581,7 @@
         <v>17</v>
       </c>
       <c r="C98">
-        <v>1615</v>
+        <v>935</v>
       </c>
       <c r="D98">
         <v>33</v>
@@ -5592,7 +5590,7 @@
         <v>288</v>
       </c>
       <c r="F98">
-        <v>10600</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -5603,7 +5601,7 @@
         <v>18</v>
       </c>
       <c r="C99">
-        <v>1710</v>
+        <v>990</v>
       </c>
       <c r="D99">
         <v>35</v>
@@ -5612,7 +5610,7 @@
         <v>323</v>
       </c>
       <c r="F99">
-        <v>11300</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -5623,7 +5621,7 @@
         <v>19</v>
       </c>
       <c r="C100">
-        <v>1805</v>
+        <v>1045</v>
       </c>
       <c r="D100">
         <v>37</v>
@@ -5632,7 +5630,7 @@
         <v>360</v>
       </c>
       <c r="F100">
-        <v>12000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -5643,7 +5641,7 @@
         <v>20</v>
       </c>
       <c r="C101">
-        <v>1900</v>
+        <v>1100</v>
       </c>
       <c r="D101">
         <v>39</v>
@@ -5652,7 +5650,7 @@
         <v>399</v>
       </c>
       <c r="F101">
-        <v>12700</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -5663,7 +5661,7 @@
         <v>21</v>
       </c>
       <c r="C102">
-        <v>1995</v>
+        <v>1155</v>
       </c>
       <c r="D102">
         <v>41</v>
@@ -5672,7 +5670,7 @@
         <v>440</v>
       </c>
       <c r="F102">
-        <v>13400</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -5683,7 +5681,7 @@
         <v>22</v>
       </c>
       <c r="C103">
-        <v>2090</v>
+        <v>1210</v>
       </c>
       <c r="D103">
         <v>43</v>
@@ -5692,7 +5690,7 @@
         <v>483</v>
       </c>
       <c r="F103">
-        <v>14100</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -5703,7 +5701,7 @@
         <v>23</v>
       </c>
       <c r="C104">
-        <v>2185</v>
+        <v>1265</v>
       </c>
       <c r="D104">
         <v>45</v>
@@ -5712,7 +5710,7 @@
         <v>528</v>
       </c>
       <c r="F104">
-        <v>14800</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -5723,7 +5721,7 @@
         <v>24</v>
       </c>
       <c r="C105">
-        <v>2280</v>
+        <v>1320</v>
       </c>
       <c r="D105">
         <v>47</v>
@@ -5732,7 +5730,7 @@
         <v>575</v>
       </c>
       <c r="F105">
-        <v>15500</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -5743,7 +5741,7 @@
         <v>25</v>
       </c>
       <c r="C106">
-        <v>2375</v>
+        <v>1375</v>
       </c>
       <c r="D106">
         <v>49</v>
@@ -5752,7 +5750,7 @@
         <v>624</v>
       </c>
       <c r="F106">
-        <v>16200</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -5763,7 +5761,7 @@
         <v>26</v>
       </c>
       <c r="C107">
-        <v>2470</v>
+        <v>1430</v>
       </c>
       <c r="D107">
         <v>51</v>
@@ -5772,7 +5770,7 @@
         <v>675</v>
       </c>
       <c r="F107">
-        <v>16900</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -5783,7 +5781,7 @@
         <v>27</v>
       </c>
       <c r="C108">
-        <v>2565</v>
+        <v>1485</v>
       </c>
       <c r="D108">
         <v>53</v>
@@ -5792,7 +5790,7 @@
         <v>728</v>
       </c>
       <c r="F108">
-        <v>17600</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -5803,7 +5801,7 @@
         <v>28</v>
       </c>
       <c r="C109">
-        <v>2660</v>
+        <v>1540</v>
       </c>
       <c r="D109">
         <v>55</v>
@@ -5812,7 +5810,7 @@
         <v>783</v>
       </c>
       <c r="F109">
-        <v>18300</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -5823,7 +5821,7 @@
         <v>29</v>
       </c>
       <c r="C110">
-        <v>2755</v>
+        <v>1595</v>
       </c>
       <c r="D110">
         <v>57</v>
@@ -5832,7 +5830,7 @@
         <v>840</v>
       </c>
       <c r="F110">
-        <v>19000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -5843,7 +5841,7 @@
         <v>30</v>
       </c>
       <c r="C111">
-        <v>2850</v>
+        <v>1650</v>
       </c>
       <c r="D111">
         <v>59</v>
@@ -5852,7 +5850,7 @@
         <v>899</v>
       </c>
       <c r="F111">
-        <v>19700</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -5863,7 +5861,7 @@
         <v>31</v>
       </c>
       <c r="C112">
-        <v>2945</v>
+        <v>1705</v>
       </c>
       <c r="D112">
         <v>61</v>
@@ -5872,7 +5870,7 @@
         <v>960</v>
       </c>
       <c r="F112">
-        <v>20400</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -5883,7 +5881,7 @@
         <v>32</v>
       </c>
       <c r="C113">
-        <v>3040</v>
+        <v>1760</v>
       </c>
       <c r="D113">
         <v>63</v>
@@ -5892,7 +5890,7 @@
         <v>1023</v>
       </c>
       <c r="F113">
-        <v>21100</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -5903,7 +5901,7 @@
         <v>33</v>
       </c>
       <c r="C114">
-        <v>3135</v>
+        <v>1815</v>
       </c>
       <c r="D114">
         <v>65</v>
@@ -5912,7 +5910,7 @@
         <v>1088</v>
       </c>
       <c r="F114">
-        <v>21800</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -5923,7 +5921,7 @@
         <v>34</v>
       </c>
       <c r="C115">
-        <v>3230</v>
+        <v>1870</v>
       </c>
       <c r="D115">
         <v>67</v>
@@ -5932,7 +5930,7 @@
         <v>1155</v>
       </c>
       <c r="F115">
-        <v>22500</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -5943,7 +5941,7 @@
         <v>35</v>
       </c>
       <c r="C116">
-        <v>3325</v>
+        <v>1925</v>
       </c>
       <c r="D116">
         <v>69</v>
@@ -5952,7 +5950,7 @@
         <v>1224</v>
       </c>
       <c r="F116">
-        <v>23200</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -5963,7 +5961,7 @@
         <v>36</v>
       </c>
       <c r="C117">
-        <v>3420</v>
+        <v>1980</v>
       </c>
       <c r="D117">
         <v>71</v>
@@ -5972,7 +5970,7 @@
         <v>1295</v>
       </c>
       <c r="F117">
-        <v>23900</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -5983,7 +5981,7 @@
         <v>37</v>
       </c>
       <c r="C118">
-        <v>3515</v>
+        <v>2035</v>
       </c>
       <c r="D118">
         <v>73</v>
@@ -5992,7 +5990,7 @@
         <v>1368</v>
       </c>
       <c r="F118">
-        <v>24600</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -6003,7 +6001,7 @@
         <v>38</v>
       </c>
       <c r="C119">
-        <v>3610</v>
+        <v>2090</v>
       </c>
       <c r="D119">
         <v>75</v>
@@ -6012,7 +6010,7 @@
         <v>1443</v>
       </c>
       <c r="F119">
-        <v>25300</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -6023,7 +6021,7 @@
         <v>39</v>
       </c>
       <c r="C120">
-        <v>3705</v>
+        <v>2145</v>
       </c>
       <c r="D120">
         <v>77</v>
@@ -6032,7 +6030,7 @@
         <v>1520</v>
       </c>
       <c r="F120">
-        <v>26000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -6043,7 +6041,7 @@
         <v>40</v>
       </c>
       <c r="C121">
-        <v>3800</v>
+        <v>2200</v>
       </c>
       <c r="D121">
         <v>79</v>
@@ -6052,7 +6050,7 @@
         <v>1599</v>
       </c>
       <c r="F121">
-        <v>26700</v>
+        <v>750000</v>
       </c>
     </row>
   </sheetData>
@@ -6065,7 +6063,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B90BAD2-7FC3-4CAF-BDC4-78BBB07EEBB6}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -6117,7 +6117,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -6126,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>30000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6137,7 +6137,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -6146,7 +6146,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>80000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6157,7 +6157,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -6166,7 +6166,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>150000</v>
+        <v>1050000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6177,7 +6177,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -6186,7 +6186,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>220000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6197,7 +6197,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -6206,7 +6206,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>290000</v>
+        <v>1750000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -6246,7 +6246,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>30000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6257,7 +6257,7 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -6266,7 +6266,7 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <v>80000</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -6277,7 +6277,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>600</v>
+        <v>270</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -6286,7 +6286,7 @@
         <v>3</v>
       </c>
       <c r="F11">
-        <v>150000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6297,7 +6297,7 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>800</v>
+        <v>360</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -6306,7 +6306,7 @@
         <v>4</v>
       </c>
       <c r="F12">
-        <v>220000</v>
+        <v>2400000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6317,7 +6317,7 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -6326,7 +6326,7 @@
         <v>5</v>
       </c>
       <c r="F13">
-        <v>290000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6357,7 +6357,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>500</v>
+        <v>175</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -6366,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>30000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -6377,7 +6377,7 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -6386,7 +6386,7 @@
         <v>2</v>
       </c>
       <c r="F16">
-        <v>80000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -6397,7 +6397,7 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>1500</v>
+        <v>525</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -6406,7 +6406,7 @@
         <v>3</v>
       </c>
       <c r="F17">
-        <v>150000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -6417,7 +6417,7 @@
         <v>4</v>
       </c>
       <c r="C18">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -6426,7 +6426,7 @@
         <v>4</v>
       </c>
       <c r="F18">
-        <v>220000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -6437,7 +6437,7 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>2500</v>
+        <v>875</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -6446,7 +6446,7 @@
         <v>5</v>
       </c>
       <c r="F19">
-        <v>290000</v>
+        <v>5000000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Actor.xlsx
+++ b/Excel/Actor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F50DC04-16C4-4E44-9EEE-555B29A46F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F141791-DDAC-4D9E-B754-66CA527E0A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
   </bookViews>
   <sheets>
     <sheet name="ActorTable" sheetId="2" r:id="rId1"/>
@@ -3627,7 +3627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A219A9F8-1530-48C4-A2DD-8656FA2CD589}">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3690,7 +3690,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>50000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -3710,7 +3710,7 @@
         <v>8</v>
       </c>
       <c r="F4">
-        <v>50000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -3730,7 +3730,7 @@
         <v>15</v>
       </c>
       <c r="F5">
-        <v>75000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -3750,7 +3750,7 @@
         <v>24</v>
       </c>
       <c r="F6">
-        <v>75000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -3770,7 +3770,7 @@
         <v>35</v>
       </c>
       <c r="F7">
-        <v>125000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -3790,7 +3790,7 @@
         <v>48</v>
       </c>
       <c r="F8">
-        <v>125000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -3810,7 +3810,7 @@
         <v>63</v>
       </c>
       <c r="F9">
-        <v>175000</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -3830,7 +3830,7 @@
         <v>80</v>
       </c>
       <c r="F10">
-        <v>175000</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -3850,7 +3850,7 @@
         <v>99</v>
       </c>
       <c r="F11">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -3870,7 +3870,7 @@
         <v>120</v>
       </c>
       <c r="F12">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -3890,7 +3890,7 @@
         <v>143</v>
       </c>
       <c r="F13">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -3910,7 +3910,7 @@
         <v>168</v>
       </c>
       <c r="F14">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -3930,7 +3930,7 @@
         <v>195</v>
       </c>
       <c r="F15">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -3950,7 +3950,7 @@
         <v>224</v>
       </c>
       <c r="F16">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -3970,7 +3970,7 @@
         <v>255</v>
       </c>
       <c r="F17">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -3990,7 +3990,7 @@
         <v>288</v>
       </c>
       <c r="F18">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -4010,7 +4010,7 @@
         <v>323</v>
       </c>
       <c r="F19">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -4030,7 +4030,7 @@
         <v>360</v>
       </c>
       <c r="F20">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -4050,7 +4050,7 @@
         <v>399</v>
       </c>
       <c r="F21">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -4070,7 +4070,7 @@
         <v>440</v>
       </c>
       <c r="F22">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -4090,7 +4090,7 @@
         <v>483</v>
       </c>
       <c r="F23">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -4110,7 +4110,7 @@
         <v>528</v>
       </c>
       <c r="F24">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -4130,7 +4130,7 @@
         <v>575</v>
       </c>
       <c r="F25">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -4150,7 +4150,7 @@
         <v>624</v>
       </c>
       <c r="F26">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -4170,7 +4170,7 @@
         <v>675</v>
       </c>
       <c r="F27">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -4190,7 +4190,7 @@
         <v>728</v>
       </c>
       <c r="F28">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -4210,7 +4210,7 @@
         <v>783</v>
       </c>
       <c r="F29">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -4230,7 +4230,7 @@
         <v>840</v>
       </c>
       <c r="F30">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -4250,7 +4250,7 @@
         <v>899</v>
       </c>
       <c r="F31">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -4270,7 +4270,7 @@
         <v>960</v>
       </c>
       <c r="F32">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -4290,7 +4290,7 @@
         <v>1023</v>
       </c>
       <c r="F33">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -4310,7 +4310,7 @@
         <v>1088</v>
       </c>
       <c r="F34">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -4330,7 +4330,7 @@
         <v>1155</v>
       </c>
       <c r="F35">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -4350,7 +4350,7 @@
         <v>1224</v>
       </c>
       <c r="F36">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -4370,7 +4370,7 @@
         <v>1295</v>
       </c>
       <c r="F37">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -4390,7 +4390,7 @@
         <v>1368</v>
       </c>
       <c r="F38">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -4410,7 +4410,7 @@
         <v>1443</v>
       </c>
       <c r="F39">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -4430,7 +4430,7 @@
         <v>1520</v>
       </c>
       <c r="F40">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -4450,7 +4450,7 @@
         <v>1599</v>
       </c>
       <c r="F41">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -4490,7 +4490,7 @@
         <v>3</v>
       </c>
       <c r="F43">
-        <v>100000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -4510,7 +4510,7 @@
         <v>8</v>
       </c>
       <c r="F44">
-        <v>100000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -4530,7 +4530,7 @@
         <v>15</v>
       </c>
       <c r="F45">
-        <v>150000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -4550,7 +4550,7 @@
         <v>24</v>
       </c>
       <c r="F46">
-        <v>150000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -4570,7 +4570,7 @@
         <v>35</v>
       </c>
       <c r="F47">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -4590,7 +4590,7 @@
         <v>48</v>
       </c>
       <c r="F48">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -4610,7 +4610,7 @@
         <v>63</v>
       </c>
       <c r="F49">
-        <v>350000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -4630,7 +4630,7 @@
         <v>80</v>
       </c>
       <c r="F50">
-        <v>350000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -4650,7 +4650,7 @@
         <v>99</v>
       </c>
       <c r="F51">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -4670,7 +4670,7 @@
         <v>120</v>
       </c>
       <c r="F52">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -4690,7 +4690,7 @@
         <v>143</v>
       </c>
       <c r="F53">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -4710,7 +4710,7 @@
         <v>168</v>
       </c>
       <c r="F54">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -4730,7 +4730,7 @@
         <v>195</v>
       </c>
       <c r="F55">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -4750,7 +4750,7 @@
         <v>224</v>
       </c>
       <c r="F56">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -4770,7 +4770,7 @@
         <v>255</v>
       </c>
       <c r="F57">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -4790,7 +4790,7 @@
         <v>288</v>
       </c>
       <c r="F58">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -4810,7 +4810,7 @@
         <v>323</v>
       </c>
       <c r="F59">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -4830,7 +4830,7 @@
         <v>360</v>
       </c>
       <c r="F60">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -4850,7 +4850,7 @@
         <v>399</v>
       </c>
       <c r="F61">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -4870,7 +4870,7 @@
         <v>440</v>
       </c>
       <c r="F62">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -4890,7 +4890,7 @@
         <v>483</v>
       </c>
       <c r="F63">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -4910,7 +4910,7 @@
         <v>528</v>
       </c>
       <c r="F64">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -4930,7 +4930,7 @@
         <v>575</v>
       </c>
       <c r="F65">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -4950,7 +4950,7 @@
         <v>624</v>
       </c>
       <c r="F66">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -4970,7 +4970,7 @@
         <v>675</v>
       </c>
       <c r="F67">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -4990,7 +4990,7 @@
         <v>728</v>
       </c>
       <c r="F68">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -5010,7 +5010,7 @@
         <v>783</v>
       </c>
       <c r="F69">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -5030,7 +5030,7 @@
         <v>840</v>
       </c>
       <c r="F70">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -5050,7 +5050,7 @@
         <v>899</v>
       </c>
       <c r="F71">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -5070,7 +5070,7 @@
         <v>960</v>
       </c>
       <c r="F72">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -5090,7 +5090,7 @@
         <v>1023</v>
       </c>
       <c r="F73">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -5110,7 +5110,7 @@
         <v>1088</v>
       </c>
       <c r="F74">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -5130,7 +5130,7 @@
         <v>1155</v>
       </c>
       <c r="F75">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -5150,7 +5150,7 @@
         <v>1224</v>
       </c>
       <c r="F76">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -5170,7 +5170,7 @@
         <v>1295</v>
       </c>
       <c r="F77">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -5190,7 +5190,7 @@
         <v>1368</v>
       </c>
       <c r="F78">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -5210,7 +5210,7 @@
         <v>1443</v>
       </c>
       <c r="F79">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -5230,7 +5230,7 @@
         <v>1520</v>
       </c>
       <c r="F80">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -5250,7 +5250,7 @@
         <v>1599</v>
       </c>
       <c r="F81">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -5290,7 +5290,7 @@
         <v>3</v>
       </c>
       <c r="F83">
-        <v>150000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -5310,7 +5310,7 @@
         <v>8</v>
       </c>
       <c r="F84">
-        <v>150000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -5330,7 +5330,7 @@
         <v>15</v>
       </c>
       <c r="F85">
-        <v>225000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -5350,7 +5350,7 @@
         <v>24</v>
       </c>
       <c r="F86">
-        <v>225000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -5370,7 +5370,7 @@
         <v>35</v>
       </c>
       <c r="F87">
-        <v>375000</v>
+        <v>37500</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -5390,7 +5390,7 @@
         <v>48</v>
       </c>
       <c r="F88">
-        <v>375000</v>
+        <v>37500</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -5410,7 +5410,7 @@
         <v>63</v>
       </c>
       <c r="F89">
-        <v>525000</v>
+        <v>52500</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -5430,7 +5430,7 @@
         <v>80</v>
       </c>
       <c r="F90">
-        <v>525000</v>
+        <v>52500</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -5450,7 +5450,7 @@
         <v>99</v>
       </c>
       <c r="F91">
-        <v>750000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -5470,7 +5470,7 @@
         <v>120</v>
       </c>
       <c r="F92">
-        <v>750000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -5490,7 +5490,7 @@
         <v>143</v>
       </c>
       <c r="F93">
-        <v>750000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -5510,7 +5510,7 @@
         <v>168</v>
       </c>
       <c r="F94">
-        <v>750000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -5530,7 +5530,7 @@
         <v>195</v>
       </c>
       <c r="F95">
-        <v>750000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -5550,7 +5550,7 @@
         <v>224</v>
       </c>
       <c r="F96">
-        <v>750000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -5570,7 +5570,7 @@
         <v>255</v>
       </c>
       <c r="F97">
-        <v>750000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -5590,7 +5590,7 @@
         <v>288</v>
       </c>
       <c r="F98">
-        <v>750000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -5610,7 +5610,7 @@
         <v>323</v>
       </c>
       <c r="F99">
-        <v>750000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -5630,7 +5630,7 @@
         <v>360</v>
       </c>
       <c r="F100">
-        <v>750000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -5650,7 +5650,7 @@
         <v>399</v>
       </c>
       <c r="F101">
-        <v>750000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -5670,7 +5670,7 @@
         <v>440</v>
       </c>
       <c r="F102">
-        <v>750000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -5690,7 +5690,7 @@
         <v>483</v>
       </c>
       <c r="F103">
-        <v>750000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -5710,7 +5710,7 @@
         <v>528</v>
       </c>
       <c r="F104">
-        <v>750000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -5730,7 +5730,7 @@
         <v>575</v>
       </c>
       <c r="F105">
-        <v>750000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -5750,7 +5750,7 @@
         <v>624</v>
       </c>
       <c r="F106">
-        <v>750000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -5770,7 +5770,7 @@
         <v>675</v>
       </c>
       <c r="F107">
-        <v>750000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -5790,7 +5790,7 @@
         <v>728</v>
       </c>
       <c r="F108">
-        <v>750000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -5810,7 +5810,7 @@
         <v>783</v>
       </c>
       <c r="F109">
-        <v>750000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -5830,7 +5830,7 @@
         <v>840</v>
       </c>
       <c r="F110">
-        <v>750000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -5850,7 +5850,7 @@
         <v>899</v>
       </c>
       <c r="F111">
-        <v>750000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -5870,7 +5870,7 @@
         <v>960</v>
       </c>
       <c r="F112">
-        <v>750000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -5890,7 +5890,7 @@
         <v>1023</v>
       </c>
       <c r="F113">
-        <v>750000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -5910,7 +5910,7 @@
         <v>1088</v>
       </c>
       <c r="F114">
-        <v>750000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -5930,7 +5930,7 @@
         <v>1155</v>
       </c>
       <c r="F115">
-        <v>750000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -5950,7 +5950,7 @@
         <v>1224</v>
       </c>
       <c r="F116">
-        <v>750000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -5970,7 +5970,7 @@
         <v>1295</v>
       </c>
       <c r="F117">
-        <v>750000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -5990,7 +5990,7 @@
         <v>1368</v>
       </c>
       <c r="F118">
-        <v>750000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -6010,7 +6010,7 @@
         <v>1443</v>
       </c>
       <c r="F119">
-        <v>750000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -6030,7 +6030,7 @@
         <v>1520</v>
       </c>
       <c r="F120">
-        <v>750000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -6050,7 +6050,7 @@
         <v>1599</v>
       </c>
       <c r="F121">
-        <v>750000</v>
+        <v>75000</v>
       </c>
     </row>
   </sheetData>
@@ -6063,7 +6063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B90BAD2-7FC3-4CAF-BDC4-78BBB07EEBB6}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6126,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>350000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6146,7 +6146,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>700000</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6166,7 +6166,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>1050000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6186,7 +6186,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>1400000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6206,7 +6206,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>1750000</v>
+        <v>175000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6246,7 +6246,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>600000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6266,7 +6266,7 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <v>1200000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -6286,7 +6286,7 @@
         <v>3</v>
       </c>
       <c r="F11">
-        <v>1800000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6306,7 +6306,7 @@
         <v>4</v>
       </c>
       <c r="F12">
-        <v>2400000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6326,7 +6326,7 @@
         <v>5</v>
       </c>
       <c r="F13">
-        <v>3000000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6366,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -6386,7 +6386,7 @@
         <v>2</v>
       </c>
       <c r="F16">
-        <v>2000000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -6406,7 +6406,7 @@
         <v>3</v>
       </c>
       <c r="F17">
-        <v>3000000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -6426,7 +6426,7 @@
         <v>4</v>
       </c>
       <c r="F18">
-        <v>4000000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -6446,7 +6446,7 @@
         <v>5</v>
       </c>
       <c r="F19">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Actor.xlsx
+++ b/Excel/Actor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F141791-DDAC-4D9E-B754-66CA527E0A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CD2954-1CA1-4A60-A109-900A6CFA3A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
   </bookViews>
   <sheets>
     <sheet name="ActorTable" sheetId="2" r:id="rId1"/>
@@ -3627,9 +3627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A219A9F8-1530-48C4-A2DD-8656FA2CD589}">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3684,10 +3682,10 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>5000</v>
@@ -3704,10 +3702,10 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F4">
         <v>5000</v>
@@ -3724,10 +3722,10 @@
         <v>48</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>7500</v>
@@ -3744,10 +3742,10 @@
         <v>60</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F6">
         <v>7500</v>
@@ -3764,10 +3762,10 @@
         <v>72</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F7">
         <v>12500</v>
@@ -3784,10 +3782,10 @@
         <v>84</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F8">
         <v>12500</v>
@@ -3804,10 +3802,10 @@
         <v>96</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F9">
         <v>17500</v>
@@ -3824,10 +3822,10 @@
         <v>108</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F10">
         <v>17500</v>
@@ -3844,10 +3842,10 @@
         <v>120</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="F11">
         <v>25000</v>
@@ -3864,10 +3862,10 @@
         <v>132</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E12">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F12">
         <v>25000</v>
@@ -3884,10 +3882,10 @@
         <v>144</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="F13">
         <v>25000</v>
@@ -3904,10 +3902,10 @@
         <v>156</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E14">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="F14">
         <v>25000</v>
@@ -3924,10 +3922,10 @@
         <v>168</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E15">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="F15">
         <v>25000</v>
@@ -3944,10 +3942,10 @@
         <v>180</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="F16">
         <v>25000</v>
@@ -3964,10 +3962,10 @@
         <v>192</v>
       </c>
       <c r="D17">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E17">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="F17">
         <v>25000</v>
@@ -3984,10 +3982,10 @@
         <v>204</v>
       </c>
       <c r="D18">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E18">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="F18">
         <v>25000</v>
@@ -4004,10 +4002,10 @@
         <v>216</v>
       </c>
       <c r="D19">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E19">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="F19">
         <v>25000</v>
@@ -4024,10 +4022,10 @@
         <v>228</v>
       </c>
       <c r="D20">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E20">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="F20">
         <v>25000</v>
@@ -4044,10 +4042,10 @@
         <v>240</v>
       </c>
       <c r="D21">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E21">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="F21">
         <v>25000</v>
@@ -4064,10 +4062,10 @@
         <v>252</v>
       </c>
       <c r="D22">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E22">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="F22">
         <v>25000</v>
@@ -4084,10 +4082,10 @@
         <v>264</v>
       </c>
       <c r="D23">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E23">
-        <v>483</v>
+        <v>441</v>
       </c>
       <c r="F23">
         <v>25000</v>
@@ -4104,10 +4102,10 @@
         <v>276</v>
       </c>
       <c r="D24">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E24">
-        <v>528</v>
+        <v>484</v>
       </c>
       <c r="F24">
         <v>25000</v>
@@ -4124,10 +4122,10 @@
         <v>288</v>
       </c>
       <c r="D25">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E25">
-        <v>575</v>
+        <v>529</v>
       </c>
       <c r="F25">
         <v>25000</v>
@@ -4144,10 +4142,10 @@
         <v>300</v>
       </c>
       <c r="D26">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E26">
-        <v>624</v>
+        <v>576</v>
       </c>
       <c r="F26">
         <v>25000</v>
@@ -4164,10 +4162,10 @@
         <v>312</v>
       </c>
       <c r="D27">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E27">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="F27">
         <v>25000</v>
@@ -4184,10 +4182,10 @@
         <v>324</v>
       </c>
       <c r="D28">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E28">
-        <v>728</v>
+        <v>676</v>
       </c>
       <c r="F28">
         <v>25000</v>
@@ -4204,10 +4202,10 @@
         <v>336</v>
       </c>
       <c r="D29">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E29">
-        <v>783</v>
+        <v>729</v>
       </c>
       <c r="F29">
         <v>25000</v>
@@ -4224,10 +4222,10 @@
         <v>348</v>
       </c>
       <c r="D30">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E30">
-        <v>840</v>
+        <v>784</v>
       </c>
       <c r="F30">
         <v>25000</v>
@@ -4244,10 +4242,10 @@
         <v>360</v>
       </c>
       <c r="D31">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E31">
-        <v>899</v>
+        <v>841</v>
       </c>
       <c r="F31">
         <v>25000</v>
@@ -4264,10 +4262,10 @@
         <v>372</v>
       </c>
       <c r="D32">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E32">
-        <v>960</v>
+        <v>900</v>
       </c>
       <c r="F32">
         <v>25000</v>
@@ -4284,10 +4282,10 @@
         <v>384</v>
       </c>
       <c r="D33">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E33">
-        <v>1023</v>
+        <v>961</v>
       </c>
       <c r="F33">
         <v>25000</v>
@@ -4304,10 +4302,10 @@
         <v>396</v>
       </c>
       <c r="D34">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E34">
-        <v>1088</v>
+        <v>1024</v>
       </c>
       <c r="F34">
         <v>25000</v>
@@ -4324,10 +4322,10 @@
         <v>408</v>
       </c>
       <c r="D35">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E35">
-        <v>1155</v>
+        <v>1089</v>
       </c>
       <c r="F35">
         <v>25000</v>
@@ -4344,10 +4342,10 @@
         <v>420</v>
       </c>
       <c r="D36">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E36">
-        <v>1224</v>
+        <v>1156</v>
       </c>
       <c r="F36">
         <v>25000</v>
@@ -4364,10 +4362,10 @@
         <v>432</v>
       </c>
       <c r="D37">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E37">
-        <v>1295</v>
+        <v>1225</v>
       </c>
       <c r="F37">
         <v>25000</v>
@@ -4384,10 +4382,10 @@
         <v>444</v>
       </c>
       <c r="D38">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E38">
-        <v>1368</v>
+        <v>1296</v>
       </c>
       <c r="F38">
         <v>25000</v>
@@ -4404,10 +4402,10 @@
         <v>456</v>
       </c>
       <c r="D39">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E39">
-        <v>1443</v>
+        <v>1369</v>
       </c>
       <c r="F39">
         <v>25000</v>
@@ -4424,10 +4422,10 @@
         <v>468</v>
       </c>
       <c r="D40">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E40">
-        <v>1520</v>
+        <v>1444</v>
       </c>
       <c r="F40">
         <v>25000</v>
@@ -4444,10 +4442,10 @@
         <v>480</v>
       </c>
       <c r="D41">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E41">
-        <v>1599</v>
+        <v>1521</v>
       </c>
       <c r="F41">
         <v>25000</v>
@@ -4484,10 +4482,10 @@
         <v>54</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>10000</v>
@@ -4504,10 +4502,10 @@
         <v>81</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F44">
         <v>10000</v>
@@ -4524,10 +4522,10 @@
         <v>108</v>
       </c>
       <c r="D45">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E45">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F45">
         <v>15000</v>
@@ -4544,10 +4542,10 @@
         <v>135</v>
       </c>
       <c r="D46">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E46">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F46">
         <v>15000</v>
@@ -4564,10 +4562,10 @@
         <v>162</v>
       </c>
       <c r="D47">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E47">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F47">
         <v>25000</v>
@@ -4584,10 +4582,10 @@
         <v>189</v>
       </c>
       <c r="D48">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E48">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F48">
         <v>25000</v>
@@ -4604,10 +4602,10 @@
         <v>216</v>
       </c>
       <c r="D49">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E49">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F49">
         <v>35000</v>
@@ -4624,10 +4622,10 @@
         <v>243</v>
       </c>
       <c r="D50">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E50">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F50">
         <v>35000</v>
@@ -4644,10 +4642,10 @@
         <v>270</v>
       </c>
       <c r="D51">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E51">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="F51">
         <v>50000</v>
@@ -4664,10 +4662,10 @@
         <v>297</v>
       </c>
       <c r="D52">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E52">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F52">
         <v>50000</v>
@@ -4684,10 +4682,10 @@
         <v>324</v>
       </c>
       <c r="D53">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E53">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="F53">
         <v>50000</v>
@@ -4704,10 +4702,10 @@
         <v>351</v>
       </c>
       <c r="D54">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E54">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="F54">
         <v>50000</v>
@@ -4724,10 +4722,10 @@
         <v>378</v>
       </c>
       <c r="D55">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E55">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="F55">
         <v>50000</v>
@@ -4744,10 +4742,10 @@
         <v>405</v>
       </c>
       <c r="D56">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E56">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="F56">
         <v>50000</v>
@@ -4764,10 +4762,10 @@
         <v>432</v>
       </c>
       <c r="D57">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E57">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="F57">
         <v>50000</v>
@@ -4784,10 +4782,10 @@
         <v>459</v>
       </c>
       <c r="D58">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E58">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="F58">
         <v>50000</v>
@@ -4804,10 +4802,10 @@
         <v>486</v>
       </c>
       <c r="D59">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E59">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="F59">
         <v>50000</v>
@@ -4824,10 +4822,10 @@
         <v>513</v>
       </c>
       <c r="D60">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E60">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="F60">
         <v>50000</v>
@@ -4844,10 +4842,10 @@
         <v>540</v>
       </c>
       <c r="D61">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E61">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="F61">
         <v>50000</v>
@@ -4864,10 +4862,10 @@
         <v>567</v>
       </c>
       <c r="D62">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E62">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="F62">
         <v>50000</v>
@@ -4884,10 +4882,10 @@
         <v>594</v>
       </c>
       <c r="D63">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E63">
-        <v>483</v>
+        <v>441</v>
       </c>
       <c r="F63">
         <v>50000</v>
@@ -4904,10 +4902,10 @@
         <v>621</v>
       </c>
       <c r="D64">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E64">
-        <v>528</v>
+        <v>484</v>
       </c>
       <c r="F64">
         <v>50000</v>
@@ -4924,10 +4922,10 @@
         <v>648</v>
       </c>
       <c r="D65">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E65">
-        <v>575</v>
+        <v>529</v>
       </c>
       <c r="F65">
         <v>50000</v>
@@ -4944,10 +4942,10 @@
         <v>675</v>
       </c>
       <c r="D66">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E66">
-        <v>624</v>
+        <v>576</v>
       </c>
       <c r="F66">
         <v>50000</v>
@@ -4964,10 +4962,10 @@
         <v>702</v>
       </c>
       <c r="D67">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E67">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="F67">
         <v>50000</v>
@@ -4984,10 +4982,10 @@
         <v>729</v>
       </c>
       <c r="D68">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E68">
-        <v>728</v>
+        <v>676</v>
       </c>
       <c r="F68">
         <v>50000</v>
@@ -5004,10 +5002,10 @@
         <v>756</v>
       </c>
       <c r="D69">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E69">
-        <v>783</v>
+        <v>729</v>
       </c>
       <c r="F69">
         <v>50000</v>
@@ -5024,10 +5022,10 @@
         <v>783</v>
       </c>
       <c r="D70">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E70">
-        <v>840</v>
+        <v>784</v>
       </c>
       <c r="F70">
         <v>50000</v>
@@ -5044,10 +5042,10 @@
         <v>810</v>
       </c>
       <c r="D71">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E71">
-        <v>899</v>
+        <v>841</v>
       </c>
       <c r="F71">
         <v>50000</v>
@@ -5064,10 +5062,10 @@
         <v>837</v>
       </c>
       <c r="D72">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E72">
-        <v>960</v>
+        <v>900</v>
       </c>
       <c r="F72">
         <v>50000</v>
@@ -5084,10 +5082,10 @@
         <v>864</v>
       </c>
       <c r="D73">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E73">
-        <v>1023</v>
+        <v>961</v>
       </c>
       <c r="F73">
         <v>50000</v>
@@ -5104,10 +5102,10 @@
         <v>891</v>
       </c>
       <c r="D74">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E74">
-        <v>1088</v>
+        <v>1024</v>
       </c>
       <c r="F74">
         <v>50000</v>
@@ -5124,10 +5122,10 @@
         <v>918</v>
       </c>
       <c r="D75">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E75">
-        <v>1155</v>
+        <v>1089</v>
       </c>
       <c r="F75">
         <v>50000</v>
@@ -5144,10 +5142,10 @@
         <v>945</v>
       </c>
       <c r="D76">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E76">
-        <v>1224</v>
+        <v>1156</v>
       </c>
       <c r="F76">
         <v>50000</v>
@@ -5164,10 +5162,10 @@
         <v>972</v>
       </c>
       <c r="D77">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E77">
-        <v>1295</v>
+        <v>1225</v>
       </c>
       <c r="F77">
         <v>50000</v>
@@ -5184,10 +5182,10 @@
         <v>999</v>
       </c>
       <c r="D78">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E78">
-        <v>1368</v>
+        <v>1296</v>
       </c>
       <c r="F78">
         <v>50000</v>
@@ -5204,10 +5202,10 @@
         <v>1026</v>
       </c>
       <c r="D79">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E79">
-        <v>1443</v>
+        <v>1369</v>
       </c>
       <c r="F79">
         <v>50000</v>
@@ -5224,10 +5222,10 @@
         <v>1053</v>
       </c>
       <c r="D80">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E80">
-        <v>1520</v>
+        <v>1444</v>
       </c>
       <c r="F80">
         <v>50000</v>
@@ -5244,10 +5242,10 @@
         <v>1080</v>
       </c>
       <c r="D81">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E81">
-        <v>1599</v>
+        <v>1521</v>
       </c>
       <c r="F81">
         <v>50000</v>
@@ -5284,10 +5282,10 @@
         <v>110</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F83">
         <v>15000</v>
@@ -5304,10 +5302,10 @@
         <v>165</v>
       </c>
       <c r="D84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E84">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F84">
         <v>15000</v>
@@ -5324,10 +5322,10 @@
         <v>220</v>
       </c>
       <c r="D85">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E85">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F85">
         <v>22500</v>
@@ -5344,10 +5342,10 @@
         <v>275</v>
       </c>
       <c r="D86">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E86">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F86">
         <v>22500</v>
@@ -5364,10 +5362,10 @@
         <v>330</v>
       </c>
       <c r="D87">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E87">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F87">
         <v>37500</v>
@@ -5384,10 +5382,10 @@
         <v>385</v>
       </c>
       <c r="D88">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E88">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F88">
         <v>37500</v>
@@ -5404,10 +5402,10 @@
         <v>440</v>
       </c>
       <c r="D89">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E89">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F89">
         <v>52500</v>
@@ -5424,10 +5422,10 @@
         <v>495</v>
       </c>
       <c r="D90">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E90">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F90">
         <v>52500</v>
@@ -5444,10 +5442,10 @@
         <v>550</v>
       </c>
       <c r="D91">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E91">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="F91">
         <v>75000</v>
@@ -5464,10 +5462,10 @@
         <v>605</v>
       </c>
       <c r="D92">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E92">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F92">
         <v>75000</v>
@@ -5484,10 +5482,10 @@
         <v>660</v>
       </c>
       <c r="D93">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E93">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="F93">
         <v>75000</v>
@@ -5504,10 +5502,10 @@
         <v>715</v>
       </c>
       <c r="D94">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E94">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="F94">
         <v>75000</v>
@@ -5524,10 +5522,10 @@
         <v>770</v>
       </c>
       <c r="D95">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E95">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="F95">
         <v>75000</v>
@@ -5544,10 +5542,10 @@
         <v>825</v>
       </c>
       <c r="D96">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E96">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="F96">
         <v>75000</v>
@@ -5564,10 +5562,10 @@
         <v>880</v>
       </c>
       <c r="D97">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E97">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="F97">
         <v>75000</v>
@@ -5584,10 +5582,10 @@
         <v>935</v>
       </c>
       <c r="D98">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E98">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="F98">
         <v>75000</v>
@@ -5604,10 +5602,10 @@
         <v>990</v>
       </c>
       <c r="D99">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E99">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="F99">
         <v>75000</v>
@@ -5624,10 +5622,10 @@
         <v>1045</v>
       </c>
       <c r="D100">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E100">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="F100">
         <v>75000</v>
@@ -5644,10 +5642,10 @@
         <v>1100</v>
       </c>
       <c r="D101">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E101">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="F101">
         <v>75000</v>
@@ -5664,10 +5662,10 @@
         <v>1155</v>
       </c>
       <c r="D102">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E102">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="F102">
         <v>75000</v>
@@ -5684,10 +5682,10 @@
         <v>1210</v>
       </c>
       <c r="D103">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E103">
-        <v>483</v>
+        <v>441</v>
       </c>
       <c r="F103">
         <v>75000</v>
@@ -5704,10 +5702,10 @@
         <v>1265</v>
       </c>
       <c r="D104">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E104">
-        <v>528</v>
+        <v>484</v>
       </c>
       <c r="F104">
         <v>75000</v>
@@ -5724,10 +5722,10 @@
         <v>1320</v>
       </c>
       <c r="D105">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E105">
-        <v>575</v>
+        <v>529</v>
       </c>
       <c r="F105">
         <v>75000</v>
@@ -5744,10 +5742,10 @@
         <v>1375</v>
       </c>
       <c r="D106">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E106">
-        <v>624</v>
+        <v>576</v>
       </c>
       <c r="F106">
         <v>75000</v>
@@ -5764,10 +5762,10 @@
         <v>1430</v>
       </c>
       <c r="D107">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E107">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="F107">
         <v>75000</v>
@@ -5784,10 +5782,10 @@
         <v>1485</v>
       </c>
       <c r="D108">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E108">
-        <v>728</v>
+        <v>676</v>
       </c>
       <c r="F108">
         <v>75000</v>
@@ -5804,10 +5802,10 @@
         <v>1540</v>
       </c>
       <c r="D109">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E109">
-        <v>783</v>
+        <v>729</v>
       </c>
       <c r="F109">
         <v>75000</v>
@@ -5824,10 +5822,10 @@
         <v>1595</v>
       </c>
       <c r="D110">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E110">
-        <v>840</v>
+        <v>784</v>
       </c>
       <c r="F110">
         <v>75000</v>
@@ -5844,10 +5842,10 @@
         <v>1650</v>
       </c>
       <c r="D111">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E111">
-        <v>899</v>
+        <v>841</v>
       </c>
       <c r="F111">
         <v>75000</v>
@@ -5864,10 +5862,10 @@
         <v>1705</v>
       </c>
       <c r="D112">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E112">
-        <v>960</v>
+        <v>900</v>
       </c>
       <c r="F112">
         <v>75000</v>
@@ -5884,10 +5882,10 @@
         <v>1760</v>
       </c>
       <c r="D113">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E113">
-        <v>1023</v>
+        <v>961</v>
       </c>
       <c r="F113">
         <v>75000</v>
@@ -5904,10 +5902,10 @@
         <v>1815</v>
       </c>
       <c r="D114">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E114">
-        <v>1088</v>
+        <v>1024</v>
       </c>
       <c r="F114">
         <v>75000</v>
@@ -5924,10 +5922,10 @@
         <v>1870</v>
       </c>
       <c r="D115">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E115">
-        <v>1155</v>
+        <v>1089</v>
       </c>
       <c r="F115">
         <v>75000</v>
@@ -5944,10 +5942,10 @@
         <v>1925</v>
       </c>
       <c r="D116">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E116">
-        <v>1224</v>
+        <v>1156</v>
       </c>
       <c r="F116">
         <v>75000</v>
@@ -5964,10 +5962,10 @@
         <v>1980</v>
       </c>
       <c r="D117">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E117">
-        <v>1295</v>
+        <v>1225</v>
       </c>
       <c r="F117">
         <v>75000</v>
@@ -5984,10 +5982,10 @@
         <v>2035</v>
       </c>
       <c r="D118">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E118">
-        <v>1368</v>
+        <v>1296</v>
       </c>
       <c r="F118">
         <v>75000</v>
@@ -6004,10 +6002,10 @@
         <v>2090</v>
       </c>
       <c r="D119">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E119">
-        <v>1443</v>
+        <v>1369</v>
       </c>
       <c r="F119">
         <v>75000</v>
@@ -6024,10 +6022,10 @@
         <v>2145</v>
       </c>
       <c r="D120">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E120">
-        <v>1520</v>
+        <v>1444</v>
       </c>
       <c r="F120">
         <v>75000</v>
@@ -6044,10 +6042,10 @@
         <v>2200</v>
       </c>
       <c r="D121">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E121">
-        <v>1599</v>
+        <v>1521</v>
       </c>
       <c r="F121">
         <v>75000</v>
@@ -6063,7 +6061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B90BAD2-7FC3-4CAF-BDC4-78BBB07EEBB6}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Actor.xlsx
+++ b/Excel/Actor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CD2954-1CA1-4A60-A109-900A6CFA3A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE89AB5C-7631-4E03-A411-A3EC3FD9F08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
   </bookViews>
   <sheets>
     <sheet name="ActorTable" sheetId="2" r:id="rId1"/>
@@ -1069,7 +1069,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2C0BC1-FCA1-449A-8610-F80C265CA071}">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1166,7 +1168,7 @@
         <v>142</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>0.86099999999999999</v>
@@ -1929,7 +1931,7 @@
         <v>87</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0.83199999999999996</v>
@@ -2000,7 +2002,7 @@
         <v>82</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>1.1719999999999999</v>
@@ -2207,7 +2209,7 @@
         <v>67</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0.95799999999999996</v>
@@ -2559,7 +2561,7 @@
         <v>42</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0.92500000000000004</v>
@@ -2766,7 +2768,7 @@
         <v>27</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>1.151</v>
@@ -2834,7 +2836,7 @@
         <v>22</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>0.91200000000000003</v>
@@ -3627,7 +3629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A219A9F8-1530-48C4-A2DD-8656FA2CD589}">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/Excel/Actor.xlsx
+++ b/Excel/Actor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE89AB5C-7631-4E03-A411-A3EC3FD9F08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDCBCBB-6B40-4BE5-B407-F19591C2332F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
   </bookViews>
   <sheets>
     <sheet name="ActorTable" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="228">
   <si>
     <t>Portrait_AngelicWarrior</t>
   </si>
@@ -704,6 +704,25 @@
   </si>
   <si>
     <t>Portrait_Tenebro</t>
+  </si>
+  <si>
+    <t>CharLowName_Drone</t>
+  </si>
+  <si>
+    <t>CharName_Drone</t>
+  </si>
+  <si>
+    <t>CharDesc_Drone</t>
+  </si>
+  <si>
+    <t>Drone</t>
+  </si>
+  <si>
+    <t>Portrait_Drone</t>
+  </si>
+  <si>
+    <t>Actor1046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1067,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2C0BC1-FCA1-449A-8610-F80C265CA071}">
-  <dimension ref="A1:X31"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3237,6 +3256,74 @@
       </c>
       <c r="V31">
         <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>227</v>
+      </c>
+      <c r="B32" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32" t="s">
+        <v>223</v>
+      </c>
+      <c r="D32" t="s">
+        <v>224</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H32">
+        <v>0.2</v>
+      </c>
+      <c r="I32">
+        <v>0.01</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32" t="s">
+        <v>225</v>
+      </c>
+      <c r="O32" t="s">
+        <v>226</v>
+      </c>
+      <c r="P32">
+        <v>0.05</v>
+      </c>
+      <c r="Q32" t="b">
+        <v>1</v>
+      </c>
+      <c r="R32" t="b">
+        <v>1</v>
+      </c>
+      <c r="S32" t="b">
+        <v>1</v>
+      </c>
+      <c r="T32" t="b">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>58</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Actor.xlsx
+++ b/Excel/Actor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDCBCBB-6B40-4BE5-B407-F19591C2332F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90135954-E3E7-4C02-8818-7308F14CB75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
   </bookViews>
   <sheets>
     <sheet name="ActorTable" sheetId="2" r:id="rId1"/>
@@ -722,7 +722,6 @@
   </si>
   <si>
     <t>Actor1046</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1088,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2C0BC1-FCA1-449A-8610-F80C265CA071}">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1235,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="V2">
         <v>30</v>
@@ -1439,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V5">
         <v>30</v>
@@ -1507,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V6">
         <v>30</v>
@@ -1717,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="U9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V9">
         <v>30</v>
@@ -1788,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="V10">
         <v>30</v>
@@ -1930,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V12">
         <v>14</v>
@@ -1998,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="V13">
         <v>30</v>
@@ -2069,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="V14">
         <v>1</v>
@@ -2137,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V15">
         <v>14</v>
@@ -2276,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="V17">
         <v>14</v>
@@ -2486,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V20">
         <v>30</v>
@@ -2628,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="V22">
         <v>14</v>
@@ -2696,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V23">
         <v>30</v>
@@ -2764,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V24">
         <v>30</v>
@@ -2835,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="V25">
         <v>1</v>
@@ -2903,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="V26">
         <v>30</v>
@@ -2974,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V27">
         <v>1</v>
@@ -3045,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="U28">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V28">
         <v>30</v>
@@ -3113,7 +3112,7 @@
         <v>1</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V29">
         <v>1</v>
@@ -3252,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="V31">
         <v>1</v>

--- a/Excel/Actor.xlsx
+++ b/Excel/Actor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90135954-E3E7-4C02-8818-7308F14CB75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CC9060-DBE3-4295-B855-CB48D2C1C2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94481F1D-1D61-4E23-90DD-352B3DAB9527}"/>
   </bookViews>
@@ -1192,7 +1192,7 @@
         <v>0.86099999999999999</v>
       </c>
       <c r="G2">
-        <v>0.80600000000000005</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="H2">
         <v>0.81100000000000005</v>
@@ -2860,7 +2860,7 @@
         <v>0.91200000000000003</v>
       </c>
       <c r="G26">
-        <v>0.75600000000000001</v>
+        <v>1.056</v>
       </c>
       <c r="H26">
         <v>0.84899999999999998</v>
